--- a/deuChatbot/research_result/version_2(2500_500).xlsx
+++ b/deuChatbot/research_result/version_2(2500_500).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13686,6 +13686,7187 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 종목, 준비물, 실기주제, 화지크기, 시험시간, 배점 및 주요 요구사항에 대한 정보를 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 항목이 명확하게 정리되어 있어 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련된 모든 정보를 다루고 있으며, 실기시험에 대한 설명이 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉬운 방식으로 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 섹션이 잘 연결되어 있어 전체적으로 일관된 구조를 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성에 있어 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8824152737495387</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인 분야에서 진행되며, 각 분야는 다른 종목을 준비해야 합니다. 여기서 디자인조형학과의 실기시험에 대해 자세히 설명드리겠습니다:
+### 1. 모집단위 및 종목
+- **모집단위**: 시각디자인 / 산업디자인 / 공예디자인 중 선택
+- **종목**:
+  - **기초디자인**
+  - **사고의 전환**
+### 2. 준비물
+- 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+### 3. 실기주제 및 화지크기
+- **기초디자인**:
+  - **실기주제**: 주제A와 주제B에서 각각 1개씩 선택하여 연결된 주제를 당일 추첨으로 결정합니다.
+    - 예시: 잠자리와 저울, 악보와 계절 등
+  - **화지크기**: 켄트지3절
+  - **시간**: 5시간
+- **사고의 전환**:
+  - **실기주제**: 주제A와 주제B에서 각각 1개씩 선택하여 연결된 주제를 당일 추첨으로 결정합니다.
+    - 예시: 콜라병과 계절, 마스크와 자유 등
+  - **화지크기**: 켄트지2절
+  - **시간**: 5시간
+### 4. 평가 기준 및 배점
+- **기초디자인**:
+  - **배점**: 700점 (70%)
+- **사고의 전환**:
+  - **배점**: 700점 (70%)
+### 5. 주요 요구사항
+- 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+- 제공된 사물은 모두 1회 이상 표현해야 합니다.
+- 제공된 사물의 색상은 변경하지 마세요.
+이러한 정보를 바탕으로, 디자인조형학과의 실기시험 준비는 주제에 대한 창의적인 접근과 표현 능력을 키우는 데 중점을 두어야 합니다. 다양한 주제와 환경을 통해 자신의 창의성을 발휘하고, 제공된 사물들을 효과적으로 활용하여 작품을 완성하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트에 직접적으로 관련되어 있으며, 모든 중요한 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8886614286607721</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+1. **실기종목**:
+   - 기초디자인
+   - 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+   - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+4. **화지크기**:
+   - 켄트지3절
+5. **시험기간**:
+   - 5시간
+주제는 주제A와 주제B에서 각각 하나씩 선택하여 연결된 주제로 당일 추첨을 통해 결정됩니다. 제공된 사물과 이미지 이외의 형상은 표현하지 말아야 하며, 제공된 사물은 모두 1회 이상 표현해야 합니다. 제공된 사물의 색상 변경도 금지되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 대회 목록을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, "various international competitions" 부분에서 영어가 사용된 점이 약간의 유창성 저하를 초래했습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회가 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.8994263064900002</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에서는 다음과 같은 대회들을 인정합니다:
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - various international competitions (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 상위권 입상자들은 경기실적을 인정받아 지원에 유리하게 작용합니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 주제와 예시를 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 핵심 내용을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.938512259048359</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+1. 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+두 가지 주제 중에서 각각 하나를 선택하여 연결된 주제로 만듭니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 일반적으로 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "특히 나군 학생부교과(평생학습자전형)와 같은 경우"라는 부분은 구체적인 정보가 부족하여 다소 모호하게 느껴질 수 있습니다. 
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 출결 점수가 반영되지 않는다고 언급하고 있습니다. 다만, 나군 학생부교과 전형에 대한 추가 정보가 포함되어 있어 약간의 일관성 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공합니다. 출결 점수의 반영 여부에 대한 명확한 답변을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 나군 학생부교과 전형에 대한 언급이 추가되어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있습니다. 그러나 나군 학생부교과 전형에 대한 구체적인 정보가 부족하여 정확성에 약간의 의문이 생길 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다. 그러나 일부 모호한 부분이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 제공합니다. 그러나 나군 학생부교과 전형에 대한 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6395344259821139</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서 출결 점수는 일반적으로 반영되지 않습니다. 
+특히 나군 학생부교과(평생학습자전형)와 같은 경우, 출결 점수가 0%로 표시되어 있습니다. 이는 출결이 학생부교과 전형에서 중요한 평가 요소로 반영되지 않는 것을 의미합니다.
+만약 다른 특정 전형이나 모집단위에서 출결 점수가 반영되는 경우에는 해당 정보를 확인하기 위해 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 사실을 잘못 전달하고 있습니다. 원문에서는 17명을 모집한다고 명시되어 있지만, 생성된 응답에서는 45명을 모집한다고 잘못 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문과 생성된 응답 간에 모집 인원에 대한 정보가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원문에서 언급된 모집 인원에 대한 정보가 잘못되었기 때문에 관련성이 낮아집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 원문과의 정보 불일치로 인해 논리적인 흐름이 약간 깨집니다. 정보의 일관성이 부족하여 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 생성된 응답이 매우 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.6508367449775151</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>45명을 모집합니다. 
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"전형별 모집단위별 모집인원에서 단과대학은 인문사회과학대학이며, 모집단위은 국어국문학과 - 교직이며, 정원 내 모집인원은 45이며, &lt;가군&gt;의 일반 학생은 17이며..."</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6174139585003603</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과 - 교직은 다음과 같이 기재되어 있습니다:
+- 단과대학: 인문사회과학대학
+- 계열: 인문사회
+- 모집단위: 영어영문학과 - 교직
+- 모집인원: 28</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.832501319166889</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 나군 일반 학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 영어영역 등급에 따른 점수를 정확히 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수능 영어영역 등급에 따른 점수에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 언어가 다르기 때문에 일부 사용자가 이해하는 데 어려움이 있을 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 따라서 이해 가능성 점수는 다소 낮습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.6943738733996545</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>以下是按照英语等级对应的分数：
+- 等级1，分数139
+- 等级2，分数131
+- 等级3，分数123
+- 等级4，分数115
+- 等级5，分数107
+- 等级6，分数99
+- 等级7，分数91
+- 等级8，分数83
+- 等级9，分数75</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 주장하고 있지만, 이는 원문에서 명확히 부정되고 있습니다. 원문에 따르면 예술고 출신자는 지원할 수 없으므로, 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있는데, 생성된 응답은 이를 반박하는 내용을 담고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있습니다. 예술고 학생의 지원 가능성에 대한 질문에 대한 답변을 제공하고 있으므로, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 포함하고 있지만, 원문과의 상반된 주장으로 인해 전체적인 일관성이 떨어집니다. 따라서 응답의 일관성은 다소 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 예술고 학생이 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있어, 의미적으로 적절하지 않습니다. 원문의 맥락을 무시하고 잘못된 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 높지만, 내용의 정확성 문제로 인해 점수가 낮아질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.694115845213272</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 
+관련 정보:
+- 나군 학생부교과(농어촌학생전형)의 고교유형별 지원자격에서 특수목적고의 예술고는 지원 가능합니다.
+- 예를 들어, "나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원" 섹션에서는 예술고가 지원 가능한 대상으로 명시되어 있습니다.
+따라서 예술고 출신의 학생은 나군 농어촌학생전형을 통해 해당 대학에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 4등급의 기록이 268~271cm로 잘못 기재되어 있으며, 이는 원본 텍스트의 218~221cm와 상충합니다. 배점은 정확하게 언급되었으나, 기록의 부정확성으로 인해 전체적인 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 기록 부분에서 일치하지 않으며, 이는 일관성을 저해합니다. 배점은 일치하지만, 기록의 불일치로 인해 전체적인 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급의 기록과 배점에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 기록의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 기록 부분에서의 부정확성으로 인해 전체적인 정확성이 낮습니다. 배점은 정확하지만, 기록의 오류가 전체적인 정확성을 저해합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 잘 수행되었으나, 사실성과 정확성에서 큰 문제가 있어 전체적인 품질이 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서 적합합니다. 그러나 기록의 부정확성으로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 다만, 기록의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8839098844299735</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급의 여자 레저스포츠학과 제자리 멀리뛰기 기록은 268～271cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공되지만, 핵심 사실은 정확합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다. 추가적인 설명이 포함되어도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 어색한 표현이 있을 수 있습니다. 그러나 전반적으로 이해하기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 다만, 추가된 정보가 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보가 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.7440841475495136</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과의 출결 반영 비율은 전형요소 반영비율에서 다군 실기/실적(일반학생전형) 경기지도학과로 해당됩니다.
+출결 반영 비율은 **12%**입니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가된 정보도 관련성이 높고 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 질문에 대한 직접적인 답변을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실적입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4829187706081639</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **모집단위**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+- **실기종목**: 기초디자인, 사고의 전환
+- **배점 비율**: 각 실기종목이 700점(70%)으로 배점됨
+참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 반영하고 있지만, 동의대학교의 2024학년도 응용화학과에 대한 구체적인 정보가 부족하여 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 최저 학력 기준이 없다는 점을 언급하고 있지만, 추가적인 정보가 포함되어 있어 원문과의 일관성이 떨어집니다. 특히, 다른 전공의 기준에 대한 언급이 원문과의 일관성을 해치고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저 학력 기준에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장 구조가 다소 복잡하여 읽기 어려운 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있지만, 추가적인 정보가 포함되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저 학력 기준이 없다는 점을 정확하게 반영하고 있지만, 구체적인 전공에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 잘 수행되었으나, 일부 정보의 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 의미적으로 적절하지만, 원문과의 직접적인 관련성이 떨어지는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.3883754842590563</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学2024学年应用化学专业的具体招生简章或最低录取标准。根据您提供的内容，大多数专业的最低录取标准显示为“水能最低标准无”，这意味着这些专业在2024年的招生中可能没有设定特定的最低分数要求。
+如果您需要了解东义大学2024学年应用化学专业的具体最低录取标准，请访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）查看最新的招生简章或直接联系学校的招生办公室获取详细信息。</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에는 '아동학과'가 신설된 학과로 포함되어 있으나, 이는 원본 텍스트에 명시된 신설 학과 목록에 포함되어 있지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. '아동학과'는 원본에 없고, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신설된 학과에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 신설된 학과에 대한 정보를 명확하게 전달하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '아동학과'의 추가는 사실과 다르며, 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 큰 문제가 있어 전체 점수는 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 잘못된 정보가 포함되어 있어 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.7748209184240483</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같은 것들이 있습니다:
+1. 아동학과 (보육·가정상담학과에서 변경)
+2. 심리학과 
+3. 스마트항만물류학과
+4. 창업투자경영학과
+5. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+위와 같이 2024학년도에 동의대학교에서는 여러 학과가 신설되었습니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보인 서류 70%와 면접 30%의 비율을 정확하게 반영하고 있습니다. 그러나 "이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다."라는 추가 정보는 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 제공하고 있습니다. 그러나 추가된 문장이 원문에 없는 정보이므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 직접적으로 관련이 있으며, 전형요소 반영비율에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 원문에서 제공된 정보는 정확하지만, 추가된 문장이 원문에 없는 정보이므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 원문에 없는 정보가 포함되어 있어 약간의 감점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 추가된 문장이 원문과의 일관성을 약간 해치고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8571551802948183</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 잘못 기술하고 있습니다. 원문에서는 특정 모집단위(의료·보건·생활대학, 공과대학, ICT융합공과대학)에서만 가산점이 적용된다고 명시되어 있지만, 생성된 응답에서는 모든 모집단위에 적용된다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 특정 학과에 한정된 가산점 적용을 언급하고 있지만, 생성된 응답에서는 모든 모집단위에 적용된다고 하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다루고 있는 수능 가산점에 대한 정보를 포함하고 있지만, 잘못된 정보로 인해 일부 관련성이 떨어집니다. 그러나 주제는 여전히 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용이지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다. 특히 모집단위에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과 일치하지 않으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.7560238045653677</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 수학(미적분/기하) 응시자에게 수능 가산점을 부여합니다. 이 가산점은 특정 학과에 한정되지 않고, 전 모집단위에서 적용됩니다.
+수능 가산점이 적용되는 세부 조건은 다음과 같습니다:
+- 모집단위: 모든 모집단위 (디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 제외)
+- 수능 반영 영역: 국어(화법과작문 or 언어와매체), 수학 (미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 - 2개 과목 합) 
+- 가산점 비율: 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여
+따라서, 동의대학교에서는 전반적으로 수능 성적이 중요한 평가 기준이지만, 특정 학과에서는 수학 성적이 더 큰 영향을 미칠 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답에서는 각 영역별로 25%씩 반영된다고 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 상충합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 성적 반영 방법에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 전체적인 흐름이 매끄럽지 않으며, 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 수능 성적 반영 비율에 대한 설명이 틀렸습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성은 높고 유창성도 괜찮습니다. 그러나 전반적으로 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7291690193755959</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. **반영 영역**:
+   - 국어 (화법과작문 또는 언어와매체)
+   - 수학 (확률과통계 또는 미적분 또는 기하)
+   - 영어
+   - 탐구 (사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목)
+2. **반영 비율**:
+   - 각 영역별로 25%씩 반영됩니다.
+3. **가산점**:
+   - 가산점이 없습니다.
+따라서, 수능 성적은 국어, 수학, 영어, 탐구 중 선택한 2개 과목의 점수를 각각 25%씩 합산하여 최종 점수로 산출됩니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사의 날짜를 정확하게 반영하고 있습니다. 그러나 추가된 정보(레저스포츠학과와 태권도학과의 실기고사 내용)는 원본 텍스트에 명시되어 있지 않으므로, 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 세부사항이 원본 텍스트에 포함되어 있지 않기 때문에 일관성이 떨어집니다. 특히, 다른 학과들의 실기고사 내용은 원본에 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 날짜와 관련된 추가 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 날짜와 관련된 정보는 정확하지만, 추가된 세부사항이 원본 텍스트에 포함되어 있지 않기 때문에 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보가 혼란을 줄 수 있는 여지가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.7300784523675445</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다. 
+이 날짜는 레저스포츠학과와 태권도학과에서 실시되는 실기고사의 날짜입니다.
+참고로, 다른 학과들의 실기고사는 다음과 같습니다:
+- 레저스포츠학과: 2024년 1월 16일(화) 제자리 멀리뛰기와 Z-런
+- 태권도학과: 2024년 1월 16일(화) 품새, 시범, 겨루기 중 선택
+이 정보는 제공된 전형일정 내용을 바탕으로 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 한의예과와 경기지도학과를 제외한 나머지 학과들에 대한 정보를 잘못 전달하고 있습니다. 레저스포츠학과와 태권도학과는 원문에 언급되지 않았으며, 이로 인해 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 특히 제외된 학과 목록에서 일관성이 결여되어 있습니다. 원문에서 제외된 학과는 한의예과, 디자인조형학과, 체육학과, 경기지도학과인데, 생성된 응답에서는 레저스포츠학과와 태권도학과가 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보를 포함하고 있어 일부 관련성이 떨어집니다. 그러나 전반적으로 나군 수능(일반학생전형) 전형에 대한 설명을 제공하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 흐름이 약간 방해받을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 불일치로 인해 응답의 일관성이 약해집니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상당히 다릅니다. 특히 제외된 학과에 대한 정보가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 떨어지는 응답입니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다. 그러나 전반적으로 주제와 관련된 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 문장도 명확합니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.7082325913666209</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 실기/실적 전형으로 모집되므로 제외됩니다. 
+이러한 결론은 다음과 같은 정보에서 도출되었습니다:
+- 나군 실기/실적(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 모집단위로 포함되어 있습니다.
+- 나군 수능(일반학생전형)에서는 이들 학과는 제외되고 일반 수험생들이 해당 전형을 통해 지원합니다.
+따라서 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하는 방식으로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.8471782774600501</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+이는 "전형요소 반영비율" 섹션에서 확인할 수 있습니다:
+- 다군 수능(일반학생전형) 전 모집단위에 대한 정보에서, 
+- "수능최저기준" 항목은 "수능최저기준 없음"으로 표시되어 있습니다.
+따라서 동의대학교 2024학년도 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8848910718056791</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같이 여러 학과가 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 모든 사실이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.7457218386726988</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서 접수(인터넷)의 마감일은 2024년 1월 6일(토)까지이며, 접수 마감 시간은 18시까지입니다.
+따라서 원서접수 마감일은 **2024년 1월 6일(토) 18시**까지입니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소의 변화에 대한 정보가 일부 잘못되었거나 누락된 부분이 있습니다. 예를 들어, 학생부종합 평가영역의 변경 사항이 정확하지 않으며, 전형요소 반영비율에 대한 정보도 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 특히, 전형 요소의 반영 비율과 평가 영역에 대한 정보가 서로 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 질문에 관련된 내용을 다루고 있지만, 일부 정보가 부정확하여 완전한 관련성을 가지지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 이해를 방해할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 정보의 배열이 다소 혼란스러워서 논리적인 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다. 특히, 전형 요소의 반영 비율과 평가 영역에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 어느 정도 일치하지만, 잘못된 정보로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7618067467270707</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **학생부종합 평가영역**:
+   - 2023년도: 인성 ㅣ 학업역량 ㅣ 전공적합성
+   - 2024년도: 공동체역량 ㅣ 학업역량 ㅣ 전공적합성
+2. **전형요소 반영비율**:
+   - **학생부 교과**:
+     - 2023년도: 8과목 (국어, 수학, 영어교과 중 석차등급 상위 8과목 4과목 포함)
+     - 2024년도: 12과목 (전체 모집단위에서 한의예과 제외)
+   - **출결**:
+     - 2023년도: 7%
+     - 2024년도: 12%
+   - **서류**:
+     - 2023년도: 63%
+     - 2024년도: 70%
+   - **면접**:
+     - 2023년도: 20%
+     - 2024년도: 18%
+   - **실기**:
+     - 2023년도: 5%
+     - 2024년도: 0%
+   - **수능**:
+     - 2023년도: 70%
+     - 2024년도: 30%
+3. **전형요소 반영비율(%)**:
+   - **학생부 교과**: 
+     - 2023년도: 8%
+     - 2024년도: 10%
+   - **출결**: 
+     - 2023년도: 7%
+     - 2024년도: 12%
+   - **서류**:
+     - 2023년도: 63%
+     - 2024년도: 70%
+   - **면접**: 
+     - 2023년도: 20%
+     - 2024년도: 18%
+   - **실기**:
+     - 2023년도: 5%
+     - 2024년도: 0%
+   - **수능**: 
+     - 2023년도: 70%
+     - 2024년도: 30%
+이러한 변경사항들은 학생부와 서류의 비중을 높이고, 수능 점수의 비중을 낮추는 방향으로 조정되었습니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 잘 보완하고 있습니다. 모든 정보가 서로 충돌하지 않고 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기 비중에 대한 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7798679198673127</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 해당 내용에 따르면, 가군 실기/실적(일반학생전형)의 모집단위인 레저스포츠학과와 태권도학과에서는 수능이 30%이고, 실기가 70%입니다.
+따라서 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 부분은 전체 점수 중 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가된 설명도 관련성이 높고 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 세부 전공에 대한 추가적인 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름이 잘 유지되어 있으며, 각 세부 전공에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실적입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.8091894249090041</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래 사회의 변화와 맞물려 다양한 삶의 질 향상을 위한 교육과 연구를 목표로 하고 있습니다. 세부 전공별로 각각 다음과 같은 특성을 가지고 있겠습니다:
+1. 스타트업창업투자학:
+- 창업 및 투자에 대한 이론과 실무 지식을 배우는 전공
+- 기업 설립부터 성장까지의 과정을 체계적으로 이해할 수 있는 교육
+2. 뷰티비즈니스학:  
+- 뷰티 산업의 트렌드와 비즈니스 모델에 대한 지식 습득
+- 뷰티 제품 개발부터 마케팅 전략까지 종합적인 역량 키우기
+3. 라이프생활문화학:
+- 현대인의 생활 질 향상을 위한 다양한 분야 연구
+- 문화, 건강, 환경 등과 연계된 삶의 질 개선 방안 탐구
+이 세부 전공들은 학생들이 미래 사회에서 요구되는 다양한 역량을 갖추고, 라이프스타일 관련 산업에 종사할 수 있도록 교육하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'와 '레저스포츠학과'만 언급되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. '태권도학과'는 원본에 없으며, 이는 모순을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여하는 학과에 대한 정보를 제공하고 있으나, 원본 텍스트와는 다소 차이가 있습니다. 그러나 주제와 관련된 정보이므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'의 언급으로 인해 정확성이 떨어집니다. 원본 텍스트에 명시된 학과와 일치하지 않기 때문입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트와의 불일치로 인해 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7236938001688189</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (가군 실기/실적(일반학생전형))
+2. 태권도학과 (가군 실기/실적(일반학생전형))
+이 두 학과에서 실기고사가 진행되며, 각각의 합격자는 해당 학과에 입학하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 지원 가능한 학과 목록에서 '레저스포츠학과', '태권도학과', '경기지도학과'를 누락하고 '디자인조형학과'에 대한 세부 전공을 추가하여 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 누락된 학과들로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있지만, 누락된 학과들로 인해 완전한 정보 제공에는 부족함이 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 2
+   - 정확성 측면에서, 지원 가능한 학과 목록이 불완전하여 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서 큰 결함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절하지만, 누락된 정보로 인해 완전한 맥락을 제공하지 못합니다.
+9. Understandability Score (1-5): 4
+   - 응답은 이해하기 쉬우나, 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.6992178850899818</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+이 두 학과에서 실기/실적 위주 전형이 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공을 정확하게 나열하고 있으며, 전공의 이름도 올바르게 표기되어 있습니다. 그러나 "2024년도 동의대학교 미래융합대학"이라는 표현은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "미래융합대학"이라는 새로운 명칭이 추가되어 있어 일관성이 떨어집니다. 원문에서는 "라이프융합학부"만 언급되었기 때문에 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 전공에 대한 정보를 잘 반영하고 있으며, 추가적인 설명도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공에 대한 설명이 자연스럽게 이어집니다. 그러나 "미래 사회에서 요구되는 다양한 산업 분야에 대한 교육을 제공"이라는 부분이 원문과의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공의 이름과 수는 정확하게 나열되었으나, "미래융합대학"이라는 새로운 명칭이 원문에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미를 잘 전달하고 있으며, 추가적인 설명도 적절합니다. 그러나 "미래융합대학"이라는 표현이 원문과 다르기 때문에 의미적으로 완벽하게 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 다만, 일부 표현이 다소 복잡할 수 있어 완벽한 이해를 위해서는 추가적인 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.7876164521466185</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 세 가지 전공을 제공합니다:
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활 문화학
+이러한 신설 전공들은 미래 사회에서 요구되는 다양한 산업 분야에 대한 교육을 제공하고, 학생들이 실용적인 기술과 지식을 습득할 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용을 왜곡하고 있으며, 사실과 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시하고 있지만, 생성된 응답은 특정 조건을 제시하며 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 내용과는 다른 조건을 제시하고 있어 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 관련이 있지만, 주제에서 벗어난 정보가 포함되어 있어 관련성이 낮습니다. 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 어느 정도의 논리적 흐름을 가지고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 주제와 관련된 정보가 혼합되어 있어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 품질이 전반적으로 저조합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 부적절한 정보가 포함되어 있습니다. 그러나 일부 관련된 내용이 포함되어 있어 점수가 낮지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 내용의 정확성과 관련성 부족으로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.5831904321214705</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊目的高中（如艺术高中、体育高中等）的学生，并且符合以下条件之一，则可以申请东义大学的一般学生入学：
+1. 特殊目的高中的科学高中、国际高中或外语高中：需要完成特设课程或一年以上的职业教育训练。
+2. 特殊目的高中的艺术高中或体育高中：需要完成特设课程或一年以上的职业教育训练。
+3. 特殊目的高中中的马士塔高中（Mistra High School）：可以申请。
+因此，如果你是特殊目的高中（如艺术高中、体育高中等），并且完成了相应的特设课程或一年以上的职业教育训练，则你可以申请东义大学的一般学生入学。请确认你所在的高中是否属于上述类别，并且是否满足完成相应课程的要求。如果有疑问，建议访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取更多信息或直接咨询学校招生办公室。</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 경영정보학과와 회계학과가 가장 많이 모집한다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서 언급된 학과와 모집 인원과는 전혀 다른 정보를 제공하고 있어, 서로 모순되는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 주제에 대한 적절한 답변이라고 보기 어렵습니다. 원본의 핵심 정보와는 동떨어진 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에는 부정적인 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있으나, 원본과의 내용 불일치로 인해 전체적인 논리적 흐름이 약해집니다. 주제와 관련된 정보가 잘못되어 있어 일관성에 문제가 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 적절하지 않습니다. 그러나 주제와 관련된 내용이 포함되어 있어 완전히 부적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 높지만, 내용의 신뢰성 문제로 인해 점수가 낮아집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.7106755851882881</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보면, 다음과 같은 학과들이 많은 정원을 모집하고 있습니다:
+1. **경영정보학과** - 정원 내 모집 인원이 60명입니다.
+2. **회계학과 - 교직** - 정원 내 모집 인원이 60명입니다.
+3. **국어국문학과 - 교직** - 정원 내 모집인원이 45명입니다.
+4. **중어중국학과 - 교직** - 정원 내 모집 인원이 46명입니다.
+이 중에서 가장 많은 정원을 모집하는 학과는 **경영정보학과**와 **회계학과 - 교직**으로, 각각 60명씩 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용을 완전히 왜곡하고 있습니다. 원본 텍스트는 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능성을 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있어 일관성이 전혀 없습니다. 원본의 주장을 반박하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 원본의 핵심 내용과는 전혀 다른 방향으로 나아가고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 좋지 않습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 내부적으로는 어느 정도의 일관성을 가지고 있으나, 원본 텍스트와의 관계가 전혀 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 내용이 원본과 관련이 없기 때문에 질문에 대한 명확한 답변으로는 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.4399497431274537</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（特수목적고등학교）的学生，并且满足以下条件之一，则有可能符合东义大学学生部课程（농어촌학생전형）的申请资格：
+1. **6年制**：
+   - 在农村（邑·面）地区中学和高中期间，你本人及父母双方均在该地区居住。
+2. **12年制**：
+   - 无论父母是否在农村地区居住，你在整个基础教育阶段（小学入学日到高中毕业日之间）都在农村地区的学校就读并居住。
+如果满足上述条件之一，则你可以申请东义大学的学生部课程。请确保你准备了所有必要的申请材料，并仔细检查你的个人信息和学历背景以符合要求。具体申请流程和所需文件可以在东义大学的官方网站上找到详细说明，建议访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取最新信息。
+如果你需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충하는 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공합니다. 원문이 성적 정보를 제공하지 않는다고 명시한 반면, 생성된 응답은 성적을 구체적으로 나열하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 성적 정보가 없다고 말하고 있으며, 생성된 응답은 성적을 제공하고 있어 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실과 다릅니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 원문에서 요청한 정보와는 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.5243442384568777</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자와 최종등록자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균을 종합해보면 다음과 같습니다:
+- **최초합격자**: 317.87
+- **최종등록자**: 434.70
+따라서, 두 시기의 평균을 함께 고려할 때, 소프트웨어공학부 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **376.285**입니다.
+이 값은 최초합격자와 최종등록자를 각각 1:1로 가중평균한 것으로, 두 시기의 데이터를 종합적으로 반영한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충하는 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 점수를 제시하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순됩니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였고, 생성된 응답은 그와는 전혀 다른 내용을 담고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 잘못된 정보를 포함하고 있습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 내용을 담고 있습니다. 원문에서 요청한 정보와는 전혀 다른 내용을 제시하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5293677755160604</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부의 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 주요 정보를 포함하고 있지만, "충원 합격자 2차 발표"와 "충원 합격자 등록"에 대한 정보가 다소 부정확합니다. 원본 텍스트에서는 2차 발표가 2024년 2월 15일(목) 09:00로 명시되어 있으며, 등록 일정에 대한 언급이 없습니다. 따라서 일부 정보가 누락되거나 잘못된 부분이 있어 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 충원 합격자 발표 일정에 대한 세부 사항이 일치하지 않습니다. 특히, 2차 발표 날짜가 다르게 언급되어 있어 일관성이 떨어집니다. 따라서 3점을 부여합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 합격자 발표 일정에 대한 질문에 적절하게 답변하고 있습니다. 따라서 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 세부 사항의 불일치로 인해 완전한 일관성은 부족하여 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 반영하고 있지만, 일부 세부 사항에서 정확성이 떨어집니다. 특히 충원 합격자 발표 일정이 잘못 기재되어 있어 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 일부 정보의 부정확성과 일관성 부족으로 인해 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부 사항에서 부정확성이 있어 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용이지만, 일부 정보의 불일치로 인해 약간의 혼란을 줄 수 있어 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.8108640457945983</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정에 따르면, &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군의 최초 합격자는 2024년 2월 2일(금) 14:00에 발표됩니다. 
+추가적으로, 충원 합격자 발표 및 등록 일정은 다음과 같습니다:
+- 2차 충원 합격자 발표는 2024년 2월 14일(수) 09:00입니다.
+- 2차 충원 합격자 등록은 2024년 2월 14일(수) 09:00~16:00까지 진행됩니다.
+추가적인 정보는 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 면접고사 일정이 2024년 1월 20일로 명시되어 있지만, 생성된 응답에서는 2월 2일 이후에 면접이 진행된다고 언급하고 있습니다. 이는 원본 정보와 상충하며, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트의 면접고사 일정과 생성된 응답의 내용이 서로 모순되며, 이는 일관성을 크게 저해합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로는 관련성이 낮습니다. 원본 텍스트의 핵심 정보인 면접고사 일정이 잘못 전달되었고, 추가적인 정보는 질문과 직접적으로 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약해집니다. 면접고사 일정에 대한 정보가 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 면접고사 일정이 잘못 기재되어 있으며, 이는 정확성에 심각한 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 면접고사 일정에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성과 관련성이 떨어져서 전체적으로 혼란스러울 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.5145962361498914</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2024년 2월 7일부터 13일까지 합격자 등록이 이루어집니다. 이 기간 동안 합격자들은 등록금을 납부하고 입학하는 과정에 참여합니다.
+면접고사는 이전에 언급된 일정과는 별도로 진행되며, 정확한 면접일자는 다음과 같습니다:
+- 2024년 2월 2일 금요일 14:00 이후, 입학 안내 홈페이지에서 대기실 및 입실 시간 안내를 확인할 수 있습니다.
+- 면접은 개별적으로 진행되며, 각 지원자에게는 1인당 10분 이내로 할당됩니다.
+따라서 면접을 보러 가는 시기는 2월 2일 이후 입학 안내 홈페이지에서 공지된 대기실 및 입실 시간에 따라 이루어집니다. 정확한 날짜와 시간은 입학 안내 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 무시하고, 일반적인 입시 기준에 대한 정보를 제공하고 있습니다. 이는 원문과 상충되는 내용으로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 동의대 한의예과의 최저학력 기준이 없다는 점과 모순됩니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과의 최저학력 기준에 대한 일반적인 정보는 포함하고 있지만, 원문에서 명시된 '최저학력 기준이 없다'는 점과는 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 따라서 응집력이 다소 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 잘못 해석하고 있으며, 잘못된 정보를 포함하고 있습니다. 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락이 맞지 않아 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.5008756891298498</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과의 최저학력 기준 정보가 제공되지 않았습니다. 일반적으로 한의예과의 경우 고등학교 졸업 자격이 필요하지만, 각 대학마다 정확한 최저학력기준은 다를 수 있습니다.
+2024학년도에 대한 특정한 변경사항이나 추가 조건이 있다면 해당 정보가 제공되었어야 합니다. 일반적인 입시 기준을 따르면 다음과 같은 점들이 주요할 수 있습니다:
+1. 고등학교 졸업 자격
+2. 일부 대학에서는 특정 과목 성적의 최저 기준 (예: 국어, 수학 등)
+3. 다른 학과와 마찬가지로 수능 최저점수 요구
+정확한 정보를 얻기 위해서는 해당 대학의 공식 입시 안내서나 홈페이지를 참조하거나, 입학처에 직접 문의하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.5626264972705971</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 보면, 대부분의 전형에서는 수능 최저학력 기준이 없습니다. 
+특히 "전형요소 반영비율" 섹션에서 확인할 수 있습니다:
+- 가군 수능(일반학생전형)에서는 수능최저기준 없음으로 표시되어 있습니다.
+- 나군 수능(일반학생전형)에서도 마찬가지로 수능최저기준 없음으로 표시되어 있습니다.
+따라서, 주어진 정보에 따르면 정시 모집에서 대부분의 전형에서는 수능 최저학력 기준이 없습니다. 하지만 특정 전형이나 학과에서 추가적인 수능 최저학력 기준을 설정할 수도 있으므로, 공식 입학 안내 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 확인하시거나 대학에 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 제공하지만, 원본 텍스트의 1차 발표 날짜인 2024년 2월 14일을 누락하고 있으며, 가군과 나군의 발표 날짜를 잘못 기재하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 특히, 발표 일정이 다르게 제시되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 질문에 답변하고 있으므로 관련성이 높습니다. 그러나 원본 텍스트의 모든 세부 사항을 포함하지 않아 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정에 대한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 날짜와 정보를 반영하지 않으므로 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 세부 사항을 반영하지 않아 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7783930386576293</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024학년도의 충원합격자 발표 일정은 다음과 같습니다:
+- **가군**: 2024. 02. 15.(목) 09:00
+- **나군**: 2024. 02. 15.(목) 09:00
+이 날짜에 충원합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 정보를 포함하고 있지만, 등록 시간에 대한 정보는 원본 텍스트에 명시되어 있지 않으며, "추가합격자"라는 용어가 사용되어 원본의 "충원합격자"와 다소 차이가 있습니다. 따라서 일부 사실이 정확하지 않거나 추가된 정보가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하지만, 추가된 등록 시간 정보로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트와의 일관성은 있지만, 추가된 정보가 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 충원합격자 발표 일정에 직접적으로 관련이 있습니다. 모든 정보가 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정과 등록 시간의 흐름이 자연스럽습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 발표 일정은 정확하지만, 등록 시간과 "추가합격자"라는 용어 사용으로 인해 정확성이 떨어집니다. 원본 텍스트의 정보와 완전히 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있지만, 일부 사실의 정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, "추가합격자"라는 용어 사용이 원본의 의미와 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.7956061532148446</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024학년도의 추가합격자 발표 일정은 다음과 같습니다:
+- 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+따라서 추가합격자 발표는 2월 14일과 15일에 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집 여부에 대한 명확한 정보를 제공하지 않으며, 원본 텍스트의 구체적인 내용을 반영하지 않고 있습니다. 원본 텍스트는 추가 모집이 이루어진다는 내용을 포함하고 있지만, 생성된 응답은 이를 부정확하게 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 추가 모집이 있을 것이라고 명시하고 있지만, 생성된 응답은 그에 대한 불확실성을 표현하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 주제에 대한 직접적인 답변을 제공하지 않아서 다소 관련성이 떨어집니다. 원본 텍스트의 핵심 내용을 직접적으로 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 원본 텍스트의 내용을 명확히 반영하지 않기 때문에 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 추가 모집에 대한 정보가 왜곡되어 있습니다. 원본 텍스트의 내용을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 원본의 의도를 제대로 전달하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.5363249051292653</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로 추가 모집 여부에 대한 명확한 답변을 드리기는 어렵습니다. 추가 모집이 있는지 확인하려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신 정보를 확인하는 것이 가장 정확할 것입니다. 사이트에서 공식 입학 안내나 모집요강을 확인하시면 추가 모집 여부와 관련된 자세한 내용을 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 모집인원과 지원자격에 대한 정보에서 여러 가지 부정확한 내용을 포함하고 있습니다. 예를 들어, 모집인원에 대한 숫자가 잘못 기재되어 있으며, 지원자격에 대한 설명도 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 모집단위와 모집인원에 대한 정보가 상충합니다. 이러한 불일치는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 특정 세부사항을 누락하거나 잘못된 정보를 포함하고 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 복잡하여 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 정보가 나열되어 있지만, 원본 텍스트의 흐름과 논리적 연결이 부족하여 일관된 구조를 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 여러 가지 차이가 있으며, 특히 모집인원과 지원자격에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 전체적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하지만, 원본 텍스트의 맥락과 의미를 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.7765978006352711</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학에서 평생교육을 받은 학습자들을 대상으로 하는 입학 전형입니다. 이 전형에는 다양한 형태가 있으며, 주요 내용은 다음과 같습니다:
+1. 모집단위 및 모집인원:
+   - 미래융합대학 라이프융합학부: 38명 (11명 + 23명 + 7명 + 17명)
+   - 미래융합대학 부동산자산경영학부: 24명 (7명 + 17명)
+2. 지원자격:
+   - 산업체 적용범위: 
+     1) 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+     2) 근로기준법 제11조에 의거 상시근로자 5인 이상 사업체
+     3) 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상
+3. 전형요소 반영비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출서류:
+   - 고교 졸업(예정)자: 고교 학교생활기록부
+   - 검정고시 출신자: 검정고시 합격증서 사본, 성적증명서
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업증명서, 성적증명서
+5. 동점자 처리기준:
+   - 순위 1: 면접고사 성적 상위자
+   - 순위 2: 서류평가 공동체역량 영역 성적 상위자
+   - 순위 3: 서류평가 전공적합성 영역 성적 상위자
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 학습자는 해당 조건을 충족시키고 필요한 서류를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정확한 정보를 제공하지 않고, 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자라는 핵심 사실을 누락하고 있습니다. 대신 다양한 고교 유형에 대한 정보를 제공하고 있으나, 이는 원문과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충하는 정보를 포함하고 있습니다. 원문에서는 고교 졸업(예정)자 또는 동등학력 소지자만을 언급하고 있는데, 생성된 응답은 다양한 고교 유형을 나열하며 검정고시와 외국고에 대한 지원 불가능성을 언급하고 있습니다. 이는 원문과 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원문과 관련된 내용을 포함하고 있으나, 주된 지원자격에 대한 정보가 누락되어 있어 관련성이 낮습니다. 원문에서 요구하는 핵심 정보를 제공하지 않기 때문에 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있으나, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 다양한 고교 유형에 대한 설명이 있지만, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제시한 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 원문에서 요구하는 지원자격을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 기록하고 있습니다. 원문과의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과 관련된 내용을 포함하고 있으나, 주된 의미와 맥락을 벗어나 있습니다. 지원자격에 대한 핵심 정보를 제공하지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성이 부족하여 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.6511989083338589</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고), 특수목적고(예술고, 체육고), 특수목적고(마이스터고), 특성화고의 특성(직업), 특성화고의 특성(대안), 영재학교, 기타의 학력인정고, 기타의 방송통신고, 기타의 각종학교는 지원 가능합니다.
+2. 검정고시와 외국고는 지원 불가능합니다.
+따라서 평생학습자전형에서는 대부분의 고교 유형이 지원 가능하지만, 검정고시와 외국고는 지원을 받을 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정과 대기실 및 입실시간 안내에 대한 정보를 포함하고 있으며, 대기실 및 입실시간에 대한 정보는 정확하게 반영하고 있습니다. 그러나 실기고사 날짜에 대한 정보는 원본 텍스트에 명시된 내용과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 일정에 대한 정보를 제공하지만, 원본 텍스트의 대기실 및 입실시간에 대한 정보와는 일관성이 떨어집니다. 실기고사 날짜가 추가된 것은 좋지만, 원본 텍스트의 핵심 정보와의 연결이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하며, 원본 텍스트의 주제와 직접적으로 관련이 있습니다. 대기실 및 입실시간 안내도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기고사 일정과 대기실 안내가 자연스럽게 연결되어 있습니다. 그러나 실기고사 일정이 원본 텍스트와의 연결이 부족하여 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대기실 및 입실시간에 대한 정보는 정확하지만, 실기고사 날짜에 대한 정보는 원본 텍스트와 다소 차이가 있습니다. 따라서 정확성 점수는 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 일부 정보의 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 실기고사와 관련된 정보를 적절하게 전달하고 있습니다. 다만, 실기고사 날짜에 대한 정보가 원본과 다소 차이가 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있어 완벽한 이해를 위해서는 약간의 주의가 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.5980852733271805</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)과 2024년 1월 17일(수)에 실기고사가 진행됩니다. 
+- 2024년 1월 16일(화): 레저스포츠학과와 태권도학과
+- 2024년 1월 17일(수): 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 및 체육학과
+대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기종목과 배점에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 관련이 없으며, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 매우 낮은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본과 관련이 없기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3259926925453824</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 곳에서 진행됩니다:
+1. **제자리 멀리뛰기**
+   - 배점(비율): 240점 (24%)
+2. **메디신볼 던지기**
+   - 배점(비율): 243점 (23%)
+3. **Z-런**
+   - 배점(비율): 230점 (23%)
+각 실기종목은 별도의 준비물과 시간이 지정되어 있습니다:
+- **제자리 멀리뛰기**:
+  - 화지 크기: 켄트지3절
+  - 시간: 5시간
+- **메디신볼 던지기**:
+  - 화지 크기: 켄트지2절
+  - 시간: 5시간
+- **Z-런**:
+  - 배점(비율): 230점 (23%)
+각 실기종목은 별도의 기록별 배점표가 있으며, 등급과 각 항목의 점수 범위가 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통보 여부에 대한 공식 안내가 명확히 언급되지 않았다고 하지만, 원문에서는 수시 충원합격자 발표는 전화로 개별 연락을 하지 않는다고 명확히 설명하고 있습니다. 따라서 일부 사실이 누락되거나 왜곡된 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 전화 통보가 드물게 이루어진다고 언급한 부분은 원문과 상충합니다. 원문에서는 전화 통보가 이루어지지 않는다고 명확히 하고 있기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 추가 정보도 포함되어 있습니다. 그러나 원문에서 강조한 전화 통보에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 관련된 정보가 잘 연결되어 있습니다. 그러나 원문과의 일관성 문제로 인해 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일부 상충하는 부분이 있어 정확성이 떨어집니다. 특히 전화 통보에 대한 정보가 잘못 전달되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원문과의 차이로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.6696871509171276</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024년도 수시 충원 합격자 발표 후에 전화 통보 여부는 공식 안내에서 명확히 언급되어 있지 않습니다. 일반적으로 합격자 발표 이후에는 합격자들의 등록금 납부 등의 절차가 진행되며, 추가적인 전화 통보는 드물게 이루어집니다.
+만약 합격자 발표 후에도 학교 측으로부터 전화를 받지 못했다면, 학교 입학처 웹사이트나 공지사항을 확인하거나 직접 연락하여 확인하는 것이 좋습니다. 특히 충원 합격자 발표일이 다가올 때는 학교의 공식 안내를 주시하고, 필요하다면 문의해보는 것이 좋습니다.
+관련 링크: [입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)
+만약 추가 정보가 필요하거나 다른 질문이 있다면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 없다는 사실을 언급하고 있지만, 2024학년도에 대한 통계와 유사한 패턴을 가정하는 부분은 사실과 다를 수 있습니다. 제공된 정보에 기반하지 않고 추정하는 내용이 포함되어 있어 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원본 텍스트와 일부분 일치하지만, 2024학년도에 대한 통계와 2023학년도 결과를 연결짓는 부분에서 일관성이 부족합니다. 원본 텍스트는 2023학년도에 대한 정보가 없다고 명시하고 있으므로, 추정하는 내용은 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 2024학년도 통계에 대한 언급이 필요하지 않은 정보로 보입니다. 그러나 원본 텍스트의 요청에 대한 대안적인 정보를 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 2023학년도와 2024학년도 정보를 혼합하여 제시함으로써 일관된 흐름이 약간 깨집니다. 정보의 흐름이 명확하지 않을 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답은 2023학년도에 대한 구체적인 정보를 제공하지 않고, 2024학년도에 대한 통계를 기반으로 추정하는 내용이 포함되어 있어 정확성이 떨어집니다. 원본 텍스트의 사실과는 다르게 해석될 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서 낮은 점수를 받아 전체적인 품질이 떨어집니다. 관련성은 높지만, 일관성과 정확성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답은 원본 텍스트의 의미와 관련이 있지만, 2024학년도 통계에 대한 언급이 원본의 맥락과 완전히 일치하지 않아 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 복잡하게 느껴질 수 있습니다. 그러나 전반적인 내용은 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7720224961378037</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집인원 및 지원자 수와 관련된 통계가 포함되어 있으므로, 이와 유사한 패턴을 가정할 수 있습니다.
+예를 들어, 2024학년도 경찰행정학과의 정보는 다음과 같습니다:
+- 모집 인원: 7명
+- 지원 인원: 29명
+- 경쟁률: 4.14
+이와 유사한 패턴을 가정하면, 2023학년도 경찰행정학과의 수시모집 결과는 다음과 같았을 가능성이 높습니다:
+- 모집 인원: 7명
+- 지원 인원: 약 29명 (경쟁률이 비슷한 경우)
+- 경쟁률: 약 4.14
+정확한 데이터를 확인하려면, 해당 대학의 입학처 웹사이트 또는 공식 안내서를 참조하시거나, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 최신 정보를 확인하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특정 전형에서 수능 응시가 필수적이지 않다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 수능 응시가 필수적이라고 명시하고 있지만, 생성된 응답은 특정 전형에서 수능 응시가 필요 없다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 핵심 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 전형에 대한 정보를 제공하여 어느 정도의 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 원문과의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 상충되는 정보를 포함하고 있어 정확성이 낮습니다. 원문은 수능 응시가 필수적이라고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원문과의 관계가 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 다소 다르게 해석될 수 있는 내용을 포함하고 있어 의미적으로 적절하지 않을 수 있습니다. 그러나 일부 정보는 유용할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 관계가 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4897363308753717</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 입시에서는 일부 전형에서 수능 응시를 필수로 하지 않는 경우가 있습니다. 예를 들어, 나군 학생부종합(조기취업형계약학과전형), 나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형) 등은 수능 응시가 아닌 다른 자격 요건을 충족하면 지원할 수 있습니다.
+특히, 나군 학생부종합(조기취업형계약학과전형), 나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형) 등은 다음과 같은 자격 요건을 충족하면 수능 응시 없이 지원할 수 있습니다:
+1. **나군 학생부종합(조기취업형계약학과전형)**: 재직자 또는 특성화고 교육과정 또는 1년 이상의 직업교육훈련 과정을 이수한 자 등.
+2. **나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자, 재직자 등.
+따라서 수능 응시를 하지 않더라도 특정 전형에서는 지원이 가능합니다. 하지만 일반적으로 대부분의 전형은 수능 점수를 반영하므로, 수능을 준비하는 것이 유리할 수 있습니다. 자세한 내용은 입학 안내 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났을 경우 정시 지원이 어렵다고 주장하고 있지만, 원문에서는 졸업 시기와 상관없이 정시 지원이 가능하다고 명시하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 고등학교 졸업 후 10년이 지났다면 지원이 어렵다고 주장합니다. 이는 원문과 모순되는 내용입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지난 경우의 정시 지원 가능성에 대한 정보를 제공하고 있으나, 원문에서 언급된 내용과는 다소 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 원문과의 일관성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원문에서는 정시 지원이 가능하다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실관계, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원문과의 차이가 큽니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문과의 의미적 일치가 부족하여 적절성에서 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6337711918783713</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 일반적으로 고등학교 졸업 후 10년이 지났다면 정시모집의 경우 지원이 어렵습니다. 대부분의 대학은 고등학교 졸업 예정자 또는 검정고시 합격자를 대상으로 모집을 진행합니다.
+하지만, 일부 특별한 전형이 있을 수 있습니다:
+1. **나군 학생부종합(평생학습자전형/성인학습자전형)**: 이 전형은 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다. 따라서, 10년이 지났다면 이 전형을 검토해볼 수 있습니다.
+2. **나군 학생부종합(조기취업형계약학과전형)**: 이 전형도 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+3. **다군 수능(일반학생전형)**: 이 전형은 일반적으로 고등학교 졸업 예정자나 검정고시 합격자를 대상으로 하지만, 일부 특수목적고교나 기타 학력인정고를 졸업한 자도 지원이 가능할 수 있습니다.
+따라서, 정확한 지원 가능 여부는 해당 대학의 2024학년도 입시 안내를 확인해야 합니다. 특히 나군 학생부종합(평생학습자전형/성인학습자전형)과 같은 전형을 주목해볼 필요가 있습니다.
+추가 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나, 대학 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8009134266720377</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학 안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 참고: 서류 제출 대상은 전형별 세부 안내를 참조해야 합니다. 제출 방법은 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편발송이 가능합니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 참고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 참고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 참고: *발표: 홈페이지에서 개별 조회*  
+           *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령*  
+           *등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+     - 참고: 동일한 내용
+   - 충원 합격자 발표 및 등록:
+     - 1차: 2024년 2월 14일 (수) 09:00
+       - 참고: 동일한 내용
+     - 2차: 2024년 2월 15일 (목) 09:00 ~ 16:00
+       - 참고: 동일한 내용
+   - 3차 이후 합격자 발표 및 등록:
+     - 날짜: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+       - 참고: 동일한 내용
+이 일정은 일반적인 정시 모집 일정이며, 각 전형별 세부 안내를 확인하시려면 입학 안내 홈페이지를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.8401825534712917</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 이날 입학 안내 홈페이지에서 모집인원이 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감 시간은 각각 해당 날짜의 오후 6시까지
+   - 원서 접수는 인터넷을 통해 진행되며, 접수 마감 시간이 있습니다.
+3. **서류 제출**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감 시간은 각각 해당 날짜의 오후 5시까지 도착
+   - 서류 제출 대상자는 입학 안내 홈페이지에서 확인 가능하며, 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 직접 우편으로 제출할 수 있습니다.
+4. **실기고사**:
+   - **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)
+     - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 오후 2시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+   - **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+     - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 오후 2시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+5. **합격자 발표 및 등록**:
+   - **최초 합격자 발표**: 2024년 2월 2일 (금), 오후 2시
+     - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+   - **최초 합격자 등록**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행 마감 시간 내
+     - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+   - **충원 합격자 발표 및 등록**:
+     - 1차: 2024년 2월 14일 (수), 오전 9시
+       - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+     - 1차: 2024년 2월 14일 (수), 오전 9시 ~ 오후 4시
+       - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+     - 2차: 2024년 2월 15일 (목), 오전 9시
+       - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+     - 2차: 2024년 2월 15일 (목), 오전 9시 ~ 오후 4시
+       - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+     - 3차 이후: 2024년 2월 15일 (목) 오후 7시 ~ 2024년 2월 20일 (화) 오후 6시까지
+       - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능, 등록 장소는 학교 지정 은행입니다.
+     - 3차 이후: 개별 전화 통보 시 안내
+이 일정은 일반적인 정시모집 일정이며, 각 모집단위와 계열에 따라 세부 내용이 다를 수 있으므로 공식 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원할 수 있는 전형에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 수능 미응시자는 지원이 불가능하다고 명시되어 있으나, 생성된 응답에서는 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 동의대학교 정시 모집 전형에 대한 정보를 포함하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 미응시자가 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공합니다. 수능 미응시자가 지원할 수 있다는 주장은 원본 텍스트의 의미와 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6350493397986217</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 주로 실기/실적 위주 전형과 일부 학생부 종합전형으로 확인됩니다.
+1. **가군 실기/실적(일반학생전형)**:
+   - 레저스포츠학과, 태권도학과
+   - 이 전형은 수능 미응시자도 지원이 가능합니다.
+   - 실기 성적이 주요 평가 요소로 반영됩니다.
+2. **나군 학생부종합(조기취업형계약학과전형)**:
+   - 이 전형은 수능 미응시자도 지원이 가능하며, 주로 면접과 서류 평가를 통해 선발합니다.
+   - 실적 및 학교생활 기록부 등 다양한 자료를 종합적으로 평가합니다.
+3. **나군 학생부종합(평생학습자전형)**:
+   - 이 전형도 수능 미응시자 지원이 가능하며, 주로 학교생활기록부와 면접을 통해 선발합니다.
+   - 실적 및 학업 역량 등을 종합적으로 평가합니다.
+따라서 수능 미응시자도 동의대학교 정시모집에서 지원 가능한 전형은 **실기/실적 위주 전형**과 **학생부 종합전형**이 주로 있습니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전자공학과의 충원 합격자가 34명이라고 언급하고 있지만, 원본 텍스트에서는 전년도 충원 합격자가 36명이라고 명시되어 있습니다. 또한, 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 단일 차수에서 이루어진 것으로 보인다고 언급하여 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 단일 차수에서 이루어진 것으로 보인다고 하여 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 완전한 관련성을 갖추지 못합니다. 그러나 웹사이트 링크를 제공하여 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 갖추지 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르며, 전년도 충원 합격자 수에 대한 잘못된 정보를 제공합니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 발생하여 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.7677499000786118</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 34명이며, 이는 단일 차수에서 이루어진 것으로 보입니다. 
+단, 전년도(2023년도)에 대한 구체적인 데이터가 제공되지 않았기 때문에, 정확한 전년도 충원 합격 차수를 말씀드릴 수 없습니다. 만약 더 자세한 정보가 필요하시다면, 해당 대학의 입학처 웹사이트인 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보와는 상반된 내용을 포함하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하는 반면, 생성된 응답은 전화번호에 대한 언급이 없고 다른 정보를 제안하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전화번호를 직접적으로 제공하지 않지만, 관련된 웹사이트를 언급하고 있습니다. 그러나 주된 질문에 대한 직접적인 답변이 부족하므로 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호에 대한 정보가 전혀 제공되지 않기 때문에 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 동떨어져 있으며, 전화번호를 찾는 질문에 대한 적절한 답변이 아닙니다. 따라서 의미 적합성 점수는 2입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 질문에 대한 직접적인 답변이 부족하여 이해하기 어려운 부분이 있습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6443481872009359</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。如果您需要这个信息，建议您访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do），通常学校官网会有联系方式页面。或者您可以直接联系学校的招生办公室或入学咨询部门获取准确的联系电话。
+如果需要进一步的帮助，请告诉我具体查询哪个学院或专业的相关信息，我可以帮助您查找更多详细信息。</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차에 대한 정보를 추가로 제공하고 있지만, 원본 텍스트의 핵심 내용인 "전화 연락이 두절되면 등록 의사가 없는 것으로 간주된다"는 부분을 명확히 반영하지 않고 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 전화 통화가 되지 않을 경우의 처리 방식에 대한 추가 정보를 제공하여 일관성이 떨어지는 부분이 있습니다. 원본 텍스트의 주된 메시지와는 다소 상충하는 내용이 포함되어 있어 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 전화 통화가 되지 않을 경우의 처리 방식에 대한 추가적인 세부사항이 포함되어 있어 약간의 주제 이탈이 있습니다. 그러나 전반적으로 관련성이 높아 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄러워 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 나열되어 있습니다. 그러나 원본 텍스트의 핵심 메시지와의 연결이 약간 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 반영하고 있지만, 전화 통화가 되지 않을 경우의 처리 방식에 대한 정보가 원본 텍스트의 주된 내용과 일치하지 않아 정확성에서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 사실성과 일관성에서 약간의 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 일부 내용이 원본의 의도와 다르게 해석될 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.6785844548896169</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19:00부터 20일(화) 18시까지는 합격자 발표 및 등록금 납부를 위한 3차 충원합격자의 개별 전화 통보 기간입니다. 만약 이 기간 동안 전화 통화가 되지 않는 경우, 다음과 같은 절차로 처리됩니다:
+1. **홈페이지에서 개별 조회**: 합격자 발표는 홈페이지에서 개별적으로 확인할 수 있습니다.
+2. **고지서 교부**: 고지서를 홈페이지에서 출력하거나 입학관리팀에서 받을 수 있습니다.
+3. **등록장소**: 등록 장소는 학교 지정은행으로, 등록금 고지서에 기재되어 있습니다.
+따라서 전화 통화가 되지 않더라도, 위의 방법들을 통해 합격 사실과 관련 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 대부분의 정보를 정확하게 전달하고 있습니다. 그러나 "최종 등록자 추가 제출서류" 부분에서 고교 졸업증명서가 언급되었으나, 원본 텍스트에는 해당 내용이 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, "최종 등록자 추가 제출서류"와 같은 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트에 명시된 내용과는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 모든 주요 사항을 다루고 있으며, 필요한 서류에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의도와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.7570189732310525</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. **6년 과정 유형**
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 및 미동의자)
+2. **12년 과정 유형**
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 및 미동의자)
+3. **최종 등록자 추가 제출서류**
+   - 고교 졸업증명서
+   - 지원자 본인, 부모의 초본 각 1부 (총 3부) 또는 부모 중 한 명만의 초본 1부
+이러한 서류들은 농어촌 지역에 거주하며 해당 조건을 충족하는 자에게 필수적으로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 추가적인 정보도 포함되어 있지만, '6년과정' 서류 제출 가능성에 대한 언급은 원본 텍스트에 명시되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, '6년과정' 서류 제출 가능성에 대한 추가 정보는 원본과 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '6년과정' 서류 제출 가능성에 대한 언급이 원본에 없으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미와 약간의 차이를 보입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8119243288255896</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   ※ 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류제출 가능
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류들은 지원자의 학력과 농어촌 거주 경력을 입증하기 위해 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 2024년 모집에 대한 불확실성을 언급하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 해당 전형의 존재 여부에 대한 불확실성을 제기하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 기회균등 전형에 대한 질문에 대한 답변을 제공하려고 하지만, 원문과 관련된 핵심 정보를 충분히 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 약해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않고 있으며, 기회균등 전형의 존재 여부에 대한 잘못된 해석을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 원문과의 관계가 약해 다차원적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족하며, 원문의 맥락을 잘 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관계가 불명확하여 전체적인 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5441783566002235</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024年招生中的低收入机会均等（Low-Income Equal Opportunity）类型的单独招生计划。因此，根据现有信息无法确定是否取消了该类型招生。
+如果您需要更准确的信息，建议直接访问学校官网 https://ipsi.deu.ac.kr/main.do 或者联系学校的招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급에서 사탐 2 과목 평균산출 시 절사법이 적용되지 않는다고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 절사법이 적용되지 않는다고 주장하는 부분에서 원본 텍스트의 정보와 모순됩니다. 원본 텍스트는 절사 여부에 대한 구체적인 정보를 제공하지 않기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 내용을 다루고 있으며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 절사 여부에 대한 확인 방법을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 연결성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있으며, 절사 여부에 대한 정보가 잘못 해석되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계에서 부정확한 정보를 제공합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관계에서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.6575351145667511</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2.5등급은 등급점수로 표현할 때 100.5점으로 처리됩니다. 수능 최저등급에서 사탐 2과목 평균산출을 할 때 절사법이 적용되지 않고, 실수점수를 그대로 반영합니다.
+따라서 2.5등급은 100.5점을 기준으로 평균산출이 이루어집니다. 예를 들어 두 과목 중 하나가 2.5등급이고 다른 과목이 3등급이라면, 각각의 점수는 100.5점과 108점이며, 이들의 평균은 (100.5 + 108) / 2 = 104.25점으로 반영됩니다.
+따라서 2.5등급은 그대로 반영되며 절사되는 경우는 없습니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표 일정에 대한 주요 정보를 포함하고 있으며, 1차, 2차, 3차 발표 일정이 정확하게 언급되어 있습니다. 그러나 "나군 학생부종합"과 같은 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 관련된 정보를 포함하고 있지만, "나군 학생부종합"과 같은 추가적인 내용이 원본과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 정시 충원 합격자 발표 일정과 관련된 정보를 잘 다루고 있습니다. 모든 내용이 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본과의 연결성을 약간 약화시킵니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 발표 일정에 대한 정확한 정보를 제공하지만, 원본 텍스트에 없는 추가적인 내용이 포함되어 있어 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.6187050562694173</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024년 정시 모집에서 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 충원 합격자는 총 3차로 발표됩니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024년 2월 14일 (수) 09:00
+   - 내용: 1차 충원 합격자 발표와 등록
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024년 2월 15일 (목) 09:00
+   - 내용: 2차 충원 합격자 발표와 등록
+3. **3차 이후 충원 합격자 발표 및 등록**:
+   - 일정: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+   - 내용: 3차 이후 충원 합격자 발표와 등록
+이러한 일정은 각 차례별로 홈페이지에서 개별적으로 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정 은행으로, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 경쟁률과 최종 등록자의 평균 수능 점수에 대한 정보를 제공하고 있지만, 이 정보는 원본 텍스트에 포함되어 있지 않으며, 원본 텍스트의 내용과 상충하는 부분이 있습니다. 예를 들어, 원본 텍스트에서는 수능 4개 영역 등급이 4.6점일 경우의 가능성을 언급하고 있지만, 생성된 응답은 4.6점이 낮다고 평가하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 4.6점이 평균을 약간 상회하는 수준이라고 언급하는 반면, 생성된 응답은 4.6점이 상대적으로 낮다고 주장하고 있습니다. 이러한 상충은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 추가 합격 가능성에 대한 질문에 대한 답변을 제공하고 있지만, 원본 텍스트의 주요 내용과는 다소 동떨어진 정보(경쟁률, 평균 점수 등)를 포함하고 있습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요인을 고려하여 추가 합격 가능성을 설명하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적 일관성이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있으며, 특히 수능 점수에 대한 평가가 잘못되었습니다. 원본 텍스트의 평균 점수와 비교할 때, 생성된 응답의 정보는 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질 점수도 낮게 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 정보가 포함되어 있어 의미의 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보가 혼란을 줄 수 있는 요소가 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.6697520030443205</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집에서 e비즈니스학과의 경쟁률은 10.56이며, 최종 등록자의 평균 수능 점수는 313.13입니다. 이에 비해 4.6이라는 점수는 상대적으로 낮습니다.
+e비즈니스학과의 경우, 모집인원은 9명이고 지원 인원이 95명으로 많은 경쟁을 겪고 있습니다. 평균 수능 점수가 313.13이며, 표준 편차가 5.75라는 것을 고려하면, 4.6이라는 점수는 상당히 낮은 수준입니다.
+따라서, 4.6의 점수로 정시 전형으로 추가 합격하기 위해서는 다음과 같은 요인들을 고려해야 합니다:
+1. **개별 지원자의 경쟁력**: 다른 지원자들의 성적과 비교하여 자신의 위치를 파악해야 합니다.
+2. **면접 및 서류 평가**: 면접이나 서류평가에서 좋은 점수를 받는 것이 중요합니다.
+3. **전형 요소의 균형**: 수능 점수가 낮더라도 다른 전형요소(면접, 학업역량 등)에서 높은 점수를 얻어야 합니다.
+따라서, 4.6이라는 점수로 정시 전형으로 추가 합격하기는 어렵다고 볼 수 있습니다. 그러나 최선을 다해 준비하고, 면접이나 서류평가에서 좋은 성적을 받으면 가능성을 높일 수 있을 것입니다.
+추가적으로, 입학사정관의 평가와 지원자의 전반적인 역량을 고려할 때, 4.6이라는 점수로도 합격 가능성은 열려 있습니다만, 확실한 것은 아닙니다. 따라서, 정확한 판단을 위해서는 해당 대학의 입학 사정관이나 관련 웹사이트를 참조하는 것이 좋습니다.
+추가 정보나 자세한 조언이 필요하시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있지만, 수능 4개 영역 등급의 평균을 4.17로 잘못 제시하고 있습니다. 원본 텍스트에서는 평균이 4.53이라고 명시되어 있어, 이 부분에서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 수능 4개 영역 등급 평균에 대한 불일치로 인해 일관성이 떨어집니다. 또한, 경쟁률과 관련된 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 추가 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 약간의 차이가 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 수능 4개 영역 등급 평균에 대한 잘못된 정보로 인해 정확성이 떨어집니다. 이로 인해 전체적인 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 불일치로 인해 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.6379932017925178</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 상경대학 e비즈니스학과의 경쟁률과 평균 점수를 고려해보겠습니다.
+- 모집 인원: 10명
+- 지원 인원: 89명
+- 경쟁률: 8.90
+- 충원 합격 (후보순위): 31명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.20
+- 수능 4개 영역 등급의 평균: 4.17
+이 데이터를 바탕으로, 정시 등급 5.3은 수능 4개 영역 등급의 평균보다 약간 높습니다 (5.3 &gt; 4.17). 그러나 경쟁률이 매우 높고 지원자가 많아서 단순히 등급만으로 최초 합격을 보장할 수는 없습니다.
+평균 등급이 4.17인 반면, 정시 등급 5.3은 상당한 우위를 가집니다. 그러나 다음과 같은 요소들을 고려해야 합니다:
+1. **전체 지원자들의 성적 분포**: 평균보다 높은 점수를 받은 지원자가 얼마나 되는지 확인해야 합니다.
+2. **등급의 일관성**: 등급이 5.3이라면, 이 수치가 꾸준히 유지되는지 확인해야 합니다 (예: 모든 영역에서 5 이상).
+3. **추천서 및 자기소개서 등의 서류 평가**: 일부 학과에서는 서류 평가가 중요한 역할을 하므로, 이 부분도 고려해야 합니다.
+4. **면접 성적**: 면접에서도 좋은 점수를 받는 것이 중요합니다.
+따라서 정시 등급 5.3은 상대적으로 높은 점수이지만, 경쟁률과 지원자의 수가 매우 많아 최초 합격을 보장할 수는 없습니다. 그러나 충분히 좋은 성적을 가지고 있으므로, 최소한 후보순위 내에 들어가는 것은 가능성이 있습니다.
+결론적으로, 정시 등급 5.3은 e비즈니스학과 최초 합격 가능성은 있지만, 확실하지 않습니다. 추가적인 정보와 지원자의 전반적인 경쟁력을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 핵심 정보를 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않고 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 여러 요인을 고려해야 한다고 언급하며 혼란을 초래합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있으나, 생성된 응답은 다양한 요인을 고려해야 한다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주어진 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본 텍스트의 핵심 정보인 예비 38번의 합격 가능성에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 3
+   - 생성된 응답은 문법적으로는 비교적 잘 작성되었으나, 내용이 혼란스러워 읽기 어려운 부분이 있습니다. 특히, 원본 텍스트와의 연결이 부족하여 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 여러 가지 요소를 나열하고 있지만, 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 원본 텍스트의 주제와 연결되지 않아 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 예비 38번의 합격 가능성에 대한 정확한 정보를 제공하지 않습니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 제대로 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 원본 텍스트의 의도를 잘못 해석하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 생성된 응답은 명확하지 않고, 독자가 이해하기 어려운 부분이 많습니다. 원본 텍스트의 핵심 정보를 전달하지 못해 혼란을 초래합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.4736049348503613</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑多个因素。首先，您需要查看具体的录取标准和往年数据来确定您的成绩是否符合要求。以下是一些关键点：
+1. **综合评价**：根据提供的信息，e비즈니스학전공的招生方式包括学生部综合（平生学習者型）等。
+2. **成绩分布**：
+   - 从您提供的数据来看，e비즈니스學科在2024年有15个名额，报名人数为89人。
+   - 平均标准转换总分是426.25，标准差是14.02。
+3. **您的成绩**：
+   - 如果您能提供具体的国语、数学和选修科目（2科）的标准转换分数，我们可以进行更准确的评估。
+   - 例如，如果您的标准转换总分接近或超过426.25，并且在其他方面表现良好，那么预录取的可能性较大。
+4. **其他因素**：
+   - 面试成绩：面试通常占一定比例（如30%），您需要准备充分。
+   - 个人陈述和推荐信等软性材料也很重要。
+建议步骤如下：
+1. **确认具体分数**：提供具体的国语、数学和选修科目的标准转换分数，以便进行更准确的评估。
+2. **参考往年数据**：查看往年的录取分数线和成绩分布情况。
+3. **准备面试**：根据提供的面试问题（如支持动机及学业计划等），做好充分准备。
+如果您能提供更多具体信息，我可以帮助您进行更详细的分析。建议直接访问学校官网或联系招生办公室获取最新、最准确的信息。如果需要进一步的帮助，请告诉我您的具体分数和其他相关信息。</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 제공하고 있으며, 3.44라는 점수가 평균보다 낮다는 점도 언급하고 있습니다. 그러나 "3.44이라는 수능 영어 등급은 상대적으로 낮은 점수입니다"라는 표현은 다소 주관적일 수 있습니다. 전반적으로 사실에 기반한 정보가 많지만, 일부 주관적인 해석이 포함되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 간호학과의 평균 성적과 합격 가능성에 대한 논의가 일관되게 이어집니다. 그러나 "3.44라는 점수로 합격하기는 어렵지만, 여전히 가능성이 있습니다"라는 부분은 다소 모순적으로 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 다양한 요소를 잘 설명하고 있습니다. 원본 텍스트의 핵심 포인트를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길고 복잡하여 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 몇몇 부분에서 논리적 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 통계 정보도 제공하고 있습니다. 그러나 일부 주관적인 해석이 포함되어 있어 완전한 정확성에는 다소 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 일부 주관적인 표현이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길고 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.6695692144994549</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44이라는 수능 영어 등급은 상대적으로 낮은 점수입니다. 동의대학교 간호학과는 경쟁률이 높고, 지원자들의 평균적인 수능 성적이 높은 편입니다.
+2024학년도 간호학과의 지원자들의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 357.63이며, 표준 편차는 5.37입니다. 이와 비교해보면, 3.44라는 점수가 평균보다 약간 낮습니다.
+그러나 합격 가능성은 여러 요소에 따라 달라질 수 있습니다:
+1. **학생부 성적**: 간호학과에서는 학생부 성적이 중요한 역할을 합니다. 좋은 학업태도와 성취를 보여주는 학생부가 있다면 이는 긍정적인 점수입니다.
+2. **면접 결과**: 면접에서도 좋은 평점을 받으면 합격 가능성은 높아집니다.
+3. **추천서 및 기타 자료**: 추천서나 다른 지원자료에서 긍정적인 평가를 받는다면 이 또한 도움이 될 수 있습니다.
+4. **경쟁률**: 현재의 경쟁률과 지원자의 수준을 고려할 때, 3.44라는 점수로 합격하기는 어렵지만, 여전히 가능성이 있습니다.
+따라서, 단순히 수능 성적만으로 판단하기보다는 전체적인 지원 자료를 종합적으로 평가해야 합니다. 만약 확신이 없다면, 동의대학교 입학처에 문의하거나 추가 정보를 얻어보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 등급에 대한 정보와 간호학과의 평균 등급을 언급하고 있지만, 2.52라는 점수가 합격 가능성이 높다는 원본 텍스트의 주장을 반박하고 있습니다. 이는 원본의 사실과 일치하지 않으며, 다소 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 2.52 점수에 대한 해석이 상반되어 일관성이 떨어집니다. 원본에서는 합격 가능성이 높다고 했으나, 생성된 응답에서는 합격하기 어렵다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 간호학과의 수능 등급 기준과 경쟁률에 대한 추가 정보를 포함하고 있습니다. 그러나 원본의 핵심 주제인 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본과의 연결성이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 등급 평균과 경쟁률에 대한 정보를 제공하지만, 2.52 점수에 대한 해석이 원본과 상충하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 정보를 제공합니다. 그러나 원본의 주장을 반박하는 내용이 포함되어 있어 다소 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.616258182747121</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 수능 등급으로 보이는데, 동의대학교 간호학과의 경우 일반학생전형에서 수능 등급 기준이 상당히 높습니다. 간호학과의 경우 주로 3등급 이상을 요구하는 경향이 있습니다.
+현재 제공된 정보만으로는 정확한 답변을 드리기 어렵지만, 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 등급 평균**: 간호학과의 최종 합격자들의 수능 등급 평균은 3.37 (2024학년도)입니다.
+2. **경쟁률**: 간호학과는 매우 높은 경쟁률을 보여, 많은 지원자가 있습니다.
+따라서 2.52라는 점수로는 최종 합격하기 어렵다고 추정됩니다. 하지만 다음과 같은 방법들을 통해 기회를 늘릴 수 있습니다:
+1. **학생부 종합 평가**: 간호학과에서는 학생부 종합 평가도 중요한 요소입니다. 열심히 준비하고, 지원동기와 학업계획을 잘 작성해보세요.
+2. **면접 준비**: 면접에서도 좋은 성적을 받을 수 있도록 충분히 준비하세요.
+추가적으로 동의대학교 입학 홈페이지나 채널을 통해 최신 정보를 확인하거나, 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 3.7의 정시 성적이 낮다는 점을 잘 반영하고 있습니다. 그러나 경쟁률에 대한 구체적인 수치(6.59에서 37.69까지)는 출처에서 제공되지 않았으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 출처의 정보와 일관되며, 정시 성적이 낮다는 점을 강조하고 있습니다. 그러나 경쟁률에 대한 수치가 출처에 명시되지 않았기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 입학 성적과 관련된 여러 요소를 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 잘 구성되어 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, 경쟁률에 대한 구체적인 수치가 출처에 명시되지 않았기 때문에 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 정보의 정확성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 출처의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.6174572186261457</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적을 가지고 간호학과에 합격하기는 어렵다고 볼 수 있습니다. 간호학과는 일반적으로 높은 경쟁률을 보이며, 평균적인 입학성적이 상대적으로 높습니다.
+다음은 간호학과의 몇 가지 특징입니다:
+1. **경쟁률**: 제공된 데이터에 따르면 간호학과의 경쟁률이 6.59에서 37.69까지 다양하게 나타나고 있습니다. 이는 매우 높은 경쟁률을 의미합니다.
+2. **평균 입학성적**: 대부분의 학과와 마찬가지로 간호학과에서도 수능 성적이 중요한 요소입니다. 평균적으로 3.7의 정시 등급으로는 충분한 점수가 아닐 가능성이 높습니다.
+3. **전형별 특징**:
+   - **수능(일반학생전형)**: 이 전형에서는 수능 성적이 주요 평가 기준이므로 3.7의 등급은 경쟁력이 부족할 수 있습니다.
+   - **학생부종합**: 이 경우에는 학생부와 면접 등의 다양한 요소를 종합적으로 평가하므로, 좋은 학생부 성적과 적절한 면접 준비가 필요합니다.
+4. **추천 전형**:
+   - **평생학습자전형 / 성인학습자전형**: 이들 전형에서는 일반적인 수능 점수보다는 학생의 경험과 열정, 그리고 실무 능력이 더 중점을 두므로, 자신의 경력을 잘 준비한다면 가능성이 있습니다.
+   - **재직자전형**: 재직 경험이 있는 경우, 이 전형에서 경쟁력을 갖출 수 있습니다.
+5. **추천 사항**:
+   - **학생부 및 면접 준비**: 학생부를 잘 준비하고, 면접에서는 자신의 열정과 경험을 잘 표현할 수 있도록 준비해야 합니다.
+   - **추천서 활용**: 가능하다면 교사나 직장의 상사로부터 추천서를 받는 것도 도움이 될 수 있습니다.
+결론적으로 3.7의 정시 성적만으로 간호학과에 합격하기는 어렵지만, 다른 전형을 통해 경쟁력을 높일 수 있는 방법들이 있으므로 이를 고려해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 내용을 포함하고 있습니다. 원본 텍스트는 2.58의 성적이 간호학과의 평균 등급보다 높다고 언급하고 있지만, 생성된 응답은 이 성적이 낮다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 2.58이 합격 가능성이 높다고 말하는 반면, 생성된 응답은 합격하기 어렵다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 내용이 잘못된 정보에 기반하고 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 포인트를 잘못 해석하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수를 낮추는 주요 요인입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 저하된 상태입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있으며, 이로 인해 의미적으로 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.5719296333820733</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2.58이라는 점수로 동의대학교 간호학과에 정시 전형으로 합격하기는 어렵다고 판단됩니다.
+이유는 다음과 같습니다:
+1. **경쟁률**: 2024년도 모집에서 지원 인원은 145명이고 모집 인원은 22명으로, 경쟁률이 6.59입니다. 이는 매우 높은 수준의 경쟁을 의미합니다.
+2. **성적 평균**: 최종 등록자들의 성적 평균은 357.63이며, 표준 편차가 5.37입니다. 이는 전체 지원자의 성적이 상당히 높게 분포되어 있다는 것을 의미합니다.
+3. **성적 기준**: 동의대학교 간호학과의 정시 모집에서는 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 357.63이며, 이는 2.58보다 훨씬 높습니다.
+4. **표준 변환 점수**: 성적은 표준 변환 점수로 평가되므로, 같은 등급이라도 점수가 다르게 반영될 수 있습니다. 하지만 2.58이라는 점수는 매우 낮은 범위에 속합니다.
+따라서, 현재의 성적 상태에서 동의대학교 간호학과에 정시 전형으로 합격하기는 어렵다고 판단됩니다. 성적이 향상될 수 있는 방법을 찾아보거나 다른 대학이나 전형을 고려해 보는 것이 좋을 것 같습니다.
+추가적으로, 동의대학교 입학 홈페이지나 채널을 통해 최신 정보를 확인하거나, 학교 관계자와 상담하는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비번호 7번에 대한 합격 가능성을 언급하고 있지만, 원본 텍스트에서 명시된 "예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다"는 내용을 명확히 반영하지 않고 있습니다. 경쟁률에 대한 정보는 추가되었지만, 원본의 핵심 사실을 간과하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 예비번호 7번의 합격 가능성에 대한 원본의 주장을 반박하는 내용을 포함하고 있습니다. 이는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 게임공학과의 모집 인원과 지원자 수에 대한 정보를 제공하며, 예비번호 7번에 대한 합격 가능성에 대한 논의와 관련이 있습니다. 그러나 원본의 핵심 메시지와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 부분이 자연스럽게 연결되어 있습니다. 그러나 원본의 주제와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률 계산과 관련된 정보를 제공하지만, 원본 텍스트의 핵심 사실인 예비번호 7번의 합격 가능성에 대한 정확한 정보를 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 원본의 핵심 사실을 간과하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본의 맥락과 다소 어긋나는 부분이 있습니다. 예비번호 7번의 합격 가능성에 대한 원본의 주장을 무시하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본의 핵심 메시지와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.6417664485324144</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2024년도 동일 학과 모집인원과 지원자 수를 확인해보겠습니다.
+- **게임공학과**:
+  - 정원 내 모집 인원: 3명
+  - 지원 인원: 16명
+경쟁률을 계산하면:
+\[ \text{경쟁률} = \frac{\text{지원 인원}}{\text{정원 내 모집 인원}} = \frac{16}{3} \approx 5.33 \]
+당신의 예비번호가 7번이라면, 경쟁률이 약 5.33입니다.
+**결론:**
+- 정원 내 모집인원은 3명이고 지원 인원이 16명이므로, 경쟁률이 높습니다.
+- 예비번호 7번으로는 충분히 합격 가능성이 있지만, 확실한 것은 아닙니다. 최종 합격자는 수능 점수와 서류 평가 등 다양한 요소를 종합적으로 고려하여 결정됩니다.
+추천 사항:
+1. **수능 성적을 최대한 높이세요**: 경쟁률이 높으므로, 수능 성적이 중요합니다.
+2. **서류 준비에 신경 써주세요**: 서류 평가에서도 좋은 점수를 받기 위해 노력하세요.
+3. **면접 준비도 철저히 하세요**: 면접에서도 좋은 인상을 남길 수 있도록 준비해보세요.
+더 궁금한 사항이 있으시다면, 학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적과 관련된 정보와 경쟁률, 충원 합격자 수에 대한 내용을 포함하고 있으며, 이는 원본 텍스트의 정보와 일치합니다. 그러나 "충원 합격자는 3명"이라는 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 충원 합격자 수에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 추가 합격에 대한 예측이 어렵다고 명시하고 있으나, 생성된 응답은 추가 합격 가능성을 높게 평가하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있으며, 수능 성적, 경쟁률, 추가 합격 가능성 등 관련된 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에 없는 세부사항(충원 합격자 수 등)이 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 전반적으로 적절한 의미를 전달하고 있습니다. 그러나 일부 추가 정보가 원본의 의도와 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.6915293581117463</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다.
+수능 성적이 4.16정도라면 평균적인 경쟁률을 고려할 때, 약간 낮은 점수로 보여집니다. 하지만 정시 전형의 경우 여러 요소가 작용하므로 정확한 예측은 어렵습니다. 
+다만, 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **경쟁률**: 5.33이라는 경쟁률을 감안하면, 평균적인 지원자들보다 낮은 점수이기 때문에 충원 합격 가능성은 높아질 수 있습니다.
+2. **추가 합격 확률**: 일반적으로 경쟁률이 높은 모집단위에서 4.16정도의 성적을 가진 지원자는 추가 합격을 받을 가능성이 있습니다. 하지만 정확한 숫자는 알 수 없습니다.
+3. **전형 요소**: 게임공학과는 실기나 프로젝트 등 실무 능력이 중요한 역할을 하므로, 자기소개서와 면접 등의 전형요소에서 좋은 평가를 받는 것이 중요합니다.
+4. **추천서 및 추가 서류**: 추천서나 기타 추가 서류의 질도 합격 가능성에 영향을 줄 수 있습니다.
+따라서, 4.16정도의 성적을 가진 지원자가 게임공학과에서 추가 합격을 받을 확률은 높지만, 정확한 숫자는 알 수 없습니다. 최선을 다해 자기소개서와 면접 등 전형 요소를 준비하는 것이 중요합니다.
+추가로, 동의대학교 입학 홈페이지나 채널을 통해 가장 최신 정보를 확인하거나, 학교 관계자에게 직접 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do 를 참고하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 제공하지 않고, ICT융합공과대학 소프트웨어공학부의 성적 분포를 언급하고 있습니다. 이는 원본 텍스트의 핵심 정보를 무시하고 다른 학과의 정보를 제공하여 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 성적에 대한 질문에 대해 ICT융합공과대학 소프트웨어공학부의 성적을 비교하고 있습니다. 이는 원본 텍스트와 일치하지 않으며, 서로 다른 학과의 정보를 비교하는 것은 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적에 대한 질문에 대해 다른 학과의 정보를 제공하고 있지만, 질문의 핵심인 경영정보학과의 합격 가능성에 대한 정보는 포함되어 있습니다. 그러나 주제와 관련된 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려하여 경영정보학과의 합격 가능성을 평가하려고 하지만, 정보의 흐름이 다소 불명확하고 주제가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 성적에 대한 질문에 대해 다른 학과의 정보를 제공하고 있으며, 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 대해 다른 학과의 정보를 제공하고 있지만, 질문의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 주제가 분산되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.5868712666374565</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 모집단위의 경쟁률과 지원인원, 그리고 평균 점수 등을 고려해보겠습니다.
+주어진 예시에서 ICT융합공과대학 소프트웨어공학부의 최종등록자들의 성적 분포를 살펴봅시다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+이와 비교해보면, 경영정보학과의 정시 성적 3.75는 영어 등급 측면에서는 비슷하거나 약간 낮습니다.
+그러나 학교별로 지원자의 수와 경쟁률이 다르므로, 단순히 영어 점수만으로 판단하기보다는 다음과 같은 요소들을 종합적으로 고려해야 합니다:
+1. **전반적인 성적 평균**: 3.75는 평균 이상의 점수로 보입니다.
+2. **경쟁률과 지원인원**: 경영정보학과의 모집인원과 지원인원을 확인해보세요. 만약 지원 인원이 많다면, 경쟁률이 높아질 수 있습니다.
+3. **전공적합성**: 지원자의 전공적합성과 학업계획 등 서류평가 결과도 중요합니다.
+따라서, 정확한 답변을 위해서는:
+1. 2024학년도 경영정보학과의 모집인원과 지원인원을 확인해야 합니다.
+2. 해당 단과대학의 전반적인 평균 성적과 비교해볼 필요가 있습니다.
+만약 지원 인원이 많고 경쟁률이 높다면, 3.75는 최초 등록자로 선발될 가능성은 낮을 수 있습니다. 그러나 지원 인원이 적거나 경쟁률이 낮다면, 가능성이 있을 수 있습니다.
+추가적인 정보를 제공해주시면 더 정확한 답변을 드릴 수 있을 것 같습니다. 필요하다면, 입학처 홈페이지나 학교 관계자에게 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 정시 등급이 4.2일 경우 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답에서는 4.2가 높은 성적이라고 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서는 4.2가 낮은 성적이라고 언급되지만, 생성된 응답에서는 이를 반대로 해석하여 합격 가능성이 높다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 등록 자격에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 성적 기준에 대한 정확한 해석이 부족합니다. 그러나 전반적으로 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 일관된 흐름이 부족합니다. 특히 성적 기준에 대한 해석이 원본과 다르기 때문에 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 성적 기준에 대한 잘못된 해석이 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 원본 텍스트와의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다르게 해석되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.6988864853603732</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2024학년도 경영정보학과의 최종 등록 자격에 대해 확인해보겠습니다.
+- **모집인원 및 지원 인원**: 경영정보학과는 모집 인원이 9명이며, 지원 인원은 95명으로 매우 높은 경쟁률을 보입니다.
+- **성적 평균**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 313.13이며, 영어 등급의 평균은 3.25입니다.
+- **성적 기준**: 성적이 4.2라면, 이는 상당히 높은 수준으로, 평균보다 훨씬 높습니다.
+따라서, 성적이 4.2인 경우 경영정보학과의 최초 등록자로 가능할 확률이 매우 높습니다. 그러나 정시모집의 경쟁률이 매우 높기 때문에, 다른 지원자의 성적과 서류 평가 결과에 따라 결정될 수 있습니다.
+**추천 사항:**
+1. **서류 준비**: 철저한 서류 준비와 학업역량, 전공적합성 등 면접평가 영역에서 높은 점수를 받을 수 있도록 노력하세요.
+2. **면접 준비**: 면접 질문 공통문항에 대해 잘 준비하고, 지원동기와 학업계획을 명확하게 설명할 수 있어야 합니다.
+이러한 조건들을 충족한다면 최초 등록자로 선발될 가능성이 높습니다. 그러나 확실한 결정은 입학사정관의 평가 결과에 따라 결정되므로, 최종 결과를 기다리는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 점수 5.33이 높은 점수라고 언급하고 있지만, 원문에서는 5.33이 경영정보학과의 평균 등급보다 낮다고 명시하고 있습니다. 또한, 제공된 데이터와 관련된 정보가 원문과 일치하지 않으며, 합격 가능성에 대한 해석이 원문과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일관되지 않습니다. 원문은 5.33이 평균보다 낮다고 명시하고 있지만, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 원문에서 제시된 핵심 내용과는 다소 벗어난 해석을 하고 있습니다. 그럼에도 불구하고, 주제와 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 원문과의 연결이 명확하지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있습니다. 특히, 수능 점수에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문과의 일치성이 떨어집니다. 일부 내용은 적절하지만, 전체적인 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용은 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.5699986071869061</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>5.33이라는 수능 점수는 상당히 높은 점수입니다. 동의대학교 경영정보학과의 경우, 2024년도 최종등록자들의 성적 분포를 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 313.13
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 5.75
+이 데이터를 바탕으로, 평균보다 약간 높은 점수인 5.33은 경쟁률과 충원 합격자 수를 고려할 때 합격 가능성은 있습니다.
+- 최종등록자의 지원 인원: 95명
+- 충원 합격 (후보순위): 33명
+이러한 데이터에서 볼 때, 평균보다 약간 높은 점수를 가진 지원자는 상대적으로 유리할 수 있습니다. 그러나 경쟁률이 매우 높기 때문에, 다른 요인들도 고려해야 합니다:
+1. **학생부 성적**: 수능 점수 외에도 학생부 성적이 중요합니다. 평균 308.58의 표준 변환 점수를 가진 지원자들이 있습니다.
+2. **면접 및 서류평가**: 경영정보학과는 면접과 서류평가가 포함되므로, 이 부분에서 좋은 성적을 받는 것이 중요합니다.
+3. **특기사항 및 활동**: 특기사항이나 활동이 있다면 이를 잘 활용해야 합니다.
+4. **전형요소 반영비율**: 수능 점수 50%와 학생부 50%로 구성되므로, 학생부 성적도 중요합니다.
+결론적으로, 5.33이라는 점수는 합격 가능성은 있지만, 경쟁률이 매우 높기 때문에 확실한 것은 아닙니다. 최선을 다해 준비하고, 면접과 서류평가에서도 좋은 결과를 얻어야 합니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적에 대한 정보를 제공하지만, 영어 등급 평균이 4.53으로 언급된 부분은 원본 텍스트의 3.82와 다릅니다. 또한, 수능 4개 영역 등급 평균이 4.74라는 원본의 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 다른 데이터와 혼합되어 있어 일관성이 떨어집니다. 특히, 성적 분포와 관련된 정보가 추가되면서 원본의 주제와 다소 어긋나는 경향이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 입학 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 약간의 차이가 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실과 다르게 제시된 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 세부사항과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 정보가 복잡하게 제시되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.7371061955726066</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 수능(일반학생전형) 최종등록자의 성적 분포를 살펴보면 다음과 같습니다:
+- 모집단위: 바이오의약공학과, 식품공학과
+- 모집인원: 99명 (2023년도 모집인원)
+- 지원인원: 238명
+- 경쟁률: 2.40
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 284.86
+- 영어 등급의 평균: 4.53
+이러한 데이터를 바탕으로, 성적 3.33은 대략 3등급 정도로 추정됩니다.
+바이오응용공학부의 최종등록자들의 성적 분포는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 284.86
+- 이 값은 약 3.0 등급을 의미합니다.
+따라서, 성적 3.33은 약 3등급으로, 최종등록자들의 평균 성적(약 3.0)보다 약간 높습니다. 그러나 경쟁률이 2.40인 만큼, 지원 인원이 많아서 여전히 낮은 등급의 학생들도 충원될 수 있습니다.
+결론적으로, 성적이 약간 높으므로 가능성이 있지만, 확실한 것은 아닙니다. 경쟁률과 지원 인원이 많은 만큼, 최종등록자들 중에서도 3.0 등급 이하의 학생들이 있을 수 있으므로, 여전히 낮은 가능성은 있습니다.
+추천 사항:
+1. 다른 전형(예: 실기/실적 위주 전형)을 고려해보세요.
+2. 지원 가능성이 높은 모집단위를 확인하고 지원하세요.
+3. 추가적으로 면접 준비를 철저히 하세요.
+최종 결정을 내리기 위해서는 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하는 것이 가장 정확한 정보를 얻을 수 있는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 제공하고 있으며, 4.4 등급이 낮은 성적이라는 점을 언급하고 있습니다. 그러나 "4.4등급은 좋은 성적"이라는 부분은 다소 모순적입니다. 따라서 일부 사실이 정확하지 않지만, 전반적으로는 신뢰할 수 있는 정보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 포함하고 있지만, 4.4 등급이 낮다고 언급한 후에 "4.4등급은 좋은 성적"이라고 말하는 부분에서 일관성이 부족합니다. 이러한 모순으로 인해 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 정보와 관련된 여러 가지 요소를 다루고 있으며, 질문의 주제와 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있었던 점이 아쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 방사선학과의 평균 등급과 관련된 정보는 정확하지만, 4.4 등급에 대한 평가가 상반된 점이 있어 정확성 점수가 다소 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 표현에서 모순이 있어 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있는 점이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.6776145647662206</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서 방사선학과에 지원하려면 몇 가지 정보가 필요합니다:
+1. **방사선학과의 모집단위와 전형**: 방사선학과는 어떤 단과대학에 속하는지, 그리고 해당 학과는 일반학생전형을 통해 모집하고 있는지 확인해야 합니다.
+2. **성적 평균 등급**: 방사선학과가 요구하는 최소 등급 기준은 무엇인지 알아보세요. 일부 대학에서는 특정 과목의 등급이 필요하거나, 전체 성적이 일정 수준 이상이어야 한다는 등의 조건을 두고 있을 수 있습니다.
+3. **수능 반영 영역**: 방사선학과가 수능에서 어떤 영역을 중점적으로 평가하는지 확인해야 합니다. 일반적으로 과학이나 수학 등 관련 분야의 성적이 중요할 수 있습니다.
+4. **모집인원 및 경쟁률**: 해당 학과의 모집인원과 지원 인원, 그리고 현재의 경쟁률을 파악하여 자신의 입학 가능성을 판단해 보세요.
+5. **추천서나 면접 등 추가 요건**: 일부 전형에서는 추천서 작성이나 면접 등의 추가 절차가 필요할 수 있으므로 이에 대한 준비도 필요합니다.
+현재 제시된 정보만으로는 방사선학과에 지원 가능성을 정확히 판단하기 어렵습니다. 하지만 일반적으로 4.4등급은 좋은 성적이며, 대부분의 학과에서는 충분한 경쟁력을 갖추고 있을 것입니다. 
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 또한, "https://ipsi.deu.ac.kr/main.do" 링크에서 더 많은 정보를 확인하실 수 있습니다.
+추가적으로, 방사선학과에 지원하기 위해 필요한 자세한 조건이나 추가 서류 등은 해당 대학 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 경쟁률, 충원 합격자 수, 지원 인원, 표준 변환 점수 평균 및 표준 편차와 같은 정보를 포함하고 있지만, 이러한 정보는 원본 텍스트에 명시된 내용과 관련이 없습니다. 원본 텍스트는 2.66이라는 점수가 평균보다 높다는 내용을 담고 있으며, 생성된 응답은 이를 반박하는 내용을 포함하고 있어 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 제공합니다. 원본 텍스트는 2.66이 평균보다 높다고 언급하지만, 생성된 응답은 이 점수가 평균보다 낮다고 주장합니다. 이러한 상충은 일관성을 저해합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 추가 정보를 제공하지만, 원본 텍스트의 핵심 질문인 2.66 점수의 합격 가능성에 대한 직접적인 답변은 부족합니다. 따라서 관련성은 있지만, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 요소를 나열하고 있지만, 이들 간의 논리적 연결이 약해 보입니다. 각 요소가 어떻게 연결되는지 명확하지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있으며, 2.66 점수가 평균보다 낮다고 잘못 해석하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 내용은 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.468845376986761</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20으로 높고, 충원 합격자는 5명으로 제한되어 있습니다. 지원 인원이 36명이므로 경쟁이 매우 치열합니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 341.62이며, 표준 편차는 9.80입니다. 이 데이터를 바탕으로 볼 때, 2.66이라는 점수는 평균보다 약간 낮습니다.
+이 점수로 지원한다면 다음과 같은 위험성을 고려해야 합니다:
+1. **경쟁률이 높음**: 경쟁률이 7.20이고 충원 인원이 제한적이므로, 점수가 조금이라도 낮으면 탈락할 가능성이 큽니다.
+2. **표준 편차 고려**: 표준 편차가 9.80으로 높기 때문에, 평균보다 약간 낮은 점수라도 다른 지원자들 중에서는 상대적으로 낮을 수 있습니다.
+3. **전형 요소 반영 비율**: 전형요소 반영비율이 학생부교과 18% + 출결 12% + 서류(실적) 70%로, 실적 부분이 큰 비중을 차지하고 있습니다. 따라서 실적 측면에서 준비가 필요합니다.
+4. **전형 요소**: 학생부교과와 실적의 중요성이 높으므로, 이 부분에 대한 준비를 철저히 해야 합니다.
+따라서 2.66이라는 점수로는 위험이 있습니다. 최대한 실적을 강화하고, 학생부 교과성적도 향상시켜 보는 것이 좋습니다. 또한 면접에서도 좋은 성적을 받기 위해 준비를 해야 합니다.
+추가적으로, 입학사정관의 평가와 서류평가에서 좋은 점수를 얻기 위한 준비도 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, 추가적인 정보 요구 사항이 원본 텍스트와 일치하지 않으며, 일부 내용이 과도하게 구체적이거나 원본 텍스트의 요점을 벗어나 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 추가적인 정보 요구 사항이 원본 텍스트의 내용과 일관되지 않으며, 원본의 요점을 흐리게 하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보 요구 사항이 원본의 핵심 내용과는 다소 거리가 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 다소 분산되어 있어 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실을 완전히 반영하지 못하고 있습니다. 특히, 추가 정보 요구 사항이 원본의 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 일부 강점과 약점이 혼재되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가적인 정보 요구 사항이 원본의 맥락과 다소 어긋나 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5384401477611457</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공의 농어촌 전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 답변을 드리기 위해서는 몇 가지 추가 정보가 필요합니다:
+1. **학교별 정원외 최종 등록자 추가 제출서류 유형**: 6년 과정인지 12년 과정인지 확인해야 합니다. 이에 따라 고교 졸업증명서, 지원자 본인, 부모 초본 등의 요구사항이 다릅니다.
+2. **동점자 처리 기준**: 순위가 1위인 동점자 처리기준은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자입니다. 이 중 어느 항목이 강점을 가지고 있는지 확인해야 합니다.
+3. **면접 평가**: 경찰행정학전공의 경우 면접 평가가 중요한 요소일 수 있습니다. 학생부교과 성적이 높은 분야와 관련된 경험이나 열정을 잘 보여줄 수 있어야 합니다.
+4. **학생부 교과성적 반영방법**: 2024학년도에는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목이 반영됩니다.
+5. **면접 평가 점수**: 학생부종합 전형의 경우 면접 평가에서 합격을 위한 최소 점수가 있습니다. 예를 들어, 나군 학생부종합(평생학습자전형)에서는 학업역량 1등급 (166.5점 이상), 전공적합성 2등급 (102점 이상)이 필요합니다.
+현재 정보만으로는 확실한 답변을 드릴 수 없습니다. 하지만 성적이 꽤 높은 편이고, 학생부와 면접에서 좋은 평가를 받았다면 합격 가능성은 있습니다. 
+추가적으로, 해당 대학의 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나, 직접 입학처에 문의하시면 더 정확한 정보를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 순위가 높다는 점을 언급하고 있지만, 원문에서 제공된 특정 학과 목록을 언급하지 않고 있습니다. 또한, 합격 가능성에 대한 여러 요인을 제시하고 있지만, 원문에서 명시된 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 합격 가능성에 대한 정보를 다루고 있지만, 원문에서 제공된 특정 학과 목록을 무시하고 있습니다. 따라서 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격 가능성에 대한 질문에 대해 여러 요인을 제시하며 관련된 정보를 제공합니다. 그러나 원문에서 제공된 특정 학과 목록과의 연결이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 합격 가능성에 대한 여러 요인을 제시하지만, 원문에서 제공된 구체적인 정보(예: 특정 학과 목록)를 포함하지 않아 정확성이 떨어진다고 평가할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원문과의 연결이 부족하고 특정 세부사항이 누락되어 있어 전반적인 품질이 떨어진다고 평가할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 합격 가능성에 대한 다양한 요인을 설명하고 있습니다. 그러나 원문과의 연결이 부족하여 완전한 의미적 적합성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.423156431121661</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 하지만 붙을 가능성이 완전히 없는 것은 아닙니다. 여러 요인들이 결과에 영향을 미칩니다:
+1. 모집 인원과 지원자 수: 현재 정보만으로는 정확한 비율을 계산하기 어렵습니다.
+2. 경쟁률: 다른 지원자의 성적과 경쟁률이 중요합니다. 
+3. 전형 방식: 실기, 면접 등 추가 평가 요소도 고려해야 합니다.
+4. 학교의 선발 정책: 일부 대학은 최저 점수 이하에도 특별한 사유로 합격을 주기도 합니다.
+5. 개인적 성장 기회: 입학 후 성장 가능성도 중요한 평가 요소일 수 있습니다.
+따라서, 확실한 답변보다는 긍정적인 태도를 가지고 준비하는 것이 중요합니다. 추가 정보(모집 인원, 지원자 수 등)를 얻어 분석해보시고, 필요하다면 학교에 문의하시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 잘못된 부분이 있습니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 법경찰행정학부에 대한 성적 예측을 하고 있습니다. 이는 사실과 일치하지 않으며, 여러 가지 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 경찰행정학과에 대한 성적 정보를 제공하고 있지만, 생성된 응답은 법경찰행정학부에 대한 성적 요구를 다루고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 관련성이 떨어집니다. 경찰행정학과에 대한 정보는 유용하지만, 잘못된 학부에 대한 언급이 주제를 흐리게 합니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 각 요소가 서로 연결되지 않고 독립적으로 나열되어 있어 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 법경찰행정학부에 대한 잘못된 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 생성된 응답은 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 법경찰행정학부에 대한 언급은 원본 텍스트의 내용과 상충합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7278138741664352</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집에서 평균 성적을 예측하기는 어렵지만, 일반적으로 다음과 같은 요소들을 고려할 수 있습니다:
+1. **전형별 성적 요구**:
+   - **나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 이 전형은 서류와 면접을 중점으로 하므로, 평균적인 교과 성적이 3등급 내외라면 안정적으로 합격할 수 있습니다.
+   - **가군 학생부교과(농어촌학생전형)**: 농어촌 학생 전형은 특별한 지원 요건이 있으므로, 평균 교과 성적이 3등급 내외라면 안정적으로 합격할 수 있습니다.
+   - **다군 정시모집**: 이 전형은 실기와 실적을 중점으로 하므로, 실기 점수가 높다면 합격 가능성이 큽니다.
+2. **전반적인 성적 평균**:
+   - 2023년도 동의대학교 법경찰행정학부의 정시 모집에서 일반적으로 3등급 내외의 교과 성적이 안정권으로 간주되었습니다.
+   - 특히, 나군 학생부종합 전형에서는 평균 3.5등급 이상이면 안정적인 수준입니다.
+3. **추세 분석**:
+   - 최근 몇 년간의 입학 성적 추세를 살펴보면, 법경찰행정학부는 경쟁률이 높아지면서 평균 성적이 상승하는 추세를 보이고 있습니다.
+   - 따라서 2024년에도 비슷한 수준의 성적을 유지하거나 약간 더 높은 성적을 목표로 설정하는 것이 좋습니다.
+4. **추천 성적**:
+   - **안정권**: 평균 3등급 내외 (예: 국어 2, 영어 2, 수학 3 등)
+   - **문 닫고 들어갈 수 있는 수준**: 평균 3.5등급 이상 (예: 국어 2, 영어 2, 수학 3.5 등)
+결론적으로, 법경찰행정학부에 정시로 들어가려면 평균 3등급 내외의 성적을 유지하는 것이 안정적인 수준이며, 3.5등급 이상이면 문 닫고 들어갈 수 있는 수준입니다. 하지만 최종 결정은 입학사정관들의 판단과 경쟁률에 따라 변동될 수 있으므로, 가능한 한 높은 성적을 목표로 설정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 보육가정상담학과에 대한 합격 가능성을 낮게 평가하고 있으나, 원본 텍스트에서는 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높다고 명시하고 있습니다. 이로 인해 사실관계가 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본에서는 5.33의 등급이 합격 가능성이 높다고 했으나, 생성된 응답은 합격 가능성이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과에 대한 합격 가능성에 대한 정보를 제공하고 있으나, 원본 텍스트의 주제와는 다소 벗어나 있습니다. 그러나 여전히 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상반되는 내용을 포함하고 있어 정확성이 낮습니다. 원본에서 제시된 평균 등급과 합격 가능성에 대한 정보가 잘못 해석되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실관계, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.6297155000728485</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>5.33이라는 등급을 가지고 동의대학교 보육가정상담학과에 지원한다면, 합격 가능성은 낮을 것으로 예상됩니다.
+이유는 다음과 같습니다:
+1. **경쟁률**: 보육가정상담학과는 일반적으로 높은 경쟁률을 보입니다. 2024년도 모집에서 지원자 수와 모집 인원의 비율을 보면, 경쟁률이 매우 높습니다.
+2. **성적 평균**: 제공된 데이터를 통해 보육가정상담학과의 성적 평균을 확인할 수 있습니다. 예를 들어, 2024년도 상경대학 경영학과의 경우, 지원 인원 65명 중 충원 합격자는 23명으로, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 416.53입니다.
+3. **성적 등급**: 5.33이라는 등급은 대체로 중간에서 조금 높은 수준이지만, 이는 특정 과목별 등급을 의미합니다. 전체 성적이 416.53보다 낮다면 합격 가능성은 낮아집니다.
+4. **전형 방식**: 동의대학교는 다양한 전형 방식을 사용하며, 특히 수능 성적과 학생부 성적을 종합적으로 평가합니다. 따라서 단순히 등급만으로 판단하기보다는 전체적인 성적과 지원자의 경쟁력을 고려해야 합니다.
+결론적으로 5.33이라는 등급만으로는 보육가정상담학과에 합격하기 어렵다고 볼 수 있습니다. 그러나 최종 합격 여부는 여러 요인에 따라 달라질 수 있으므로, 정확한 판단을 위해서는 동의대학교의 전형 방식과 지원자의 전체 성적을 종합적으로 고려해야 합니다.
+추가 정보를 제공하거나, 더 자세한 조언이 필요하다면 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 충원 합격자 발표와 관련된 정보를 포함하고 있지만, 보육가정상담학과가 아동학과로 변경되었다는 내용은 원본 텍스트에 명시되어 있지 않으며, 이 정보는 사실 여부가 확인되지 않았습니다. 또한, 충원 합격자 발표 일정에 대한 구체적인 언급이 부족합니다.
+2. Consistency Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있으나, 보육가정상담학과의 변경 사항과 같은 새로운 정보를 추가하면서 원본의 맥락과 일치하지 않는 부분이 있습니다. 예비 12번에 대한 합격 가능성에 대한 설명은 일관성을 유지하고 있지만, 추가된 정보가 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 예비 12번에 대한 합격 가능성과 관련된 정보를 제공하고 있으며, 충원 합격자 발표와 관련된 조언을 포함하고 있습니다. 그러나 보육가정상담학과의 변경 사항은 질문과 직접적인 관련이 없으므로 약간의 비관련성이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문단이 주제를 잘 연결하고 있습니다. 그러나 보육가정상담학과의 변경 사항이 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 3  
+   - 생성된 응답에서 제공된 정보 중 일부는 확인되지 않은 사실이 포함되어 있으며, 원본 텍스트의 특정 세부 사항을 정확하게 반영하지 않습니다. 예를 들어, 보육가정상담학과의 변경 사항은 원본에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성은 높지만 정확성과 일관성에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 보육가정상담학과의 변경 사항은 원본의 맥락과 다소 어긋납니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7439689098192017</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 여러 모집단위에 대한 정보를 제공하고 있습니다. 특히, 보육가정상담학과는 2023년도에는 보육가정상담학과였으나 2024년도에는 아동학과로 변경되었습니다.
+충원 합격 3차에서 예비 12번을 받았다면, 이는 아직 최종적으로 합격 여부가 결정되지 않은 상태입니다. 일반적으로 충원 합격 후에도 추가적인 합격자 발표와 등록이 이루어질 수 있으므로, 다음 단계의 합격자 발표를 기다리는 것이 좋습니다.
+추가적인 정보:
+- 2024학년도 동의대학교는 여러 모집단위에 대한 충원 합격자를 계속 발표하고 있습니다.
+- 각 모집단위별로 추가 합격자가 발표될 수 있으므로, 홈페이지를 주기적으로 확인하는 것이 중요합니다.
+따라서, 현재 예비 12번을 받았다면 최종 합격 여부는 다음의 합격자 발표와 등록 과정에서 결정됩니다. 입학안내 홈페이지를 통해 공식 정보를 확인하시고, 필요하다면 학교에 직접 문의하는 것이 좋습니다.
+추가적으로, 동의대학교의 전형일정을 참고하여 각 단계별로 진행되는 일정을 체크해보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 대한 정보가 부족하고, 4.75의 성적이 유아교육학과에 지원하기 어려운 이유를 명확히 설명하지 않고 있습니다. 또한, 경쟁률에 대한 정보가 잘못된 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 특히, 유아교육학과의 지원 가능성에 대한 설명이 원본과 상충합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 일부 관련된 정보를 제공하지만, 주제와 관련된 핵심 사항을 충분히 다루지 않고 있습니다. 유아교육학과에 대한 구체적인 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장에서 언어가 혼합되어 있어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 비교적 일관성이 있지만, 정보의 흐름이 매끄럽지 않고, 주제와 관련된 정보가 명확하게 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 응답에서 제공된 정보는 정확하지 않으며, 특히 유아교육학과에 대한 지원 가능성에 대한 설명이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 응답의 질이 낮으며, 사실성, 일관성, 정확성에서 많은 문제를 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로 적절한 부분도 있지만, 주제와 관련된 정보가 부족하여 전체적으로 적절하지 않은 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 일부 혼합된 언어 사용으로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6277000275350965</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75의 영어 등급은 비교적 높은 점수입니다. 하지만 정시 모집에서 합격 여부는 단순히 영어 등급만으로 결정되는 것이 아닙니다. 다음과 같은 요소들을 고려해야 합니다:
+1. **전체 성적 평균**: 4개 영역의 평균 점수가 중요합니다. 4.75라는 높은 영어 등급이 다른 영역에서도 좋은 성적을 보여주고 있다면, 합격 가능성은 높아집니다.
+2. **수능 표준 변환 점수**: 수능의 표준 변환 점수가 평균 이상이라면 이점이 있습니다. 예를 들어, 국어 + 수학 + 탐구(2개)의 표준 변환 점수가 높다면 이는 긍정적입니다.
+3. **경쟁률**: 유아교육과의 경쟁률을 고려해야 합니다. 4.60이라는 경쟁률은 상대적으로 낮지만, 여전히 다른 학생들과的竞争率相对较低，但仍然需要与其他考生竞争。因此，仅凭4.75的英语等级并不能完全确定能否被幼儿教育学专业录取。还需要考虑其他因素，如整体成绩、各科目的标准转换分数以及该专业的具体招生情况。
+如果想提高被录取的机会，建议：
+1. 确保所有科目都有良好的表现。
+2. 准备充分参加面试和其他可能的选拔环节。
+3. 关注学校发布的最新信息和要求。</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 수치(영어 등급 평균 6.33, 수능 4개 영역 등급 평균 7.08)와는 다소 차이가 있습니다. 또한, 합격 가능성에 대한 판단이 원본 텍스트의 내용과 일치하지 않으며, 일부 정보는 추정에 기반하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 평균 등급에 대한 정보가 다르게 제시되어 있어 일관성이 떨어집니다. 특히, 합격 가능성에 대한 결론이 원본 텍스트와 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용(정시 등급과 합격 가능성)에 대한 직접적인 언급이 부족합니다. 그러나 전반적으로 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 수치와 다르게 제시된 부분이 있어 정확성이 떨어집니다. 특히, 합격 가능성에 대한 판단이 원본 텍스트와 상충합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락에서 작성되었습니다. 그러나 일부 정보는 원본 텍스트와의 일치성이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 다만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.4984674640303529</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집에서 보육·가정상담학과의 경우, 2023년도에는 보육가정상담학과였습니다. 하지만 2024년도에 학과 명칭이 변경되었을 가능성이 있습니다. 현재 정보로는 2024년도에도 보육가정상담학과라는 이름으로 운영될 것으로 추정됩니다.
+현재의 정시모집에서 보육·가정상담학과의 모집인원, 지원자 수, 경쟁률 등을 고려해보겠습니다:
+- 모집 인원: 20여명 정도
+- 지원 인원: 약 150명 정도
+경쟁률은 대략 7.5:1 정도로 예상됩니다.
+현재의 등급인 4.16을 가지고 경쟁률이 7.5:1인 학과에 합격할 확률은 상당히 낮습니다. 평균적인 수능등급을 보면, 보육·가정상담학과는 대략 3.8~4.0 정도의 등급을 요구하는 경향이 있습니다.
+하지만, 정시모집에서는 다양한 요소들이 고려되므로 완전히 배제할 수는 없습니다. 학생부 평가, 면접 성적 등을 잘 준비한다면 일부 경우에선 가능성이 있을 수 있습니다.
+추천 드리는 것은:
+1. **학생부 및 면접 준비**: 학생부와 면접에서 좋은 평가를 받을 수 있도록 충분히 준비하세요.
+2. **다양한 전형 시도**: 다른 전형(예: 특기자, 실기 등)에서도 지원해보는 것이 좋습니다.
+3. **정보 확인**: 동의대학교 입학처 웹사이트나 채널을 통해 최신 정보를 확인하시고, 필요하다면 합격 가능성을 물어볼 수 있습니다.
+최종적으로는 입학사정관들의 평가와 면접 성적 등이 결정적인 역할을 하므로, 철저한 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 정보를 제공합니다. 원문은 정시 지원이 불가능하다고 명확히 언급하고 있지만, 생성된 응답은 정시 지원에 대한 정보를 제공하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순됩니다. 원문이 정시 지원이 불가능하다고 명시한 반면, 생성된 응답은 정시 지원에 대한 정보를 제공하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 없습니다. 원문은 정시 지원 가능성에 대한 질문인데, 생성된 응답은 정시 지원에 대한 정보와 점수 추정치를 제공하여 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 없기 때문에 전체적인 일관성은 떨어집니다. 주제와 관련이 없기 때문에 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공한 정보와 완전히 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문이 정시 지원이 불가능하다고 명시한 반면, 생성된 응답은 정시 지원에 대한 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없는 정보를 제공합니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용이 원문과 관련이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4172480520464402</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프RT. 융합학과를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다:
+1. **모집단위 및 모집인원**: 
+   - 단과대학: ICT공과대학
+   - 모집단위: 소프트웨어융합학과
+   - 모집 인원: 7명
+2. **수능 반영 영역**:
+   - 국어, 수학, 영어, 탐구 등급을 반영합니다.
+   - 특히 수학은 중요하며, 가산점도 있습니다.
+3. **경쟁률 및 평균 등급**:
+   - 2024학년도 최종등록자에서의 경쟁률은 15:1입니다 (지원 인원 146명, 모집인원 9명).
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이며, 표준 편차는 9.08입니다.
+   - 영어 등급의 평균은 3.30이며, 표준 편차는 0.82입니다.
+4. **전형요소 반영비율**:
+   - 수능: 100%
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 점수를 받는 것이 유리할 것으로 보입니다:
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합**: 340~350점 정도
+- **영어 등급**: 최소 B등급 이상
+이러한 점수는 경쟁률과 평균 점수가 고려되었을 때 추정치이며, 실제 지원 결과는 다양한 요인에 따라 달라질 수 있습니다. 따라서 정확한 예측은 불가능하며, 개인의 실력과 준비 상태를 고려하여 목표 점수를 설정하는 것이 중요합니다.
+추가적으로, 입학사정관 면접 등 다른 평가 요소도 중요한 역할을 하므로, 전반적인 학업 성적과 활동 경력을 잘 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 잘 반영하고 있으며, 서류 평가와 면접 점수의 중요성을 강조하고 있습니다. 그러나 원문에서 언급된 "학생부 교과성적"에 대한 언급이 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 서류 평가와 면접 점수의 중요성을 설명하고 있습니다. 다만, 원문에서 명시된 "학생부 교과성적"에 대한 언급이 없어서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주제와 관련된 내용을 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 따라서 일관성 점수는 5로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 원문에서 언급된 "학생부 교과성적"에 대한 정보가 누락되어 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 수행되고 있지만, 일부 정보의 누락으로 인해 완벽하지 않으므로 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.6873207479057337</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히, 서류 평가는 공동체역량, 학업역량, 전공적합성 등 다양한 영역에서 평가되며, 세특 내용이 중요한 역할을 합니다.
+1. **면접 점수**: 면접에서는 지원동기와 학업계획, 학업역량, 전공적합성에 대한 질문들이 제시됩니다. 답변의 정확성과 논리성이 중요합니다.
+2. **서류 평가**: 서류 평가는 다음과 같은 내용을 중심으로 이루어집니다.
+   - **공동체역량**: 협업능력, 나눔과 배려 등 공동체 활동에 대한 기록이 필요합니다.
+   - **학업역량**: 학업태도와 성취정도, 수업시간의 적극적 참여 등을 보여주는 내용이 중요합니다.
+   - **전공적합성**: 지원 전공(계열)과 관련된 활동 경험, 학업의지 등이 필요합니다.
+**서류 준비 시 주의사항:**
+- **진실성**: 서류에 기재한 내용은 반드시 진실적이어야 합니다. 허위사실을 기재하면 부정적 결과를 초래할 수 있습니다.
+- **상세한 설명**: 경험과 활동에 대한 세부적인 설명이 필요합니다. 단순히 '참여했다'는 것보다 구체적인 활동 내용과 그 결과를 설명하는 것이 좋습니다.
+**추천 준비 방법:**
+1. **활동 기록 정리**: 학교생활기록부와 동아리 활동, 진로 탐색 활동 등에 참여한 경험을 정리합니다.
+2. **성취도 확인**: 수업시간의 적극적 참여와 성과를 확인하고 이를 서류에 반영합니다.
+3. **목표 설정**: 지원 전공(계열)과 관련된 목표와 계획을 명확히 설정하여 서류에 포함시킵니다.
+이러한 준비가 충분하면, 소프트웨어융합학과의 입학 심사에서 좋은 평가를 받을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 4.08의 성적이 평균보다 약간 낮다는 점을 언급하고 있습니다. 그러나 일부 세부사항(예: 평균 점수와 영어 등급의 평균)은 원본 텍스트에 명시되어 있지 않으므로, 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보(예: 모집 인원, 지원 인원 등)는 원본 텍스트와의 일관성을 떨어뜨립니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 동의대학교 소프트웨어공학부에 대한 관련 정보를 포함하고 있습니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되어 전체적인 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, 추가된 정보가 정확한지 여부는 확인할 수 없습니다. 따라서 높은 정확성을 유지하지만 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의도와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다. 따라서 명확성과 이해 가능성에서 높은 점수를 받습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.7426096876037415</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 ICT융합공과대학 소프트웨어공학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+- **모집인원**: 30명
+- **지원 인원**: 146명
+- **경쟁률**: 4.87
+- **충원 합격 (후보순위)**: 63명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 330.11
+- **영어 등급의 평균**: 3.30
+이 정보를 바탕으로, 정시 성적이 4.08인 경우 다음과 같은 점들을 고려해야 합니다:
+1. **경쟁률과 모집 인원**:
+   - 경쟁률이 4.87이며, 모집 인원은 30명입니다.
+   - 이는 매우 높은 경쟁률을 보여주며, 충원 합격자 수가 63명으로 많은 지원자가 선발될 가능성이 있습니다.
+2. **평균 점수**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+   - 이는 지원자의 성적이 상당히 높은 편임을 나타냅니다.
+3. **성적 차이**:
+   - 정시 성적이 4.08인 경우, 평균 점수(330.11)보다 약간 낮습니다.
+   - 그러나 경쟁률이 매우 높고 모집 인원이 적기 때문에, 이 정도의 성적만으로는 충분히 합격할 수 있는 보장은 없습니다.
+4. **전반적인 입학 가능성**:
+   - 4.08이라는 점수는 상당히 좋은 성적이지만, 경쟁률과 모집 인원을 고려하면 여전히 높은 도전이 될 것입니다.
+   - 다른 지원자들 중에서도 동일한 수준의 성적을 가진 학생들이 많기 때문에, 충분히 가능하지만 확실하게 합격할 수 있는 보장은 없습니다.
+결론적으로, 정시 성적이 4.08인 경우 소프트웨어공학부에 최초합격하는 것은 매우 어렵지만, 여전히 가능성이 있습니다. 지원자는 다른 경쟁력을 갖추고 있어야 하며, 면접 등 추가 평가에서도 좋은 결과를 얻어야 합니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참고하시거나 관계자에게 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 모집 인원과 지원 인원에 대한 구체적인 수치를 제공하고 있지만, 이러한 정보는 원본 텍스트에 포함되어 있지 않습니다. 또한, 합격 가능성에 대한 주장은 원본 텍스트의 내용과 일치하지 않으며, 사실에 기반하지 않은 추정으로 보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보(모집 인원, 지원 인원 등)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 합격 등급 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 통계를 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트에서 제공되지 않은 정보에 기반하여 작성되었습니다. 따라서 관련성은 높지만, 원본 텍스트의 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 통계와 조치를 제시하고 있지만, 정보의 흐름이 다소 불연속적입니다. 통계와 조치가 연결되지 않아 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(모집 인원, 지원 인원 등)를 포함하고 있으며, 이는 정확성에 큰 영향을 미칩니다. 원본 텍스트에서 제공된 정보와는 다른 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 원본 텍스트와의 관계가 약해 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 원본 텍스트의 맥락과 일치하지 않기 때문에 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언과 통계를 제공하고 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.5757757750859489</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프정시모집군에서 소프트웨어융합학과의 모집인원은 7명이며, 지원 인원이 146명으로 매우 높은 경쟁률을 보이고 있습니다. 평균 등급이 5등급으로는 충분히 합격 가능성이 낮아 보입니다.
+특히, 최종등록자와 최초합격자의 통계를 보면:
+- **최종등록자**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이며, 영어 등급의 평균은 3.77입니다.
+- **최초합격자**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이며, 영어 등급의 평균은 3.30입니다.
+이러한 통계를 바탕으로 5등급을 기준으로 하면 경쟁률이 매우 높고, 합격 가능성은 낮아 보입니다. 하지만 최종적으로 결정되는 것은 개인의 성적과 입학사정관의 평가 등 다양한 요소에 따라 달라질 수 있으므로, 정확한 판단을 위해서는 본인의 실력과 경쟁자들의 실력을 꼼꼼히 분석하는 것이 중요합니다.
+추천되는 조치:
+1. **개별 지원 전략**: 개인의 강점과 취약점을 파악하여 최적화된 지원 전략을 세우세요.
+2. **추가 학습**: 부족한 영역에 대한 추가 학습을 통해 성적을 향상시키는 것이 좋습니다.
+3. **면접 준비**: 면접에서도 좋은 평가를 받기 위해 충분히 준비하세요.
+입학사정관의 판단은 개인적인 요소도 고려하므로, 최선을 다해 지원하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 4.28이라는 성적이 신소재공학과의 평균 등급보다 높다고 판단했으나, 생성된 응답은 진학이 어렵다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 합격 가능성이 높다고 언급했지만, 생성된 응답은 반대의 주장을 하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 결론과는 다르게 해석하고 있습니다. 경쟁률, 성적 분포 등의 추가 정보를 제공하여 관련성을 높였으나, 원본의 핵심 메시지와는 다릅니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 이유를 제시하고 있지만, 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 결론과 상충하는 내용이 포함되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 주장을 하고 있어 정확성이 낮습니다. 원본의 성적 판단과는 반대의 결론을 내리고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 원본 텍스트와의 일관성이 부족하고, 사실과도 상충하여 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석하고 있으며, 원본의 맥락을 벗어난 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5948672047198884</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 진학하기는 어렵다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 신소재공학과는 모집인원이 적지만 지원자가 많아 경쟁률이 높습니다. 예를 들어, 2024년도 모집에서 신소재공학과의 모집 인원은 56명이고 지원자는 81명으로, 경쟁률은 약 1.45입니다.
+2. **성적 분포**: 제공된 데이터에 따르면, 신소재공학과의 지원자의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 378.15이고 표준 편차는 21.81입니다. 이는 4.28이라는 성적보다 높습니다.
+3. **등급 분포**: 수능 영역별 등급의 평균도 상대적으로 높습니다. 예를 들어, 수능 4개 영역 등급의 평균은 5.78이고 표준 편차는 0.49입니다.
+따라서, 4.28이라는 성적을 가지고 신소재공학과에 진학하기 위해서는 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **추천서나 자기소개서**: 강한 학업 의지와 전공 적합성을 보여줄 수 있는 추천서나 자기소개서를 준비할 수 있습니다.
+2. **면접 준비**: 면접에서도 자신의 열정과 목표를 잘 표현하고, 전공에 대한 깊은 이해도를 보여줄 수 있어야 합니다.
+3. **추가 지원 자격**: 재직자전형이나 평생학습자전형 등 다른 학생부 종합 전형을 고려해볼 수도 있습니다.
+4. **대학별 특성화 프로그램**: 일부 대학에서는 특정 분야에 관심이 있는 학생들을 위해 특별한 프로그램을 운영하고 있을 수 있으므로, 이에 대한 정보를 확인해보세요.
+결론적으로, 4.28이라는 성적만으로는 신소재공학과에 진학하기 어렵지만, 다양한 방법을 통해 지원 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 정보(예: 특정 학과의 요구사항 등)가 포함되어 있어, 원문보다 약간 더 많은 정보를 제공하고 있습니다. 이로 인해 약간의 부정확성이 존재하지만, 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되며, 자기소개서가 필요 없다는 주장을 유지하고 있습니다. 다만, 특정 학과의 요구사항에 대한 언급이 추가되어 있어, 원문과의 일관성에 약간의 차이가 있지만 큰 모순은 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공합니다. 자기소개서의 필요 여부에 대한 명확한 답변과 추가적인 관련 정보가 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 많아져서 약간의 복잡함이 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있으며, 자기소개서의 필요 여부에 대한 사실을 잘 반영하고 있습니다. 그러나 특정 학과의 요구사항에 대한 언급이 원문에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 높은 점수를 받고 있습니다. 그러나 약간의 부정확성과 복잡함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 정보를 제공합니다. 그러나 추가된 정보가 원문과의 의미적 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6904647388719477</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024학년도 수능 일반학생전형에서는 자기소개서 작성은 요구되지 않습니다. 
+주요 특징:
+1. **수능 점수 중심**: 주로 수능 국어, 수학, 영어 등급 및 탐구 과목 점수가 반영됩니다.
+2. **실기/실적 제출 없음**: 디자인조형학과나 체육학과와 같은 실기 전형이 아닌 경우, 자기소개서는 필요하지 않습니다.
+만약 특정 학과가 자기소개서를 요구한다면 해당 학과의 공지사항을 확인해야 합니다. 하지만 일반적으로 인문사회과학대학, 상경대학 등에서 수능 일반학생전형으로 지원할 때는 자기소개서 작성은 필요하지 않습니다.
+자세한 내용은 입학처 홈페이지나 해당 대학의 입학 안내 사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 잘 반영하고 있으며, 합격 가능성을 평가하는 데 필요한 요소들을 언급하고 있습니다. 그러나 일부 세부 사항이 원본 텍스트와 다를 수 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가 모집에 대한 정보와 관련하여 다소 상충하는 내용이 포함되어 있습니다. 예를 들어, 충원 합격에 대한 정보가 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 매우 관련이 깊으며, 수능 점수와 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 흐름이 약간 끊기는 느낌이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 특정 세부 사항에서 정확성이 떨어질 수 있습니다. 예를 들어, 충원 합격에 대한 정보가 다소 모호하게 표현되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.7419108153191932</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 정시 모집에서 수능 점수가 4.5를 받았다면, 충원 합격 (후보순위) 정보와 지원한 단과대학 및 모집단위에 따라 가능성을 판단해야 합니다.
+1. **모집 인원과 지원 인원**: 지원한 단과대학과 모집단위의 모집 인원과 지원 인원을 확인하세요. 예를 들어, 한의예과 수학(확률과통계) 응시자의 경우 모집 인원이 3명이고 지원 인원이 21명이라면 경쟁률은 높아서 충원 합격 가능성은 낮습니다.
+2. **경쟁률**: 지원한 단과대학 및 모집단위의 경쟁률을 확인하세요. 경쟁률이 높다면, 추가모집에서도 충원 합격하기는 어렵습니다.
+3. **충원 합격 (후보순위)**: 지원한 단과대학 및 모집단위에서 충원 합격 (후보순위) 정보를 확인하세요. 만약 해당 모집단위의 충원 합격자 수가 많다면, 후보 순위에 오르기 어렵습니다.
+4. **추가모집**: 추가모집이 열릴 경우, 추가모집에서도 점수가 높은 지원자가 선발될 가능성이 있습니다. 따라서 추가모집을 신청하는 것이 좋습니다.
+5. **성적 분석**: 지원한 단과대학 및 모집단위의 평균 성적과 표준 편차를 확인하여 자신의 성적이 어느 수준인지 판단하세요. 예를 들어, 한의예과 수학(미적분/기하) 응시자의 경우 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균이 396.29이고 표준 편차가 0.68이라면, 자신의 성적이 평균보다 낮다면 추가모집에서도 충원 합격하기는 어렵습니다.
+추가로, 동의대학교 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하여 최신 정보와 추가모집 관련 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 모집 인원, 지원 인원, 경쟁률 등의 정보를 포함하고 있으며, 이는 실제 데이터와 일치하는 것으로 보입니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보(영어 5.06, 수능 5.78)에 대한 언급이 없으므로, 이 부분에서 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 등급에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 경쟁률과 성적 분포에 대한 추정이 포함되어 있지만, 원본 텍스트의 핵심 정보와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 신소재공학과에 대한 질문에 대한 정보를 제공하고 있으며, 관련된 세부 사항을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과에 대한 정확한 정보를 제공하고 있으며, 경쟁률과 성적 분포에 대한 추정도 적절합니다. 그러나 원본 텍스트의 평균 등급 정보가 누락되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 관련된 정보를 잘 반영하고 있습니다. 그러나 평균 등급에 대한 정보가 누락되어 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 세부 사항이 추가적으로 설명되면 더 좋을 것입니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.5978609159067684</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)에 대한 정보를 바탕으로 추론해보겠습니다.
+1. **모집단위와 지원 인원**: 신소재공학과는 모집인원이 56명이며, 지원 인원은 81명입니다.
+2. **경쟁률**: 경쟁률은 1.45입니다 (81 / 56 = 1.446).
+이 정보를 바탕으로 추정해보면:
+- **경쟁률 1.45**는 상대적으로 낮은 수준입니다.
+- 이 경쟁률을 고려할 때, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **271.64**이고, 표준 편차는 **19.52**입니다.
+이러한 경쟁률과 성적 분포를 고려할 때, 대략적으로 300점대 중반에서 320점대 초반까지의 점수면 합격 가능성이 높아 보입니다. 그러나 정확한 등급은 해당년도의 수능 성적 분포와 모집인원, 지원 인원 등을 고려해야 하므로, 최종 결정을 위해서는 동의대학교 입학처 웹사이트나 공식 안내서를 확인하는 것이 가장 정확할 것입니다.
+추천: [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수인 378.15점과 귀하의 점수인 447점을 비교하는 대신, 2023년의 평균 점수인 447.86점을 언급하고 있습니다. 이는 사실과 다르며, 원본 텍스트의 핵심 정보를 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 귀하의 점수가 작년 평균보다 높다고 명확히 언급하고 있지만, 생성된 응답은 귀하의 점수가 작년보다 낮다고 잘못 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 정보에 대한 잘못된 해석이 포함되어 있어 약간의 관련성 저하가 있습니다. 그러나 여전히 신소재공학과의 합격 가능성에 대한 논의는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 고려하는 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해져서 일관된 흐름이 부족합니다. 특히, 점수 비교에 대한 설명이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 작년 평균 점수와 귀하의 점수를 잘못 비교하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 잘못 해석하여 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6577577930660465</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시 최종 등록자 중 신소재공학과의 경우, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균이 447.86점으로 기재되어 있습니다.
+당신이 환산된 표준 점수가 447점이라면, 작년보다 약간 낮은 수치입니다. 하지만 정시 모집에서 최종 등록자들의 성적 분포는 여러 요인에 따라 변동될 수 있으며, 작년과 동일한 경쟁률이나 모집 인원이 아닌 다른 조건들로 인해 가능성이 있습니다.
+따라서 다음과 같은 점들을 고려해야 합니다:
+1. 모집 인원 및 지원 인원의 변화: 작년과 비교했을 때 모집 인원 또는 지원 인원이 달라졌다면, 경쟁률이 변동될 수 있습니다.
+2. 입학사정관 심사 결과: 서류평가와 면접 평가에서의 성적 차이가 있을 수 있습니다.
+3. 학생들의 성적 분포 변화: 작년과 비교했을 때 전체 지원자의 성적이 달라졌다면, 표준 점수가 변동될 수 있습니다.
+결론적으로, 작년보다 약간 낮은 447점으로 환산되더라도 가능성이 있지만 확실한 것은 아닙니다. 동의대학교 입학사정관들의 평가 결과와 전체 지원자의 성적 분포에 따라 결정될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.3 등급의 성적이 4.1~4.2로 변환된다고 언급하고 있지만, 원본 텍스트에서는 4.1~4.2 등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 다소 높은 편이라고 설명하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 4.1~4.2 등급대의 성적이 합격 가능성이 높다고 언급하는 반면, 생성된 응답은 4.3 등급의 성적이 합격 가능성이 낮다고 주장하고 있습니다. 이로 인해 두 응답 간에 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 신소재공학부에 대한 정보를 제공하고 있으며, 지원 가능성에 대한 논의도 포함되어 있습니다. 그러나 원본 텍스트의 주요 포인트와는 다소 다른 방향으로 진행되고 있어 완전한 관련성은 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 성적 변환과 관련된 부분에서 원본 텍스트의 내용과의 연결이 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 성적 변환에 대한 설명이 원본 텍스트의 내용과 상충하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 복잡하게 표현되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.667193437762149</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환되면, 동의대학교의 신소재공학과에 지원할 때 합격 가능성은 낮지만 아직 불가능한 것은 아닙니다. 동의대학교의 수능 전형성적 산출방법을 확인해 보겠습니다:
+- **수능 전형성적 산출방법**:
+  - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이 방법에 따라, 성적이 4.1~4.2로 변환되면:
+- **국어**: 대략 90점대
+- **수학**: 대략 85점대
+- **영어**: 4등급 (대략 115점)
+- **탐구**: 대략 30점
+이 점수들을 합산하면, 총점은 약 290~300점 정도가 됩니다. 
+신소재공학과의 모집인원을 확인해보면:
+- **모집단위**: 공과대학
+- **계열**: 공학
+- **모집인원**: 최대선발 가능인원 4 이내
+이러한 점수로 지원하면, 경쟁률이 매우 높은 상황에서 합격하기는 어렵지만, 아직 가능성은 있습니다. 
+**추천 사항:**
+1. **추가 지원 자료 준비**: 서류평가 영역을 강화하여 평가를 받을 수 있도록 합니다.
+2. **면접 준비**: 면접에서도 좋은 성적을 보여줄 수 있도록 준비합니다.
+3. **교사 추천서 및 자기소개서 작성**: 교사 추천서와 자기소개서에서 자신의 장점을 잘 표현할 수 있도록 합니다.
+결국, 최종 합격 여부는 여러 요인에 따라 결정되므로, 추가 지원 자료와 면접 준비를 철저히 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 최초합격자의 성적에 대한 정보는 정확하게 반영하고 있지만, 최종등록자의 성적에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 최초합격자 성적에 대한 정보는 일치하지만, 최종등록자 성적에 대한 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으나, 최종등록자 성적에 대한 정보는 원본 텍스트와 관련이 없으므로 약간의 관련성이 떨어진다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 최종등록자 성적에 대한 정보가 추가되면서 약간의 흐름이 끊기는 느낌이 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 최초합격자 성적에 대한 정보는 정확하지만, 최종등록자 성적에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답의 질이 높지만, 사실성과 일관성에서 약간의 문제가 있어 점수가 다소 낮아졌다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 최종등록자 성적에 대한 정보는 부적절하다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7003551190903934</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최초합격자와 최종등록자의 성적을 요약하면 다음과 같습니다:
+- **최초합격자**:
+  - 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 301.87
+  - 영어 등급 평균: 4.13
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 415.80
+- **최종등록자**:
+  - 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 293.11
+  - 영어 등급 평균: 4.53
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 403.85
+이 성적은 2024년도에 해당하므로, 현재의 성적이 이를 충족하는지 확인하기 위해서는 최근의 성적을 가지고 있어야 합니다. 또한 수능 성적 외에도 면접 등 다른 평가 요소들도 고려됩니다.
+만약 현재 성적이 이보다 낮다면, 추가 학습과 준비가 필요할 수 있습니다. 동의대학교의 공식 웹사이트나 입학처에 문의하여 최신 정보와 지원 방법을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 논의하고 있지만, 구체적인 학과의 평균 성적과 경쟁률에 대한 정보가 부족하여 정확한 사실을 반영하지 못하고 있다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 정보와 일부분 일치하지만, 구체적인 학과와 성적에 대한 정보가 누락되어 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 응답은 주제와 관련이 있지만, 원본 텍스트에서 제공된 구체적인 학과 정보와 성적에 대한 분석이 부족하여 다소 관련성이 떨어진다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 각 점이 명확하게 제시되어 있다.
+6. Accuracy Score (1-5): 3
+   - 응답에서 제시된 정보는 일부 정확하지만, 원본 텍스트의 구체적인 데이터와 비교했을 때 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이고 있으나, 구체적인 데이터의 부족으로 인해 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답의 의미는 적절하지만, 원본 텍스트의 맥락을 완전히 반영하지 못하고 있다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6470543185034748</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 성적이 어느 학과에 지원할지, 그리고 해당 학과의 모집인원과 경쟁률 등을 고려해야 정확한 답변을 드릴 수 있습니다.
+현재 제공된 정보를 바탕으로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 성적 평균**: 
+   - 대부분의 단과대학에서 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 300-450 사이입니다.
+   - 예를 들어, 외식경영학과는 평균이 261.30이고, 한의예과(수학&lt;미적분/기하&gt;)는 평균이 399.33입니다.
+2. **경쟁률**:
+   - 경쟁률은 매우 중요한 요소로, 경쟁률이 높은 학과에서는 낮은 점수가 충분히 합격하기 어렵습니다.
+   - 예를 들어, 외식경영학과는 4.83의 경쟁률을 보이고 있습니다.
+3. **개인 성적**:
+   - 5.27이라는 수능 성적은 상당히 높은 점수입니다. 이 점수로는 많은 학과에서 충분한 경쟁력을 갖추고 있을 것입니다.
+4. **학과 선택**:
+   - 수능 성적이 높다면, 경쟁률이 낮은 학과를 우선적으로 고려해볼 만합니다.
+5. **전형별 차이**:
+   - 일반학생전형, 평생학습자전형 등 다양한 전형이 있으므로, 지원할 전형을 정확히 알 필요가 있습니다.
+추천 사항:
+1. **경쟁률이 낮은 학과**: 
+   - 예를 들어, 외식경영학과(4.83 경쟁률)나 식품영양학과(2.17 경쟁률) 등에서 충분한 가능성 있을 수 있습니다.
+2. **수능 성적 평균이 낮은 학과**:
+   - 예를 들어, 외식경영학과(평균 261.30), 식품영양학과(평균 256.84) 등에서 충분한 가능성 있을 수 있습니다.
+추가 정보를 제공해주시면 더 정확한 답변을 드릴 수 있습니다. 필요하다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어공학부의 성적 기준에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 3.77, 수능 4개 영역 4.49)과 비교할 때 4.2라는 성적이 합격 가능성이 높다는 원본의 주장을 반영하지 않고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.2라는 성적이 상대적으로 낮다고 언급하여 원본의 긍정적인 해석과 상충합니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어공학부에 지원하기 위한 성적 기준과 관련된 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 주제인 합격 가능성에 대한 직접적인 언급이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 4.2라는 성적이 합격 가능성이 높다는 원본의 주장을 반영하지 않기 때문에 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 종합적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용이 원본의 주장을 반영하지 않아 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장이 길어질 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.6668533155952148</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 소프트웨어공학부에 지원하려면, 정시 모집군과 성적이 중요한 요소가 됩니다.
+1. **정시모집군**: 
+   - 소프트웨어공학부는 주로 가군이나 나군으로 모집됩니다.
+   - 가군의 경우, 수능 반영비율이 25%이고, 나머지 75%는 학생부 교과성적입니다.
+   - 나군의 경우, 수능 반영비율이 60%이며, 나머지 40%는 학생부 교과성적입니다.
+2. **성적**: 
+   - 동의대학교 소프트웨어공학부의 성적 기준을 보면, 정시모집군별로 다음과 같습니다:
+     - 가군: 수능 반영비율이 25%이므로, 수능 점수가 중요하지만 학생부 교과성적이 더 큰 비중을 차지합니다.
+     - 나군: 수능 반영비율이 60%이므로, 수능 성적은 매우 중요합니다.
+3. **성적 평균**: 
+   - 동의대학교 소프트웨어공학부의 정시모집군별 성적 평균을 보면:
+     - 가군: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다.
+     - 나군: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+4. **성적 비교**:
+   - 동의대학교 소프트웨어공학부의 정시모집군별 성적 평균을 고려할 때, 4.2는 상대적으로 낮은 점수로 보입니다.
+   - 가군에서는 317.87보다 낮고, 나군에서는 330.11보다도 낮습니다.
+5. **학생부 교과성적**:
+   - 동의대학교는 학생부 교과성적이 중요하므로, 4.2라는 성적은 학생부 교과성적을 매우 높게 유지해야 합니다.
+   - 특히, 국어, 수학, 영어 등 주요 과목에서 높은 점수를 받는 것이 필요합니다.
+6. **추천**:
+   - 4.2라는 성적만으로 소프트웨어공학부에 확실하게 합격하기는 어렵습니다.
+   - 그러나, 학생부 교과성적이 매우 높다면 (예: 국어 90점 이상, 수학 85점 이상 등) 일부 경쟁률이 낮은 모집단위에서는 가능성이 있을 수 있습니다.
+결론적으로, 4.2라는 성적만으로는 소프트웨어공학부에 확실하게 합격하기 어렵지만, 학생부 교과성적이 매우 높다면 일부 경쟁률이 낮은 모집단위에서는 가능성이 있을 수 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하거나 전화로 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 3.92 등급이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 구체적인 수치나 데이터에 대한 언급이 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 추가적인 요소를 고려해야 한다고 언급하면서 원본의 간단한 결론과는 다소 상충하는 부분이 있습니다. 
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 화학환경공학부의 일반학생전형에 지원 가능성에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있지만, 구체적인 수치나 데이터에 대한 언급이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 부분에서 더 명확한 표현이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.7065510708902516</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>3.92 등급으로 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 일반학생전형에 지원 가능한지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집인원 및 경쟁률**: 해당 학과의 정원 내 모집 인원과 지원 인원을 확인해야 합니다. 예를 들어, 특정 학과가 30명을 모집하고 200명이 지원한다면 경쟁률은 매우 높을 것입니다.
+2. **성적 평균 및 표준편차**: 제공된 데이터에서 해당 학과의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균과 표준 편차를 확인해야 합니다. 이 정보는 3.92 등급이 얼마나 높은지 판단하는 데 도움이 됩니다.
+3. **등급별 점수**: 제공된 데이터에서 영어 등급의 평균 및 표준 편차, 수능 4개 영역 등급의 평균 및 표준 편차를 확인해야 합니다. 이 정보는 전체 성적 분포와 비교하여 3.92 등급이 어느 위치에 있는지 판단하는 데 도움이 됩니다.
+4. **전형별 모집인원**: 해당 학과의 정시모집군(가, 나, 다) 및 각 전형별 모집 인원을 확인해야 합니다.
+5. **성적 산출방법**: 성적 산출 방식에 따라 3.92 등급이 어느 영역에서 얼마나 반영되는지 확인해야 합니다.
+### 예시 분석
+1. **화학공학과**:
+   - 정원 내 모집 인원: 62명
+   - 지원 인원: 43명 (경쟁률은 낮음)
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 510.87
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 34.69
+2. **환경공학과**:
+   - 정원 내 모집 인원: 36명
+   - 지원 인원: 29명 (경쟁률은 낮음)
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 481.70
+   - 국어 + 수_mathematical_expression_ + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 6.87
+3. **응용화학과**:
+   - 정원 내 모집 인원: 31명
+   - 지원 인원: 0명 (경쟁률은 매우 낮음)
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 475.86
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 13.09
+### 결론
+- **화학공학과**: 평균이 510.87이고 표준 편차가 34.69인 경우, 3.92 등급은 상대적으로 높은 점수로 보입니다.
+- **환경공학과**: 평균이 481.70이고 표준 편차가 6.87인 경우, 3.92 등급도 상대적으로 높은 점수로 보입니다.
+- **응용화학과**: 지원 인원이 없으므로 경쟁률이 매우 낮습니다.
+따라서, 3.92 등급으로 화학환경공학부의 일반학생전형에 지원 가능할 것으로 보입니다. 그러나 최종 결정은 해당 학과의 정확한 모집인원 및 지원 인원을 확인하여 경쟁률을 판단해야 합니다.
+추가 정보를 제공해 주시면 더 구체적인 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 정보가 아닌 동국대학교 화학환경공학과에 대한 정보를 제공하고 있습니다. 이는 사실과 일치하지 않으며, 성적 평균 및 경쟁률에 대한 정보도 정확하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 동의대학교에 대한 정보를 제공하는 반면, 생성된 응답은 동국대학교에 대한 정보를 다루고 있습니다. 이로 인해 정보의 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 동국대학교에 대한 정보로 전환되면서 원본의 핵심 내용을 벗어나게 되었습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 동국대학교에 대한 언급은 원본의 내용과 전혀 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 이는 의미적으로 부적절한 결과를 초래합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉬운 편입니다. 그러나 내용의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6284346202568037</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024년 동국대학교 화학환경공학과에 지원하시려면, 수능(일반학생전형)을 통해 지원할 수 있습니다. 하지만 정시모집에서 성적 4.25를 받으셨다면, 일반학생전형에서도 유리한 입지는 어렵지 않을 것입니다.
+수능(일반학생전형)의 경우 다음과 같은 점들을 고려해야 합니다:
+1. 모집단위와 지원 인원: 화학공학과, 환경공학과, 응용화학과 중에서 선택 가능합니다.
+2. 경쟁률: 1.21~3.72 사이로 비교적 낮은 편입니다.
+3. 성적 평균 및 표준편차:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 269.13~429.96
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 377.52~538.33
+당신의 성적 4.25는 이 범위 내에 들어갑니다만, 경쟁률과 지원 인원 등을 고려하면 조금 높은 편입니다.
+추천 사항:
+1. 다른 모집단위(예: 환경공학과)도 함께 지원해보세요.
+2. 실기/실적 전형을 고려해볼 수 있습니다.
+3. 학생부 종합전형 등 다른 전형을 검토해보세요.
+결론적으로, 가능하지만 경쟁이 치열할 수 있으므로 다양한 전형을 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4.2의 수능 성적이 좋은 점수라는 점과 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 경쟁률, 모집인원, 지원자 수에 대한 정보는 원본 텍스트에 명시되어 있지 않으며, 이러한 정보는 사실이 아닐 수 있습니다. 따라서 일부 사실에 대한 정확성이 떨어지므로 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 모집인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 일관성이 떨어집니다. 따라서 3점을 부여합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 매우 관련성이 높습니다. 4.2의 성적에 대한 평가와 합격 가능성에 대한 논의는 원본 텍스트의 주제와 잘 연결되어 있습니다. 따라서 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있으므로 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 경쟁률과 모집인원에 대한 정보가 추가되면서 약간의 혼란이 생길 수 있으므로 4점을 부여합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답에서 제공된 경쟁률, 모집인원, 지원자 수에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성이 떨어집니다. 따라서 3점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 정보의 정확성 문제로 인해 완벽하지는 않습니다. 따라서 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으나, 추가된 정보가 원본 텍스트와 일치하지 않으므로 약간의 부적절함이 있습니다. 따라서 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 정보가 추가되면서 약간의 혼란을 초래할 수 있습니다. 따라서 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6593019172012982</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2의 수능 등급은 상당히 좋은 점수입니다. 하지만 영화학과의 경쟁률과 모집인원, 그리고 다른 지원자의 수능 성적을 고려해야 합니다.
+1. **경쟁률**: 영화학과의 경쟁률이 2.20으로 비교적 낮습니다.
+2. **모집인원**: 5명입니다.
+3. **지원자 수**: 11명입니다.
+4.2 등급은 평균 이상의 성적이므로, 이 점수로 합격 가능성은 높아 보입니다. 하지만 다른 지원자의 성적과 서류평가 결과를 고려해야 합니다.
+**추천 사항:**
+- **서류 준비**: 서류평가에서 좋은 점수를 받을 수 있도록 충분히 준비하세요.
+- **면접 준비**: 면접에서도 좋은 평가를 받기 위해 미리 준비해 두세요.
+- **추천서**: 가능하다면 선생님이나 관련 전문가의 추천서도 받아보세요.
+전반적으로 4.2 등급은 좋은 성적이라 합격 가능성은 높습니다. 하지만 최종 결정은 입학사정관들의 평가에 따라 달라질 수 있으므로, 최선을 다해 준비하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 내용도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 단계가 동일하게 유지되고 있습니다. 추가된 내용도 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 면접 절차에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 내용도 사실에 부합합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 사실성, 일관성, 관련성, 정확성 모두 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.8485530633993609</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 형태에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/deuChatbot/research_result/version_2(2500_500).xlsx
+++ b/deuChatbot/research_result/version_2(2500_500).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20867,6 +20867,6818 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명된 내용은 전반적으로 정확하지만, 일부 세부사항이 누락되어 있습니다. 예를 들어, 각 실기종목의 배점과 시험시간에 대한 정보가 포함되지 않았습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있으나, 일부 세부사항이 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 문장은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 정보는 대체로 정확하지만, 일부 세부사항이 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 좋은 품질을 가지고 있으나, 일부 세부사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다.
+9. Understandability Score (1-5): 5
+   - 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8527290951735651</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘며, 각 분야에서 기초디자인 또는 사고의 전환 중 하나를 선택하여 준비해야 합니다. 
+기본적으로는 다음과 같은 절차가 있습니다:
+1. **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+2. **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울' 또는 '콜라병과 계절' 등이 있습니다.
+3. **화지크기 및 시간**: 화지 크기는 켄트지 3절이며, 시험은 5시간 동안 진행됩니다.
+4. **규칙**: 제공된 사물과 이미지 이외의 형상은 표현하지 마세요. 제공된 사물은 모두 1회 이상 표현해야 하며, 색상 변경도 금지되어 있습니다.
+이와 같이 디자인조형학과의 실기시험은 창의성과 표현 능력을 평가하는 중요한 부분입니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각각의 종목별 배점 비율은 70%입니다."라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 배점 비율에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 배점 비율에 대한 정보가 없으므로, 이로 인해 일관성이 약간 저하되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 내용을 모두 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 연결이 어색할 수 있는 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 원본에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율의 추가로 인해 의미의 적절성이 약간 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 연결이 어색할 수 있어 완벽한 이해 가능성에는 미치지 못합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.804024725470965</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환으로 나뉘며, 각각의 종목별 배점 비율은 70%입니다.
+기초디자인의 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울을 제시하며, 화지크기는 켄트지3절이며, 시간은 5시간입니다.
+사고의 전환의 준비물 역시 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 콜라병과 계절을 제시하며, 화지크기는 켄트지2절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9143710108962284</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회가 있습니다.
+배드민턴(남)의 경우:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회 
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (주니어국제대회)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 경기실적이 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기초디자인 실기시험의 주제와 추첨 방식에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "시각디자인, 산업디자인, 공예디자인"이라는 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 추첨 방식을 일관되게 설명하고 있지만, 추가된 디자인 분야에 대한 언급이 원본과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 기초디자인 실기시험에 대한 정보를 직접적으로 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제와 관련된 정보가 명확하게 연결되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 디자인 분야에 대한 언급이 사실과 일치하지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 맥락을 약간 벗어나는 경향이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8170592602717539</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시각디자인, 산업디자인, 공예디자인의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 작성해야 합니다. 디자인조형학과의 기초디자인 실기시험에 사용되는 주제들은 다음과 같습니다.
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+각 주제는 당일 추첨을 통해 선정되며, 선정된 주제들을 연결하여 작품을 완성해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있지만, "출결 점수의 반영 비율은 0%입니다."라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 정보인 "출결 점수의 반영 비율은 0%입니다."는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 점수의 반영 여부에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, "출결 점수의 반영 비율은 0%입니다." 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다. 그러나 추가된 정보가 원본과의 일관성을 해치므로 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 주장은 정확하지만, 추가된 비율 정보는 원본에 명시되어 있지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 추가된 정보로 인해 일부 차질이 발생했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 추가된 정보가 맥락에 맞지 않게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7596081405064592</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 출결 점수의 반영 비율은 0%입니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원과 전형에 대한 정보를 정확하게 반영하고 있습니다. "17명"이라는 숫자와 "가군 일반학생 전형"이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보가 서로 충돌하지 않습니다. 모든 세부 사항이 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조가 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다. 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9277287345780394</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 다군 일반학생 전형을 통해 선발된다는 사실도 반영하고 있습니다. 그러나 "교직"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있지만, "교직"이라는 추가 정보로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트에는 이 정보가 포함되어 있지 않기 때문에 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 모집 인원과 전형에 대해 직접적으로 언급하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 "교직"이라는 추가 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5):
+   - 점수: 4
+   - 설명: 모집 인원과 전형에 대한 정보는 정확하지만, "교직"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, "교직"이라는 추가 정보로 인해 의미가 약간 왜곡될 수 있습니다.
+9. Understandability Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, "교직"이라는 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6813654015724979</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과는 다군 수능(일반학생전형)으로 모집하며, 해당 모집단위 및 모집인원에서 인문사회과학대학, 영어영문학과 - 교직으로 28명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8295057213993543</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반학생 전형의 모집인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 모순되지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8831013575727322</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급이 1일 경우 점수는 139입니다.
+- 등급이 2일 경우 점수는 131입니다.
+- 등급이 3일 경우 점수는 123입니다.
+- 등급이 4일 경우 점수는 115입니다.
+- 등급이 5일 경우 점수는 107입니다.
+- 등급이 6일 경우 점수는 99입니다.
+- 등급이 7일 경우 점수는 91입니다.
+- 등급이 8일 경우 점수는 83입니다.
+- 등급이 9일 경우 점수는 75입니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있는데, 생성된 응답은 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 예술고 학생의 지원 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 상반된 내용으로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 큰 문제를 가지고 있지만, 관련성 및 유창성에서 어느 정도 점수를 받을 수 있습니다. 그러나 전반적으로 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6737469857238245</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 하지만 특성화고 교육과정 또는 1년 이상의 직업교육훈련 과정을 이수한 경우에 한해 해당됩니다.
+따라서, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하려면, 특성화고 교육과정 또는 1년 이상의 직업교육훈련 과정을 이수한 경우에만 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 거리가 268~271cm"라는 정보는 원본 텍스트에 명시된 내용과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. "남은 거리"라는 표현은 원본 텍스트에 없으며, 이는 응답의 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공하고 있습니다. 그러나 잘못된 정보가 포함되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 "남은 거리"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약간 방해받고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 방해받고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8760502555925737</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 거리가 268~271cm, 여는 거리가 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 "실기/실적(경기실적우수자전형)"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, "실기/실적"이라는 추가 정보가 원본 텍스트와 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "실기/실적" 부분이 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율이 12%라는 정보는 정확하지만, 추가된 정보가 원본 텍스트에 포함되어 있지 않아 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 정보의 추가로 인해 약간의 일관성과 정확성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6917366352000727</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서는 출결이 실기/실적(경기실적우수자전형)에서의 반영비율로 12%를 차지합니다.
+출결은 학생부교과성적 반영방법 중 하나로, 전체 반영비율의 일부입니다. 상세한 정보는 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하시면 더 정확한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 디자인조형학과의 모집단위와 실기종목에 대한 설명이 포함되어 있어, 전반적으로 정확한 사실을 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 내용도 원본의 맥락을 잘 유지하고 있어 일관성이 높습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊습니다. 실기고사 일정 외에도 디자인조형학과의 세부 정보가 포함되어 있어, 주제와 관련된 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있습니다. 문장 구조와 표현이 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 모든 정보가 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4069716086111372</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목은 기초디자인과 사고의 전환이 있습니다. 각 종목별 배점 비율은 700점(70%)입니다.
+따라서 디자인조형학과의 실기고사는 2024년 1월 17일 수요일에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 사실을 정확히 반영하지 않고 있습니다. 응답은 수능 최저기준을 확인할 수 없다고 언급하지만, 이는 사실과 다릅니다. 수능 최저기준이 없다는 명확한 정보를 제공하지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 수능 최저기준이 없다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용으로 해석될 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 응용화학과의 수능 최저기준에 대한 질문에 관련된 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용을 놓치고 있습니다. 그러나 관련 웹사이트를 언급하여 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 핵심 내용을 반영하지 않아 일관성이 떨어집니다. 응답이 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 않으며, 수능 최저기준이 없다는 정보를 누락하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 핵심 내용을 반영하지 않아 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4361358389085618</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교의 2024학년도 응용화학과에 대한 수능 최저기준을 확인할 수 없습니다. 해당 정보에는 응용화학과와 관련된 데이터가 포함되어 있지 않습니다. 다른 전공이나 학과의 정보만이 제공되어 있습니다.
+더 자세한 정보를 얻으시려면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시는 것이 좋습니다. 해당 사이트에서 동의대학교 응용화학과의 수능 최저기준을 확인하실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록을 정확하게 반영하고 있으며, 모든 학과가 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7707998225977488</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과, 창업투자경영학과가 있습니다. 또한 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)도 신설되었습니다.
+따라서 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부
+위와 같은 내용을 바탕으로 답변하였습니다. 더 궁금한 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 전형요소 반영비율이 서류 70%와 면접 30%라는 사실이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.9261175816088747</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에서의 전형요소 반영비율은 서류가 70%, 면접이 30%입니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과로 '한의예과'를 언급하고 있으나, 원문에서는 '의료·보건·생활대학', '공과대학', 'ICT융합공과대학'이 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문에서는 특정 학과들에 대해 가산점 적용을 언급하고 있지만, 생성된 응답은 '한의예과'만을 언급하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 질문에 답하고 있으나, 원문에서 언급된 학과들에 대한 정보가 누락되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과에 대한 정보로 시작하지만, 다른 학과에 대한 언급이 부족하여 전체적으로 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 잘못된 사실을 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았으므로, 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7244359777201834</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과입니다. 이는 한의예과에서 수학(미적분/기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여한다는 정보가 있습니다. 다른 학과에서는 일반적으로 수능 성적을 반영하는 방식이지만, 가산점은 한의예과에서만 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과는 다르게, 수능 반영 영역과 비율에 대한 구체적인 내용을 추가하고 있습니다. 그러나 원문에서 언급된 '100% 반영'이라는 핵심 사실이 왜곡되었고, 추가된 정보가 원문과 일치하지 않기 때문에 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 반영 영역과 비율에 대한 세부사항을 제공하면서도 원문의 핵심 내용을 일관되게 전달하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 원문의 핵심 내용인 '100% 반영'이라는 점을 간과하고 있습니다. 그럼에도 불구하고 수능 성적 반영 방법에 대한 추가적인 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있는 부분이 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결성이 부족하여 일관된 흐름이 떨어집니다. 원문의 핵심 메시지와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 '100% 반영'이라는 사실을 왜곡하고 있으며, 반영 영역과 비율에 대한 정보가 원문과 일치하지 않기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과 일치하지 않으며, 사실성, 일관성, 정확성 모두 낮은 점수를 받고 있습니다. 따라서 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련된 정보를 제공하지만, 원문의 핵심 메시지를 왜곡하고 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원문과의 연결이 약해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7749469590279837</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- 모집단위는 전 모집단위입니다.
+- 수능 반영 영역은 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)입니다.
+- 반영 영역별 비율은 각각 25%이며, 상위 3개 영역의 경우는 국어, 수학, 영어에 대해 각각 33.33%를 반영합니다.
+이러한 방식으로 수능 성적을 반영하여 학생들의 종합적인 능력을 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.9128408788063518</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과와 경기지도학과를 제외한 다른 학과들을 언급하고 있으며, 레저스포츠학과와 태권도학과는 원문에 포함되지 않은 잘못된 정보입니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 특히 제외된 학과 목록에서 차이가 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 일부 관련성이 떨어집니다. 그러나 전반적으로 나군 수능 전형에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 전반적으로 일관된 흐름을 가지고 있지만, 잘못된 정보로 인해 논리적 일관성이 약해집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제외된 학과에 대한 정보가 부정확하여 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 내용이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.8117739162490829</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 제외됩니다. 이들 학과는 나군 실기/실적(일반학생전형)에서는 모집되지만, 나군 수능(일반학생전형)에서는 제외된다는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 올바르게 전달하고 있습니다. 추가 정보도 제공하고 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 질문에 직접적으로 답변하고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8074586666131305</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 명시되어 있습니다. 더 자세한 정보를 원하시면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있으나, "디자인공학부"의 분리된 학과가 "디자인조형학과"로 잘못 기재되어 있으며, "모집중지"라는 정보는 원본에 없으므로 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 많지만, 일부 학과의 명칭이 다르게 표현되거나 추가 정보가 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 학과 분리와 관련된 내용을 직접적으로 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 분리 내용을 명확하게 전달하고 있습니다. 그러나 일부 문장 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보를 정확하게 전달하고 있으나, 몇 가지 학과 명칭의 오류가 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 차이가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장 구조가 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.835567102134491</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학부 → 아동학과
+2. 경제금융보험학부 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인조형학과(서양화·한국화·환경조형) → 모집중지
+위와 같이 여러 학과들이 분리되었습니다. 더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있지만, "인터넷"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일치하지만, "인터넷"이라는 표현이 추가되어 있어 약간의 일관성 문제를 나타냅니다. 그러나 전체적인 정보는 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 원서접수 마감일에 대한 질문에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되었고 읽기에도 무리가 없지만, "18시까지"라는 표현이 중복되어 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, "인터넷"이라는 추가 정보가 다소 혼란을 줄 수 있습니다. 전체적으로는 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 마감일에 대한 정확한 정보를 제공하지만, "인터넷"이라는 추가 정보가 원본 텍스트에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보이지만, 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, "인터넷"이라는 추가 정보가 원본 텍스트의 맥락과 완전히 일치하지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 중복된 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.9224503714413117</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수(인터넷)의 마감일은 2024년 1월 6일(토)까지 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 학생부종합(성인학습자전형)의 평가 기준이 변경되었다고 언급하고 있지만, 원본 텍스트에서는 전형 요소 변화에 대한 구체적인 내용이 포함되어 있지 않다. 따라서 사실성이 낮다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 전형 요소 변화에 대한 구체적인 세부 사항이 누락되어 있다. 이로 인해 일관성이 떨어진다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전형 요소 변화에 대한 질문에 답하고 있지만, 원본 텍스트의 구체적인 내용과는 관련이 적다. 따라서 관련성 점수가 중간 정도이다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없다. 따라서 유창성 점수는 높다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관성이 떨어진다. 따라서 일관성 점수는 중간 정도이다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 전형 요소 변화에 대한 정확한 정보를 제공하지 않는다. 따라서 정확성 점수가 낮다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았다. 따라서 전반적인 품질 점수도 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 관련성이 낮아 의미적 적합성 점수는 중간 정도이다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽다. 따라서 이해 가능성 점수는 높다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7166154309886785</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(성인학습자전형)입니다. 이 전형의 서류 평가 영역별 세부 평가 기준에서, 공동체역량, 학업역량, 전공적합성 모두 평가 요소와 평가 기준이 변경되었습니다.
+- **공동체역량**은 '협업능력'으로 변경되었고, 평가 기준도 '공동체 목표를 위한 협력적 태도, 나눔과 배려, 학교폭력 여부'로 바뀌었습니다.
+- **학업역량**은 '학업에 대한 흥미 및 주도적 노력, 수업시간 적극적 참여, 학업에 대한 성취정도, 학년별 성적 추이'로 평가 기준이 변경되었습니다.
+- **전공적합성**은 '지원전공(계열) 관련 활동과 경험, 지원전공(계열) 관련 학업의지, 학교생활의 적극적 참여'로 평가 기준이 바뀌었습니다.
+위와 같이 2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(성인학습자전형)이며, 이 전형에서 평가 영역별 세부 평가 기준이 변경되었습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 올바르게 전달하고 있습니다. 추가적으로 수능 비중에 대한 정보도 포함되어 있어 사실성을 높입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않습니다. 모든 정보가 조화롭게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 실기 비중에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다. 전반적으로 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다. 독자가 쉽게 이해할 수 있도록 잘 정리되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8279753034784155</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 전형요소 반영비율에서 수능이 30%, 실기가 70%로 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: '스마트업창업투자학'이라는 전공명은 '스타트업창업투자학'으로 잘못 표기되어 있습니다. 나머지 전공명은 정확하게 언급되었으나, 이 하나의 오류로 인해 완전한 정확성을 잃었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 전공명에서의 불일치로 인해 일관성이 떨어집니다. '스마트업창업투자학'은 원문에 없는 전공명으로, 이로 인해 전체적인 일관성이 저하되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 세부 전공에 대한 정보를 잘 전달하고 있으며, 관련된 내용을 충실히 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, '스마트업창업투자학'이라는 표현이 원문과 다르기 때문에 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 전공의 목적에 대한 설명도 포함되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공명 중 하나가 잘못 기재되어 있어 정확성에서 약간의 문제가 있지만, 나머지 정보는 정확하게 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 높은 품질을 유지하고 있으나, 전공명 오류로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 원문과 잘 맞아떨어지지만, 전공명 오류로 인해 약간의 부적절함이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하고 이해하기 쉬우나, 전공명 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8223776439626818</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과 중 하나인 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스마트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세부 전공들은 미래 사회에서 요구되는 다양한 분야의 지식과 기술을 학습하고, 실용적인 능력을 키울 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 언급하고 있지만, 원본 텍스트에는 '체육학과'와 '레저스포츠학과'만 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '태권도학과'라는 학과가 추가되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 원본 텍스트와의 불일치가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6295487676730044</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 레저스포츠학과와 태권도학과입니다. 이들 학과는 가군 실기/실적(일반학생전형)으로 모집되며, 실기 평가를 통해 전형이 이루어집니다.
+참고로, 해당 합격자는 2024년 2월 2일 금요일에 발표 및 등록금 납부가 이루어집니다. 자세한 일정은 입학 안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정확한 학과 목록을 제공하지 않고, 기계공학과, 로봇자동화공학과, 자동차공학과와 같은 잘못된 정보를 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 학과 목록을 제시하고 있지만, 생성된 응답은 전혀 다른 학과를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변으로는 관련성이 낮습니다. 원본 텍스트의 핵심 주제와는 다른 학과를 언급하고 있어 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 품질은 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성과 관련성이 떨어져 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5250201985296172</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 적용됩니다. 예를 들어, 기계공학과, 로봇자동화공학과, 자동차공학과 등이 해당될 수 있습니다.
+하지만 정확한 학과 목록을 확인하려면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다. 이 웹사이트에서는 최신 정보와 자세한 전형 안내를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부에서 제공하는 전공을 대부분 정확하게 나열하고 있습니다. 그러나 "스마트업창업투자학"이라는 전공은 원문에 있는 "스타트업창업투자학"과 다르므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "스마트업창업투자학"이라는 전공의 명칭이 다르기 때문에 일관성이 떨어집니다. 또한, 추가로 언급된 미래융합대학의 부동산자산경영학부는 원문에 포함되어 있지 않으므로, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 전공과 관련된 내용을 잘 다루고 있으며, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "스마트업창업투자학"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 추가 정보가 잘 연결되어 있습니다. 그러나 원문과의 차이로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공의 대부분은 정확하게 나열되었으나, "스마트업창업투자학"이라는 잘못된 명칭이 포함되어 있어 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, 전공 명칭의 차이로 인해 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 표현에서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8612139158043325</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스마트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+또한, 이 학부는 신설된 것으로 보입니다. 추가로 미래융합대학의 부동산자산경영학부에서도 관련 분야를 다루고 있으나, 주요 전공은 위에서 언급한 세 가지가 중심입니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 추가적인 조건을 제시하고 있어 원문과의 일치성이 떨어진다. 원문에서는 농어촌학생전형에 대한 조건만 언급되었고, 일반학생전형에 대한 조건은 명확히 제시되지 않았다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 추가 조건을 제시하고 있어 일관성이 부족하다. 원문에서는 일반학생전형에 대한 조건이 명확히 언급되지 않았으므로, 생성된 응답의 내용은 원문과 상충된다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있지만, 추가적인 조건을 제시함으로써 원문의 핵심 내용을 벗어나고 있다. 그러나 여전히 일반학생전형에 대한 질문에 답하고 있으므로 높은 점수를 부여한다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 조건을 나열하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 떨어진다. 원문과의 일관성이 부족하여 전체적인 일관성이 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않는 추가 조건을 포함하고 있어 정확성이 떨어진다. 원문에서 언급되지 않은 조건을 제시함으로써 잘못된 정보를 제공하고 있다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하고, 정확성 또한 떨어지므로 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련이 있지만, 추가적인 조건을 제시함으로써 원문의 맥락에서 벗어나고 있다. 따라서 의미적으로 적절하다고 보기 어렵다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 한국어 사용자에게는 중국어로 작성되어 있어 다소 이해하기 어려울 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6169180159949796</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，根据提供的信息，你可以尝试以一般学生身份申请동의大学的学生部综合招生。但是具体能否申请还需要确认以下几点：
+1. 你的学校是否属于“一般高”、“自立高”、“科学高”、“国际高”或“外语高”。如果是这些类型之一，则可以申请。
+2. 你需要已经完成“특성화고 교육과정”或至少一年以上的“직업교육훈련과정”。
+如果以上条件都满足，那么你就可以尝试申请。但为了确保信息的准确性，请访问以下网站进行确认：“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 레저스포츠학과가 가장 많이 모집한다고 잘못 기술하고 있습니다. 또한 모집 인원도 원문과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원과는 전혀 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 나군 전형에 대한 질문에 답하고 있지만, 제공된 정보가 사실과 다르기 때문에 관련성이 낮습니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 포함되어 있지 않기 때문에 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장 간의 흐름이 자연스럽습니다. 그러나 원문과의 내용 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제에 대한 의미를 전달하고 있으나, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 의미의 적절성 점수는 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5643610491902608</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 레저스포츠학과로, 정원 내 모집 인원이 45명입니다. 이어서 경기지도학과(신설)가 30명을 모집하며, 태권도학과와 패션디자인학과 교직은 각각 35명과 40명을 모집하고 있습니다. 따라서 레저스포츠학과가 가장 많은 인원을 모집하는 학과입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 잘못 설명하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명시되어 있지만, 생성된 응답에서는 일반 고등학교와 자치 고등학교도 지원할 수 있다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서 명확히 지원할 수 없는 학교 유형을 언급했음에도 불구하고, 생성된 응답은 다른 학교 유형을 포함하여 지원 가능성을 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있지만, 원문에서 언급된 특정 조건을 무시하고 있습니다. 그러나 추가적인 정보와 웹사이트 링크를 제공하여 관련성을 높이고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 질문이 주어졌음에도 불구하고 중국어로 응답한 점은 유의해야 합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 정보를 포함하고 있습니다. 지원 자격에 대한 잘못된 해석이 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 그러나 유용한 추가 정보를 제공한 점은 긍정적입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 원문의 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있습니다. 그러나 언어의 불일치로 인해 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.4838923616756291</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你在特教高中，根据提供的信息来看，你不能通过동의大学的学生部课程-农渔村学生选拔类型进行申请。因为该类型的招生资格中明确指出，只有普通高中、自治高中、科学高中、国际高中和外语高中的学生才有资格申请。
+如果你希望了解更多详细信息或确认你的资格状态，建议访问以下网站以获取更多信息：https://ipsi. deu. ac. kr/main. do
+同时，请注意检查你所在地区的具体招生政策和要求，因为这些可能会有所不同。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충하는 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 성적을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순됩니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제공하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였고, 생성된 응답은 그와 반대되는 내용을 담고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 연결이 없기 때문에 일관된 흐름이 부족합니다. 원문과의 관계가 전혀 없기 때문에 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실과 다릅니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 원문의 맥락을 무시하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.5838716175099734</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부의 합격자 평균 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균으로, 317.87입니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공하고 있어 일관성이 없습니다. 원문에서는 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 없으며, 원문이 제공하는 정보와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 정확성과 관련성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 문장 구조는 일관되지만, 원문과의 관계가 명확하지 않아 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 낮은 점수를 받아 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬운 구조로 되어 있으나, 내용의 부적절성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5055434586442002</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 일부 정보를 포함하고 있지만, 원본 텍스트와 비교했을 때 여러 가지 중요한 세부사항이 누락되어 있습니다. 예를 들어, 최초 합격자 등록 날짜와 충원 합격자 발표의 시간 및 방식에 대한 정보가 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 특히, 등록 관련 정보와 발표 시간에 대한 내용이 원본과 상충하며, 이는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있으나, 원본 텍스트의 주요 포인트와는 다소 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 각 항목 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다. 따라서 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 면에서 부정확합니다. 특히, 발표 일정과 등록 방법에 대한 정보가 잘못 기재되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 일부 정보가 잘못 전달되어 의미가 왜곡될 수 있습니다. 따라서 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8707219491153702</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+1. 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 2시에 홈페이지에서 개별 조회 가능합니다.
+2. 최초 합격자 등록 : 2024년 2월 7일 수요일부터 13일 화요일까지 (은행 마감 시간 내) 입금이 가능합니다.
+3. 충원 합격자 1차 발표 및 등록 : 각각 2024년 2월 14일 수요일 오전 9시와 오후 4시에 홈페이지에서 개별 조회가 가능하며, 이날 오후 4시까지 입금이 가능합니다.
+4. 충원 합격자 2차 발표 및 등록 : 각각 2024년 2월 15일 목요일 오전 9시와 오후 4시에 홈페이지에서 개별 조회가 가능하며, 이날 오후 4시까지 입금이 가능합니다.
+5. 충원 합격자 3차 이후 발표 및 등록 : 각각 2024년 2월 15일 목요일 저녁 7시부터 20일 화요일 오후 6시까지 개별 전화 통보를 통해 이루어집니다.
+이상의 일정을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정확한 정보를 제공하지 않고, 대학마다 다르다는 일반적인 설명을 하고 있습니다. 원본 텍스트의 구체적인 날짜(2024. 01. 20.)를 언급하지 않아 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 면접 일정에 대한 구체적인 정보를 제공하지 않고 있습니다. 원본의 정보와 상충하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접 일정에 대한 질문에 대한 답변으로 보이지만, 원본 텍스트의 구체적인 정보를 반영하지 않고 일반적인 조언을 제공하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 읽기 쉬운 문장 구조를 가지고 있지만, 중간에 다른 언어(중국어)가 포함되어 있어 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하며, 원본 텍스트와의 연결이 약합니다. 특히, 중국어 문장이 포함되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 면접 일정에 대한 구체적인 사실을 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하지 않으며, 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 중간에 다른 언어가 포함되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3721928323059335</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사의 일정은 대학마다 다르므로, 정확한 날짜와 시간을 확인하기 위해서는 해당 대학의 입학처 웹사이트를 방문하거나, 입학처에 직접 문의하는 것이 가장 좋습니다. 나군의 경우, 일반적으로 면접일정은 수능日后，我想知道面试时间是什么时候，请问可以在贵站的网站上查到吗？
+</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "한의예과의 최저학력 기준이 없습니다"라는 원문 내용을 왜곡하고 있습니다. 응답에서는 최저학력 기준이 없다는 점을 인정하지 않고, 일반적으로 수능 최저학력 기준이 적용될 것으로 추정한다고 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 최저학력 기준이 없다고 명확히 언급하고 있지만, 응답에서는 이를 부정하고 다른 정보를 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있으나, 원문에서 명시된 내용을 왜곡하여 설명하고 있습니다. 그러나 추가적인 정보 제공은 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결된 내용을 포함하고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원문은 최저학력 기준이 없다고 명시하고 있으나, 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미를 왜곡하고 있어 의미적으로 적절하지 않습니다. 원문이 전달하고자 하는 메시지와 다르게 해석되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5284750179941415</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력기준에 대한 내용이 직접적으로 언급되어 있지 않습니다. 하지만, 전형요소 반영비율에서 "나군 수능(일반학생전형) 한의예과(수학(미적분/기하),수학(확률과 통계))"라는 항목을 확인할 수 있습니다. 이 항목에서는 수능 최저기준이 언급되어 있지 않으므로, 일반적으로 한의예과의 경우 수능 최저학력 기준이 적용될 것으로 추정됩니다.
+더 정확한 정보를 얻기 위해서는 공식 입학 안내 홈페이지 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하시거나, 직접 학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교에 수능 최저학력 기준이 없다는 사실을 무시하고, 일반적인 수능 최저학력 기준에 대한 정보를 제공하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 일치하지 않으며, 동의대학교의 수능 최저학력 기준이 없다는 내용을 반영하지 않고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 수능 최저학력 기준에 대한 일반적인 정보를 제공하지만, 동의대학교에 대한 질문에 대한 직접적인 답변이 아닙니다. 원문과의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 주제를 가지고 있지만, 원문과의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 잘못 전달하고 있으며, 이는 정확성에 큰 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 응답이 원문과 일치하지 않으며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 응답의 내용은 일반적인 정보이지만, 질문의 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 명확하게 작성되어 있어 이해하기 어렵지 않지만, 질문에 대한 적절한 답변이 아니기 때문에 이해의 맥락이 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.527687181958624</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024년도에 대한 정확한 수능 최저학력 기준 정보가 제공되지 않았습니다. 일반적으로 수능 최저학력 기준은 각 대학과 학과별로 다르며, 지원하고자 하는 대학의 홈페이지를 확인하거나 입학처에 문의하는 것이 가장 정확합니다.
+입학공고나 전형일정에서 수능 최저학력 기준을 확인하실 수 있으니, 해당 정보를 찾아보시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 입학공고를 확인하시거나, 직접 학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 1차 충원합격자 발표일인 2024년 2월 14일을 누락하고, 2차 발표일인 2024년 2월 15일만 언급하고 있습니다. 또한, 3차 이후 발표 일정도 포함되어 있지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하지 않으며, 발표일에 대한 정보가 불완전합니다. 원본 텍스트의 모든 발표 일정이 포함되지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 발표 일정과 관련된 추가 정보를 제공하고 있으나, 원본 텍스트의 모든 발표 일정을 포함하지 않아 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정과 관련된 추가 정보가 잘 연결되어 있습니다. 그러나 원본 텍스트의 모든 정보를 포함하지 않아 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 발표 일정에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 중요한 세부사항을 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 발표 일정의 누락으로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 발표 일정의 누락으로 인해 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.7125461160111466</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 2024년 2월 15일(목) 09:00입니다. 이와 관련된 추가 정보는 다음과 같습니다:
+- 발표 방식: 홈페이지에서 개별 조회 가능합니다.
+- 고지서 교부 방법: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+- 등록장소: 학교 지정은행으로 하며, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 입시 일정에 대한 설명으로 대체하고 있습니다. 원본 텍스트의 구체적인 날짜와 시간 정보가 누락되어 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 충원합격자 발표 일정에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 입시 일정에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 핵심 주제인 충원합격자 발표 일정과는 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 주제를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 잘못된 정보가 포함되어 있지 않지만, 필요한 정보가 전혀 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 적절성 때문에 점수가 낮아졌습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4734540116707893</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 관련 일정에 따라 추가합격자 발표 시기는 정해지게 됩니다. 일반적으로 추가합격자는 정시모집 이후에 발표되며, 대체로 1월 중순부터 시작됩니다. 하지만 정확한 날짜는 아직 공고되지 않았습니다.
+입학사정관제의 경우 일정이 상세하게 결정되기 전까지 구체적인 날짜를 알 수 없습니다. 따라서 최신 정보를 얻기 위해서는 대학 홈페이지(https://ipsi. deu.ac.kr/main.do) 또는 입시 관련 공고를 주시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보가 없다고 주장하지만, 원본 텍스트에서는 추가 모집에 대한 명확한 설명이 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 핵심 내용을 제대로 반영하지 못하고 있습니다. 
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성에서 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4042332407361571</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 추가 모집에 대한 내용이 명시되어 있지 않습니다. 추가 모집에 대한 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보의 일부를 포함하고 있지만, 많은 세부사항이 누락되었고, 잘못된 정보가 포함되어 있습니다. 예를 들어, 지원자격에 대한 설명이 원본 텍스트와 일치하지 않으며, 제출서류에 대한 정보도 정확하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 특히, 지원자격과 제출서류에 대한 설명이 원본과 상충하며, 전형의 평가 요소에 대한 정보도 다르게 제시되고 있습니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 주요 내용과 일부 관련이 없거나 부정확한 정보가 포함되어 있습니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적인 흐름이 다소 부족합니다. 정보가 잘 연결되지 않고, 각 항목 간의 관계가 명확하지 않아 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 지원자격과 제출서류에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 많은 문제를 보이고 있으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 일부 정보가 부정확하여 의미적으로 적절하지 않은 부분이 있습니다. 원본 텍스트의 맥락과 다르게 해석될 수 있는 요소가 포함되어 있습니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 일부 정보의 부정확성으로 인해 혼란을 줄 수 있는 부분이 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.7421487532190415</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 나군에서 다양한 지원자를 대상으로 하는 입학전형 중 하나입니다. 이 전형에서는 학생부종합과 면접을 통해 지원자의 학업역량, 전공적합성, 그리고 공동체역량 등을 평가합니다.
+1. **서류평가**:
+   - **평균 등급 평점**: 6년 과정은 고교 졸업증명서와 지원자 본인, 부모 초본을 제출해야 합니다. 12년 과정은 고교 졸업증명서와 지원자 본인 초본만 필요합니다.
+   - **동점자 처리기준**: 동점자가 발생할 경우, 순위 1은 면접고사 성적 상위자를 우선으로 합니다. 순위 2는 서류평가 공동체역량 영역 성적 상위자를 우선으로 하며, 순위 3은 서류평가 전공적합성 영역 성적 상위자를 우선으로 합니다.
+2. **면접평가**:
+   - **평균 등급 평점**: 학업역량 평가는 1등급이 180점, 2등급이 166.5점, 3등급이 153점, 4등급이 139.5점, 5등급이 126점입니다.
+   - **면접평가 영역**: 학업역량과 전공적합성에 대한 질문을 통해 지원자의 학업역량과 전공적합성을 평가합니다.
+3. **지원자격**:
+   - **산업체 적용범위**: 국가·지방자치단체 및 공공단체, 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체, 4대 보험 중 1개 이상 가입 사업체 등이 지원 자격입니다.
+   - **재직기간**: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상이어야 합니다.
+4. **제출서류**:
+   - **고교 졸업(예정)자**: 고교 학교생활기록부를 제출해야 합니다.
+   - **검정고시 출신자**: 검정고시 합격증서 사본, 검정고시 성적증명서, 그리고 학교생활기록부 대체 서류 중 하나를 선택하여 제출합니다.
+   - **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업증명서와 성적증명서를 제출해야 합니다. 이는 해당 국가의 정부기관으로부터 아포스티유 확인서 또는 영사확인을 발급받아 제출해야 합니다.
+이러한 정보들을 참고하여 평생학습자전형에 지원할 수 있습니다. 자세한 내용은 공식 웹사이트를 참조하시기 바랍니다. (https://ipsi. deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보를 제공하고 있지만, 원본 텍스트에서 명시된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 핵심 사실을 누락하고 있습니다. 대신 다양한 고교 유형에 대한 지원 가능성을 나열하고 있어, 원본의 핵심 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 특정한 지원 자격을 명시하고 있지만, 생성된 응답은 다양한 고교 유형에 대한 지원 가능성을 나열하여 원본의 내용을 벗어나고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형의 지원 자격에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 동떨어져 있습니다. 원본의 특정 자격 요건을 다루지 않고 있어 관련성은 있지만, 핵심적인 정보는 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원본 텍스트의 구조와 흐름을 따르지 않아 일관성이 떨어집니다. 정보가 분산되어 있어 전체적인 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 사실을 반영하지 않고 있으며, 지원 자격에 대한 중요한 정보를 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있지만, 원본의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 일부 정보는 적절하지만, 핵심적인 내용이 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 정보의 분산으로 인해 핵심 내용을 파악하기 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6292456572571291</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원 자격에 대한 정보는 다음과 같습니다.
+- 일반고: 지원 가능합니다.
+- 자율고: 지원 가능합니다.
+- 특수목적고의 과학고, 국제고, 외국어고: 지원 가능합니다.
+- 특수목적고의 예술고, 체육고: 지원 가능합니다.
+- 특수목적고의 마이스터고: 지원 가능합니다.
+- 특성화고의 특성(직업): 지원 가능합니다.
+- 특성화고의 특성(대안): 지원 가능합니다.
+- 영재학교: 지원 가능합니다.
+- 기타의 학력인정고: 지원 가능합니다.
+- 기타의 방송통신고: 지원 가능합니다.
+- 기타의 각종학교: 지원 가능합니다.
+- 검정고시: 지원 가능합니다.
+- 외국고: 지원 불가능합니다.
+이러한 정보는 고교유형별 지원 자격에 대한 내용을 바탕으로 작성되었습니다. 더 자세한 정보나 확인이 필요하시다면 "https://ipsi. deu. ac. kr/main. do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 구체적인 준비물과 주제, 시간 등을 언급하고 있지만, 원본 텍스트에서 제공된 대기실 및 입실시간에 대한 정보는 포함되어 있지 않으며, 주제와 관련된 정보가 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 실기고사에 대한 구체적인 정보가 추가되었지만, 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 언급이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 주제인 대기실 및 입실시간과는 직접적인 관련이 적습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 주제별로 잘 나누어져 있으며, 논리적인 흐름이 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 대기실 및 입실시간에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3914416141041196</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 모집단위에 따라 다르게 준비해야 합니다.
+1. **디자인조형학과 (시각디자인, 산업디자인, 공예디자인)**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨.
+     - 예시: 잠자리와 저울 (주제A), 콜라병과 계절 (주제B).
+   - **화지크기**: 켄트지3절.
+   - **시간**: 5시간.
+2. **체육학과**:
+   - **모집단위**: 체육학과.
+   - **실기종목**: 
+     - **시각디자인, 산업디자인, 공예디자인**: 기초디자인 (700점).
+     - **체육학과**: 제자리 멀리뛰기 (240점), 메디신볼 던지기 (243점), Z-런 (230점).
+실제로 가야하는 장소는 모집단위에 따라 다르므로, 정확한 모집단위를 확인하여 해당 장소에서 실기를 치르시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기고사 종목과 배점에 대한 내용을 담고 있습니다. 이는 원본 텍스트와 관련이 없으며, 사실적으로도 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 주제와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2250950850920897</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 메디신볼 던지기, 제자리 멀리뛰기, Z-런 중 하나로 진행됩니다. 각 종목별 배점은 다음과 같습니다:
+1. 메디신볼 던지기 - 243점 (23%)
+2. 제자리 멀리뛰기 - 240점 (24%) 
+3. Z-런 - 230점 (23%)
+따라서 체육학과를 지원하려는 학생은 이 중 하나의 종목에 따라 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정확한 정보를 제공하지 않습니다. 원본 텍스트에서는 전화로 개별 연락을 하지 않는다고 명시되어 있지만, 생성된 응답에서는 합격자에게 개별 전화 통보가 이루어질 것으로 보인다고 언급하고 있어 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시되어 있는데, 생성된 응답에서는 전화 통보가 있을 것이라고 언급하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 전화 통보 여부와는 관련이 적습니다. 그러나 발표 일정에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 발표 일정과 관련된 정보가 잘 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있어 정확성이 낮습니다. 전화 통보가 이루어질 것이라는 주장은 원본의 내용과 맞지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 낮습니다. 관련성은 다소 높지만, 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 전화 통보에 대한 언급이 원본의 의미와 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.5963707307242212</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 충원합격자 발표가 이루어집니다. 이 시점 이후에 합격자에게 개별 전화 통보가 이루어질 것으로 보입니다. 하지만 정확한 절차와 방법은 공지된 일정과 입학 안내 홈페이지를 참고하시거나, https://ipsi. deu. ac. kr/main. do 링크에서 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수시모집 결과에 대한 정보가 없다는 점을 반복적으로 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수시모집 결과에 대한 정보 요청에 적절히 대응하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8348856900705491</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서 내에서 직접적으로 언급되어 있지 않습니다. 제공된 정보 중에서는 학과 분리, 학과 명칭 변경 등 주요 변경사항들이 나와 있지만, 특정 학과의 수시모집 결과는 포함되어 있지 않습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인하거나, 입학처에 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않은 학생도 지원할 수 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 상반되는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문이 수능 응시 여부에 따라 지원 가능성을 명확히 제한하고 있는 반면, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와의 관련성이 낮습니다. 원문에서의 핵심 내용과는 다르게, 수능 응시 여부와 관계없이 지원이 가능하다는 잘못된 주장을 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다른 언어로 작성되어 있어 일관성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 논리적 흐름이 부족합니다. 원문에서 제시한 정보와는 다른 방향으로 전개되고 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 포함하고 있습니다. 수능에 응시하지 않은 학생이 지원할 수 없다는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다. 원문에서의 주장을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4049553473239101</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도에 수능 응시하지 않은 학생도 지원이 가능합니다. 전형별로 다양한 지원 자격이 있으며, 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능한 경우가 있습니다.
+특히, 학생부종합 평가를 기반으로 하는 전형에서는 수능 점수보다는 학생부 성적과 면접 등을 통해 지원자의 적합성을 판단합니다. 따라서 수능 응시 여부와 관계없이 지원이 가능한 전형들이 있습니다.
+具体的来说，2024年，即使没有参加高考的学生也可以申请。每年的招生标准会有所不同，但通常有一些基于学生档案综合评估的招生类型，在这些类型中，高考成绩并不是决定性因素，而是通过学生的学业成绩和面试等来判断其是否适合。
+为了获取更详细的信息，请访问以下网站进行确认：“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 부정확하게 설명하고 있습니다. 원래의 출처 텍스트는 졸업 시기와 관계없이 지원이 가능하다고 명시하고 있지만, 생성된 응답은 10년이 지났다면 특별한 사유가 없으면 지원이 어렵다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 출처 텍스트와 일관성이 없습니다. 출처 텍스트는 모든 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 10년이 지난 경우 지원이 어렵다고 주장하여 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 추가 정보를 포함하고 있습니다. 그러나 출처 텍스트의 핵심 내용인 정시 지원 가능성에 대한 명확한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 출처 텍스트와의 연결이 약해 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 지원 가능성에 대한 명확한 설명이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 사실적으로 부정확합니다. 출처 텍스트는 10년이 지나도 지원이 가능하다고 명시하고 있지만, 생성된 응답은 이를 반박하는 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 출처 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 출처 텍스트의 핵심 내용을 왜곡하고 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 출처 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5954355990559019</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>10년이 지난 후에도 정시 모집에 지원할 수는 있습니다만, 일반적으로 고등학교 졸업 후 3년 이내에 입학하는 것이 원칙입니다. 따라서 10년이 지났다면, 특별한 사유가 있는 경우를 제외하고는 지원이 어려울 것입니다.
+입학을 원하시면, 동의대학교 웹사이트(https://ipsi. deu. ac. kr/main. do)에서 자세한 입학 조건과 지원 방법을 확인해 보시기 바랍니다. 특히, 농어촌학생전형에 지원하려는 경우, 정원외 모집단위 및 모집인원 정보와 제출서류 등을 꼼꼼히 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7676085602787508</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)에 공고됩니다.
+   - 비고: 입학안내 홈페이지에서 공고합니다.
+2. **원서접수 (인터넷)**:
+   - 일정: 2024년 1월 3일(수)부터 2024년 1월 6일(토), 마감시간은 각 날짜별로 18시까지입니다.
+   - 비고: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com을 참조하세요.
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 일정: 2024년 1월 3일(수)부터 2024년 1월 12일(금), 마감시간은 각 날짜별로 17시까지 도착해야 합니다.
+   - 비고: 서류 제출 대상 (Ⅳ. 전형별 세부 안내 참조)에 따라 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 제출합니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 일정: 2024년 1월 16일(화)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 일정: 2024년 1월 17일(수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2024년 2월 13일(화), 은행 마감 시간 내로 진행합니다.
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표 및 등록: 2024년 2월 14일(수) 9:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표 및 등록: 2024년 2월 15일(목) 9:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이상이 동의대학교 2024년 정시 모집일정입니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8353433445037907</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)에 공고됩니다.
+   - 비고: 입학안내 홈페이지에서 공고합니다.
+2. **원서접수 (인터넷)**:
+   - 일정: 2024년 1월 3일(수)부터 2024년 1월 6일(토)까지, 마감 시간은 각 날짜별로 오후 6시까지입니다.
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com을 참조하세요.
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 일정: 2024년 1월 3일(수)부터 2024년 1월 12일(금)까지, 마감 시간은 오후 5시까지입니다.
+   - 비고: 서류 제출 대상 (Ⅳ. 전형별 세부 안내 참조)에 따라 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 우편으로 제출합니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 일정: 2024년 1월 16일(화)
+   - 비고: 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 일정: 2024년 1월 17일(수)
+   - 비고: 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일(금) 오후 2시
+     - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지, 은행 마감 시간 내
+     - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표 및 등록: 2024년 2월 14일(수) 오전 9시
+     - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표 및 등록: 2024년 2월 15일(목) 오전 9시
+     - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지
+     - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+이상이 동의대학교 2024년 정시 모집 일정입니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원본 텍스트에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 수능 미응시자의 지원 불가능성을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원본 텍스트와의 내용적 일관성이 결여되어 있어 논리적인 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 수능 미응시자의 지원 가능성을 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성이 떨어져 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6585732656368869</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 "학생부종합(평생학습자전형)"입니다. 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+추가 정보:
+- 모집인원: 17명
+- 모집단위 및 계열: 인문사회과학대학 - 인문사회 - 국어국문학과 - 교직
+이 전형은 수능 미응시자도 지원 가능하며, 학생부 종합 평가를 통해 선발됩니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격이 36명까지 이루어졌다는 사실을 정확하게 반영하고 있습니다. 그러나 "후보순위"라는 표현은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일치하는 부분이 있지만, "충원 합격 차수에 대한 정보가 존재하지 않는다"는 원문의 내용을 명확히 반영하지 못하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 전자공학과의 충원 합격에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "후보순위"라는 용어가 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 전자공학과의 충원 합격 수치에 대한 정확한 정보를 제공하지만, 원문에서 언급된 "충원 합격 차수에 대한 정보가 존재하지 않는다"는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, "후보순위"라는 표현이 원문에 없기 때문에 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 용어가 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7550347475512125</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위인 전자공학과의 경우, 충원 합격 (후보순위)이 36까지 이루어졌습니다. 이 정보는 제공된 데이터에서 전자공학과에 대한 부분을 참조하여 확인할 수 있습니다. 만약 더 자세한 정보가 필요하시다면, 해당 대학의 입학 안내 홈페이지를 방문해 보시는 것이 좋겠습니다. "https://ipsi.deu.ac.kr/main.do"</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호에 대한 정보를 전혀 제공하지 않고 있으며, 이는 원본 텍스트의 사실과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 없으며, 전화번호에 대한 질문에 대한 적절한 답변을 제공하지 않습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 괜찮지만, 한국어로 질문에 대한 답변이 아닌 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 논리적 연결이 부족하며, 전화번호에 대한 질문에 대한 일관된 답변을 제공하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 전혀 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 적절하지 않은 정보를 제공합니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 질문에 대한 적절한 답변이 아니기 때문에 전체적으로 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6609798205390304</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果您需要该信息，可以访问以下网站以获取最新数据：https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 대안으로 홈페이지에서 합격 여부를 확인할 수 있다고 언급하고 있지만, 원본 텍스트에서는 전화 연락이 두절되면 해당 지원자가 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 따라서 사실관계에서 큰 차이가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 홈페이지에서 확인할 수 있다고 하여 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 대안을 제시하고 있어 관련성이 있지만, 원본 텍스트의 핵심 내용인 등록 포기 처리에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 원본 텍스트의 흐름과는 다소 동떨어진 느낌이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화 통화가 되지 않을 경우의 처리 방식에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실관계, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.4783258352761331</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 학생은 홈페이지에서 개별 조회를 통해 합격 여부를 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행(등록금 고지서에 기재)입니다.
+따라서 전화 통화가 되지 않아도 합격 여부와 관련된 정보를 얻을 수 있는 다양한 방법이 마련되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 농어촌학생전형에 필요한 서류에 대한 정보가 아닌, 고교 졸업자 및 외국고교 졸업자에 대한 서류를 나열하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 중요한 세부사항이 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 농어촌학생전형에 대한 구체적인 서류를 나열하고 있지만, 생성된 응답은 다른 전형에 대한 서류를 설명하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 농어촌학생전형에 대한 서류를 다루고 있지만, 생성된 응답은 고교 졸업자 및 외국고교 졸업자에 대한 서류를 다루고 있어 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성 부족으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 각 항목이 나열되어 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다. 따라서 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 농어촌학생전형에 대한 서류가 아닌 다른 전형에 대한 서류를 나열하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 적절하지 않은 정보를 제공합니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.6629655004220574</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 제출해야하는 서류는 다음과 같습니다.
+1. **고교 졸업(예정)자**:
+   - 고교 졸업증명서
+   - 지원자 본인, 부모 초본 각 1부 (총 3부)
+2. **검정고시출신자 / 외국고교 졸업(예정)자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+     ※ 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출해야 합니다.
+     ※ 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출해야 합니다. (단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+     ∘ 아포스티유 협약국 : 아포스티유 확인서(고교 소재국 지정기관), 영사확인(고교 소재국 한국영사관) 중 택 1
+     ∘ 아포스티유 비협약국 : 영사확인(고교 소재국 한국영사관)
+     ※ 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부해야 합니다. (성적증명서에 기재된 경우에는 별도로 제출할 필요 없음)
+4. **최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 2024. 02. 16.(금)까지 추가 제출해야 합니다.**
+위와 같은 서류들을 준비하여 제출하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 필요한 서류의 일부만 언급하고 있으며, 초등학교와 중학교 학교생활기록부, 고등학교 학교생활기록부에 대한 언급이 없습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 누락된 서류로 인해 일관성이 떨어집니다. 특히, 최종등록자에 대한 추가 서류가 언급되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 모든 필요한 서류를 포함하지 않아 다소 부족합니다. 그러나 주제에 대한 기본적인 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 더 많은 정보를 포함했다면 더 좋았을 것입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 제시되어 있습니다. 그러나 누락된 정보로 인해 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 필요한 서류의 전체 목록을 제공하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이고 있으며, 일부는 잘 수행되었지만, 누락된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 전달하고 있습니다. 그러나 더 많은 세부사항이 포함되었다면 좋았을 것입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 정보의 부족으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8346859816789737</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다.
+- 고교 졸업증명서
+- 지원자 본인 초본 1부
+위와 같은 서류들을 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있으며, 이전 학년도에 대한 언급도 포함되어 있어 사실적 정확성이 높습니다. 그러나 "현재 정보로는 해당 전형이 없어 보입니다"라는 표현은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되며, 기회균등 전형이 없다는 점을 강조하고 있습니다. 다만, "이전 학년도에는 일부 대학에서 저소득층 지원을 위해 특별한 전형을 운영하였으나"라는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 자연스럽습니다. 그러나 "해당 전형이 없어 보입니다"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 이전 학년도에 대한 언급이 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 전반적으로 정확하지만, "현재 정보로는 해당 전형이 없어 보입니다"라는 표현이 다소 주관적일 수 있어 정확성에 약간의 의문을 제기할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 응답은 여러 차원에서 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 문구가 다소 복잡하게 느껴질 수 있어 완전한 명확성에는 다소 부족함이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.66292962442975</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서는 저소득 기회균등 전형이 없습니다. 이전 학년도에는 일부 대학에서 저소득층 지원을 위해 특별한 전형을 운영하였으나, 현재 정보로는 해당 전형이 없어 보입니다.
+더 자세한 내용이나 변경사항이 있다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시거나 대학 입학처에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에서 2.5등급이 절사되어 3등급으로 처리된다고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 절사된다고 주장합니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 절사 여부에 대한 불확실성을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 절사 여부에 대한 정보가 없다는 점이 명확히 전달되지 않았습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 이를 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있습니다. 절사 여부에 대한 정보가 없다는 점을 간과하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.7458656535239192</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 절사하여 3등급으로 처리됩니다. 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5 등급은 3등급으로 반올림하여 처리합니다.
+만약 특정 전형의 기준을 따르지 않는다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시는 것이 좋습니다. 해당 사이트에서는 최신 정보와 정확한 답변을 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 원본 텍스트는 3차까지 발표가 이루어진다고 명시하고 있지만, 생성된 응답은 4차로 이루어진다고 하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 발표 일정에 대한 정보를 포함하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되어 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달되고 있습니다. 그러나 4차 발표에 대한 잘못된 정보로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 4차 발표에 대한 언급은 잘못된 정보입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제를 가지고 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 발표 일정이 명확하게 제시되어 있습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.850453648479064</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다.
+1. **1차 발표**: 2024년 2월 14일(수) 09:00에 이루어집니다.
+2. **2차 발표**: 2024년 2월 15일(목) 09:00에 이루어집니다.
+3. **3차 이후 발표**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보를 통해 이루어집니다.
+이와 같이 총 4차로 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 여러 요소를 잘 설명하고 있으며, 평균 점수와 경쟁률에 대한 정보도 포함되어 있습니다. 그러나 모집인원과 지원 인원에 대한 구체적인 수치가 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 일관되며, 수능 점수와 관련된 여러 요소를 잘 연결하고 있습니다. 다만, 일부 세부 사항에서 원문과의 일치 여부가 완벽하지 않을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 점수와 추가 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 몇몇 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 일부 세부 사항에서 정확성이 떨어질 수 있습니다. 예를 들어, 경쟁률에 대한 구체적인 수치가 원문에 명시되어 있지 않으므로 이 부분에서 약간의 불확실성이 존재합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 질문에 대한 적절한 답변을 제공합니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.6447939101526483</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>4.6이라는 수능 점수만으로는 e비즈니스학과의 정시 전형에서 추가 합격 가능 여부를 판단하기 어렵습니다. 이유는 다음과 같습니다:
+1. **모집인원 및 지원 인원**: e비즈니스학과의 모집인원은 10명이고, 지원 인원이 89명으로 높은 경쟁률을 보입니다.
+2. **경쟁률**: 지원 인원 대비 모집인원이 적지 않은데, 경쟁률이 8.90이라는 매우 높은 수치를 보여줍니다. 이는 추가 합격 가능성에 부정적인 영향을 미칠 수 있습니다.
+3. **평균 점수 및 표준 편차**: e비즈니스학과의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 426.25이며, 이 값이 지원자의 수능 성적을 상대적으로 높게 보여줄 것입니다.
+4. **영어 등급**: 영어 등급의 평균이 3.66이고, 지원자의 영어 등급이 이보다 낮다면 추가 합격 가능성은 더욱 낮아질 수 있습니다.
+5. **전형 요소 반영 비율**: 다군 수능(일반학생전형)에서는 수능 성적이 100% 반영되므로, 수능 점수가 중요한 역할을 합니다.
+따라서, 4.6이라는 수능 점수만으로는 정시 전형에서 추가 합격 가능 여부를 판단하기 어렵습니다. 지원자의 총 평균 점수, 영어 등급, 그리고 다른 요소들을 고려해야 합니다. 또한, 각 모집단위의 충원 합격자 수와 경쟁률을 확인하여 더 정확한 판단이 가능합니다.
+추가 정보를 원하시면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률, 충원 합격자 수, 지원 인원 등의 정보를 포함하고 있지만, 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보가 원본 텍스트와 다릅니다. 원본 텍스트에 따르면 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서 일부 정보가 부정확하여 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 제공된 정보가 서로 상충하는 부분이 있습니다. 예를 들어, 수능 4개 영역 등급 평균이 5.03이라고 언급했으나, 원본 텍스트에서는 4.53으로 명시되어 있습니다. 이러한 불일치로 인해 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, e비즈니스학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보의 불일치로 인해 완전한 일관성을 유지하지 못하므로 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 불일치로 인해 정확성에 문제가 있습니다. 특히 평균 등급에 대한 정보가 잘못되어 있어 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 불일치로 인해 완전한 적합성을 보이지는 않습니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 불일치로 인해 약간의 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6477327277290568</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 1.60이며, 충원 합격자는 36명입니다. 지원 인원이 105명으로 많은 지원자가 있습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 298.21이며, 이는 정시 등급 5.3에 해당하는 점수가 상대적으로 낮습니다.
+영어 등급의 평균은 4.00이며, 이 역시 정시 등급 5.3에 비해 높습니다.
+수능 4개 영역 등급의 평균은 5.03이며, 이는 정시 등급 5.3과 유사합니다.
+따라서 정시 등급 5.3이면 동의대학교 e비즈니스학과에 최초 합격 가능성은 높지 않을 것으로 보입니다. 경쟁률이 낮고 충원 합격 인원도 많은 만큼, 이 점수로는 충분히 합격할 수 있는 위치에 있지 않을 것 같습니다.
+만약 더 자세한 정보를 원하시면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 불확실성을 언급하고 있으며, 다양한 요인이 합격 결과에 영향을 미친다고 설명하고 있습니다. 그러나 원본 텍스트에서 명확히 언급된 "예비 38번이라면 예비 합격할 가능성이 낮습니다"라는 사실을 간과하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 예비 38번의 합격 가능성이 낮다는 원본의 주장을 반영하지 않고 있습니다. 이로 인해 일관성이 떨어지며, 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격 여부에 대한 질문에 관련된 정보를 제공하고 있으며, 추가적인 고려 사항을 제시합니다. 그러나 원본 텍스트의 핵심 내용인 예비 38번의 합격 가능성에 대한 명확한 답변이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 주제를 완전히 반영하지 못해 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않아 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 특정 사실을 간과하여 의미의 적절성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장이 길어질 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.6108876344642592</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 전형일정과 모집인원, 전형요소 반영 비율 등 다양한 요인이 합격 결과에 영향을 미칩니다.
+특히 e비즈니스학전공의 경우 모집인원이 38명으로 많으므로 경쟁률이 높을 것으로 예상됩니다. 하지만 서류평가와 면접평가에서 우수한 성적을 받는다면 합격 가능성은 있습니다.
+추가적으로 다음과 같은 정보를 확인해 보시기 바랍니다:
+1. 현재까지의 서류평가 결과
+2. 면접평가 결과 
+3. 다른 지원자의 경쟁 상황
+입학사정관이 평가하는 요소들이 다양하기 때문에, 개인의 특성과 준비 상태에 따라 다르게 평가될 수 있습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있으며, 성적 3.44에 대한 합격 가능성을 논의하고 있습니다. 그러나 일부 세부 사항(예: 표준 변환 점수 합의 범위 추정)이 명확한 출처 없이 제시되어 있어 약간의 불확실성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 간호학과의 평균 성적과 합격 가능성에 대한 논의가 일치합니다. 다만, 표준 변환 점수에 대한 추가적인 추정이 포함되어 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 표준 변환 점수에 대한 설명이 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 성적 3.44에 대한 합격 가능성에 대한 추정이 적절합니다. 그러나 표준 변환 점수에 대한 추정이 다소 불확실합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 불확실성이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추정이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 표준 변환 점수에 대한 설명이 다소 복잡하게 느껴질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6160265389415974</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 지원 인원이 145명으로 많은 지원자가 있습니다. 평균 표준 변환 점수 합은 353.48이고, 이는 성적 3.44보다 높습니다.
+성적 3.44의 경우, 표준 변환 점수 합을 계산해보겠습니다. 일반적으로 성적이 3.44일 때, 표준 변환 점수 합은 평균치를 기준으로 하여 어느 정도 범위에 속할 것입니다. 예를 들어, 표준 편차가 ±10점 내외로 추정한다면, 성적 3.44의 표준 변환 점수 합은 대략적으로 290-310 사이일 수 있습니다.
+간호학과의 평균 표준 변환 점수 합이 353.48이고, 지원자의 평균 성적이 3.44로 추정한다면, 합격 가능성은 낮을 것으로 보입니다. 하지만 이는 단순 추정이며, 실제 합격 가능성을 정확히 예측하기 위해서는 각 지원자의 표준 변환 점수를 구하고 그에 따른 경쟁률을 분석해야 합니다.
+따라서, 성적 3.44로 간호학과에 합격하는 것은 어렵다고 추정할 수 있습니다. 하지만 최종 결정은 해당 대학의 정확한 표준 변환 점수와 지원자의 전체적인 성적 분포를 바탕으로 해야 합니다.
+더 자세한 정보나 분석이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 2.52라는 성적이 수능 점수를 나타내지 않는다고 주장하지만, 원본 텍스트에서는 2.52가 간호학과의 평균 등급보다 높은 성적이라고 명시하고 있습니다. 이로 인해 사실관계에 대한 오류가 발생했습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 2.52가 합격 가능성이 높다고 언급하는 반면, 생성된 응답은 이 성적이 낮다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 동의대학교 간호학과에 대한 추가 정보를 제공하지만, 원본 텍스트의 핵심 질문인 2.52 성적의 합격 가능성에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보가 포함되어 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 2.52 성적에 대한 해석이 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 2.52 성적에 대한 잘못된 해석을 포함하고 있으며, 원본 텍스트의 사실과 상충하는 내용을 담고 있습니다. 이로 인해 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와의 일관성, 사실성, 정확성에서 부족함을 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 일부 내용이 혼란스러울 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.618326700943188</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 충원 합격자는 37명입니다. 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이고, 표준 편차는 4.66입니다.
+현재 제시된 성적인 2.52는 수능 점수를 나타내지 않습니다. 동의대학교 간호학과에 지원하려면 최소한 평균 이상의 점수가 필요하며, 표준 편차를 고려하면 약간 더 높은 점수가 요구될 것입니다.
+만약 2.52가 수능 점수를 나타낸다면, 이는 매우 낮은 점수로 충원 합격자들의 평균 점수와 비교해보면 크게 미치지 못합니다. 따라서 현재의 성적으로 동의대학교 간호학과에 최종 합격하기는 어려울 것으로 보입니다.
+만약 다른 정보가 있다면 추가로 고려할 수 있으나, 일반적으로 이 정도의 점수로는 합격이 어렵다고 판단됩니다. 더 자세한 정보를 원하시거나 궁금하신 사항이 있으면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 입학 요건과 관련된 여러 요소를 잘 설명하고 있으며, 정시 성적 3.7이 평균 등급보다 낮다는 점을 언급하고 있습니다. 그러나, "확정적으로 답변하기는 어렵습니다"라는 부분은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 간호학과의 평균 성적과 입학 요건을 잘 반영하고 있습니다. 다만, "정시 성적만으로는 합격하기 어려울 가능성이 크다"는 부분이 원본의 결론과 약간의 차이를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 입학 요건과 관련된 정보를 상세히 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 문장이 다소 길어져서 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 간호학과의 평균 성적과 입학 요건에 대한 정보가 정확합니다. 다만, "확정적으로 답변하기는 어렵습니다"라는 표현이 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 약간의 개선 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6090208031842422</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적을 가지고 간호학과에 합격할 수 있는지 확정적으로 답변하기는 어렵습니다. 하지만 간호학과의 입학요건을 살펴보겠습니다.
+간호학과의 경우, 주로 다음과 같은 요소들이 고려됩니다:
+1. **수능 성적**: 국어(화법과작문 또는 언어와매체), 수학(확률과통계 또는 미적분 또는 기하), 영어, 탐구 등이 반영되며, 각 영역별로 25%씩 점수가 반영됩니다.
+2. **학생부 성적**: 학생부 교과성적이 반영되며, 이는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등이 포함될 수 있습니다.
+3. **면접 및 실기**: 일부 모집단위에서는 면접이나 실기를 통해 학생의 역량을 평가할 수도 있습니다.
+정시 성적 3.7은 중등 정도의 성적입니다. 간호학과는 보통 높은 수능 점수와 좋은 학생부 성적이 요구되므로, 정시 성적만으로는 합격하기 어려울 가능성이 큽니다.
+하지만, 다음과 같은 요소들을 고려하면 합격 가능성은 조금 더 높아질 수 있습니다:
+1. **학생부 성적**: 국어, 수학, 영어 등 주요 과목에서 좋은 성적이 반영되면 도움이 될 수 있습니다.
+2. **면접 및 실기**: 면접이나 실기에서 우수한 평가를 받으면 합격 가능성은 높아질 수 있습니다.
+따라서, 정시 성적 3.7을 가지고 간호학과에 지원하려는 경우, 다음과 같은 조치들을 취해보세요:
+1. **학생부 성적 향상**: 국어, 수학, 영어 등 주요 과목에서 좋은 성적이 반영되도록 노력하세요.
+2. **면접 및 실기 준비**: 면접이나 실기를 통해 학생의 역량을 잘 보여주는 준비를 하세요.
+더 자세한 정보는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 참고하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하고 있으며, 2.58이라는 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 원문에서 제공된 평균 등급과 비교하는 구체적인 수치는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하지만, 원문에서 언급된 평균 등급과의 직접적인 비교가 부족하여 일관성이 떨어지는 부분이 있습니다. 특히, 성적 기준에 대한 설명이 원문과 다소 상이합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 간호학과의 정시 모집요강과 성적 기준에 대한 정보를 제공하여 질문의 핵심을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나, 원문과의 연결성이 약간 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집요강에 대한 정확한 정보를 제공하고 있지만, 원문에서 제시된 평균 등급과의 비교가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 부족함이 있어 완벽한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, 일부 세부 사항에서 원문과의 차이가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6204752839800781</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 확인해보겠습니다.
+1. **정시모집군**: 간호학과는 일반적으로 (가)군에 속합니다.
+2. **학생부교과성적 반영방법**: 2024년도에는 전 모집단위에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영합니다.
+3. **성적 기준**: 간호학과의 정시 합격기준은 대체로 국어, 수학, 영어 등 주요 과목의 성적이 높아야 합니다.
+현재 제공된 정보만으로는 객관적인 판단이 어렵습니다. 하지만 2.58이라는 성적을 가지고 (가)군에 속하는 간호학과를 정시로 합격시키려면, 국어, 수학, 영어 등 주요 과목에서 높은 점수를 받는 것이 중요합니다.
+**추천 사항:**
+1. **성적 분석**: 현재 성적을 바탕으로 국어, 수학, 영어 등의 성적을 분석하고, 필요하다면 강화해야 할 과목을 확인하세요.
+2. **모의고사 참여**: 모의고사를 통해 실력을 점검하고, 부족한 부분을 보완하세요.
+3. **입시 컨설팅**: 전문적인 입시 컨설턴트와 상담하여 개인적 상황에 맞는 전략을 수립하세요.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu.ac.kr/main.do](https://ipsi. deu.ac.kr/main.do)로 접속하여 공식 입시 안내서를 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 게임공학과에 대한 모집 내용이 없다고 주장하지만, 원본 텍스트에서는 충원합격에 대한 구체적인 정보가 제공되고 있다. 따라서 사실과 일치하지 않는 부분이 있다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충한다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그에 대한 판단을 어렵다고 언급하고 있다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 구체적인 정보가 부족하여 완전한 관련성을 제공하지 않는다. 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편이다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어진다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않는다. 이는 정확성에 큰 영향을 미친다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았다. 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있다. 정보의 적절성이 떨어진다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 편이다. 그러나 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5706662749019176</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 게임공학과에 대한 모집내용이 없습니다. 게임공학과 관련된 모집단위와 모집인원, 전형요소 등이 포함되어 있지 않습니다.
+현재까지의 정보에서는 게임공학과에 대한 특별한 내용이 없으므로 붙을 확률을 판단하기 어렵습니다. 
+추가적인 정보를 원하신다면, 학교 입학처 홈페이지 (https://ipsi. deu. ac. kr/main. do) 또는 온라인 지원시스템 (http://ipsi. deu. ac. kr)에서 확인해 보시는 것이 좋겠습니다.
+또한, 게임공학과에 대한 모집내용이 변경되었을 수도 있으므로, 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 등급 4.16이 게임공학과의 평균 등급보다 낮다고 언급하고 있지만, 원본 텍스트에서는 4.16이 평균 등급보다 높은 성적이라고 명시되어 있습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 4.16의 등급이 평균보다 낮다고 주장하는 부분에서 일관성이 결여되어 있습니다. 원본 텍스트의 정보와 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 등급과 추가 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 추가 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 4.16의 등급에 대한 잘못된 해석으로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 혼합되어 있으며, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 해석에서 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 부분에서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.7301750704752391</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급은 게임공학과의 모집요강을 고려할 때 충분한 점수일 것으로 보입니다. 게임공학과의 경우 모집인원이 3명이고 지원 인원이 16명으로 경쟁률이 높습니다. 평균 수능 등급은 4.78이며, 표준 편차는 0.20로 볼 때 4.16의 등급은 상대적으로 낮은 점수입니다.
+하지만 추가 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. **경쟁률**: 현재 제공된 정보에서 지원 인원이 많고 경쟁률이 높습니다.
+2. **평균 등급 및 표준 편차**: 평균 등급이 4.78이고 표준 편차가 0.20으로, 이는 점수 분포가 상대적으로 좁다는 것을 의미합니다. 따라서 4.16의 등급은 평균보다 낮습니다.
+3. **추가 합격 기준**: 추가 합격 기준이 명확히 제공되지 않았으므로, 동의대학교 게임공학과의 정시 전형에서 추가 합격 기준을 확인해야 합니다.
+따라서 4.16의 수능 등급으로 추가 합격 가능성은 낮다고 볼 수 있습니다. 하지만 최종 결정을 내리기 위해서는 동의대학교 게임공학과의 정시 전형 모집요강을 자세히 확인하고, 추가 합격 기준이 무엇인지 명확히 파악해야 합니다.
+더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 동의대학교 게임공학과의 정시 전형 모집요강을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 언급하고 있지만, 최초등록자 가능성에 대한 명확한 답변을 제공하지 않고 있습니다. 그러나 제공된 정보는 대체로 정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 최초등록자 가능성에 대한 명확한 결론을 제시하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 경영정보학과의 지원과 관련된 질문에 대해 적절하게 답변하고 있으며, 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 최초등록자 가능성에 대한 구체적인 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 부분에서 더 명확한 표현이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6441847294685873</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 지원하려면, 정시모집의 전형명을 확인해야 합니다. 현재 제공된 정보에서는 경영정보학과와 관련된 정시모집군 변경사항이 명확히 언급되어 있지 않습니다. 따라서, 경영정보학과에서 정시 성적 3.75로 최초등록자로 가능할지 여부는 해당 학과의 정시모집군을 확인해야 합니다.
+추가 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신 정보와 지원 자격 조건을 확인하시거나, 동의대학교 입학처에 직접 문의하시는 것이 좋습니다.
+만약 추가로 필요한 정보가 있다면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 정시 성적에 대한 정보를 잘 반영하고 있으며, 합격 가능성에 대한 논리적인 이유를 제시하고 있습니다. 그러나, 모집인원에 대한 구체적인 정보가 부족하여 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 정시 성적이 낮은 경우 합격 가능성이 낮다는 점을 잘 설명하고 있습니다. 다만, 추가적인 전형에 대한 언급이 원본 텍스트와는 다소 다른 방향으로 나아가고 있어 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 성적과 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 합격 가능성에 대한 설명이 적절합니다. 그러나 모집인원에 대한 구체적인 정보가 부족하여 완전한 정확성을 결여하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6701061591419205</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.2인데 경영정보학과 최초 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>4.2의 정시 성적에서 경영정보학과에 최초 합격을 하는 것은 어렵다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 경영정보학과는 인기 있는 전공으로, 많은 지원자가 있을 것입니다.
+2. **전형 요소 반영 비율**: 가군 수능(일반학생전형)에서는 수능이 100% 반영되므로, 정시 성적이 높은 점수를 받지 않으면 합격하기 어렵습니다.
+3. **모집인원**: 경영정보학과의 모집인원을 확인해야 합니다. 만약 모집인원이 많다면, 4.2의 성적만으로는 최초 합격이 어려울 수 있습니다.
+추가적으로, 정시 성적이 높지 않더라도 다른 전형(예: 나군 학생부종합)을 통해 합격할 가능성은 있습니다. 따라서:
+- **나군 학생부종합**에 지원해 볼 것을 권장합니다.
+- 서류평가와 면접평가에서 좋은 성적을 받는 것이 중요합니다.
+입학사정관이 평가하는 서류평가에서는 공동체역량, 학업역량, 전공적합성 등 다양한 요소를 고려하므로, 지원자의 전반적인 역량을 잘 보여줄 수 있는 서류를 준비해야 합니다. 또한 면접에서도 지원동기와 학업계획 등을 명확히 설명할 수 있도록 준비하는 것이 중요합니다.
+추가 정보나 자세한 조언이 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해 보시거나 입학처에 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요소를 고려하고 있으며, 정시 성적 5.33에 대한 설명도 포함되어 있습니다. 그러나 원본 텍스트에서 언급된 "합격 가능성이 낮다"는 점이 명확하게 반영되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성에 대한 결론이 상반된 내용을 포함하고 있습니다. 원본에서는 합격 가능성이 낮다고 명시했으나, 생성된 응답에서는 가능성이 있다고 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 합격 가능성에 대한 다양한 요소를 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보가 정확하지만, 합격 가능성에 대한 결론이 원본 텍스트와 상충하여 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으나, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 합격 가능성에 대한 결론이 다소 모호하여 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6122566376431258</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과 일반학생전형에 대한 합격 가능성은 다음과 같은 점들을 고려해야 합니다.
+1. **학생부 교과성적 반영방법**: 
+   - 2023년에는 국어, 수학, 영어교과 중 석차등급 상위 8과목을 반영하였습니다.
+   - 2024년에는 전 모집단위(한의예과 제외)에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영합니다.
+2. **정시 성적**: 
+   - 정시 성적이 5.33이라면, 이는 고교 졸업예정자로서의 성적입니다.
+   - 2024년에는 반영학기 고교 졸업(예정)자가 1학년 1학기부터 3학년 1학기까지로 변경되었습니다.
+3. **성적 평균**: 
+   - 학생부 교과 성적은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목의 평균을 반영합니다.
+따라서, 정시 성적이 5.33이라면, 이는 고교 졸업예정자로서의 성적입니다. 2024년에는 전 모집단위에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영하므로, 이 성적이 경영정보학과 일반학생전형에 합격 가능성은 있습니다.
+하지만, 정확한 합격 가능성을 판단하기 위해서는 동의대학교에서 제공하는 최종 합격 기준 및 전형요소 반영비율 등을 확인해야 합니다. 따라서, 더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 공식 홈페이지에서 최신 정보를 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 학생부종합 평가에 대한 언급이 있지만, 원본 텍스트에서 제공된 정보와는 다소 다릅니다. 원본 텍스트는 3.33의 성적이 바이오응용공학부의 평균 등급보다 높다고 언급하고 있으며, 합격 가능성이 높다고 명시하고 있습니다. 그러나 생성된 응답은 성적이 낮을 수 있다고 하여 원본과 상충하는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 원본에서는 3.33의 성적이 합격 가능성이 높다고 했지만, 생성된 응답에서는 그 확률이 낮을 수 있다고 하여 서로 모순되는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 학생부종합 평가에 대한 추가적인 정보가 포함되어 있어 다소 주제에서 벗어난 느낌이 있습니다. 그러나 여전히 바이오응용공학부에 대한 정보와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 일관성이 떨어지므로 완벽한 점수를 주기에는 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다소 다르게 해석하고 있습니다. 원본에서 제시된 성적에 대한 해석이 정확하지 않으며, 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 일부 내용이 원본의 맥락과 다르게 해석되어 있어 완벽한 점수를 주기에는 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완벽한 점수를 주기에는 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.674304855622611</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 지원하실 경우, 학생부종합 평가를 받으실 예정인 것으로 보입니다. 이 경우에는 성적뿐만 아니라 다양한 요소들이 고려됩니다.
+현재 제공된 정보로는 3.33 정도의 성적이면 최초등록자로 선발될 확률은 낮을 수 있습니다. 하지만 학생부종합 평가에서는 성적 외에도 인성, 공동체역량, 전공적합성 등이 고려되므로, 이러한 요소들이 강점이라면 좋은 결과를 얻을 가능성이 있습니다.
+특히 바이오응용공학부는 다양한 진로선택과목이 반영되는 만큼, 성적이 조금 부족해도 인성이나 공동체역량 등의 장점을 잘 보여주신다면 선발될 수 있는 기회가 있을 것입니다.
+만약 자세한 정보를 원하시면 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 모집인원과 전형요소에 대한 정보를 제공하고 있지만, 방사선학과의 평균 등급에 대한 정보와 현재 정시 등급이 4.4인 경우 합격 가능성이 낮다는 원본 텍스트의 핵심 사실을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급보다 낮은 성적을 가지고 있다는 원본 텍스트의 내용을 반영하지 않고, 오히려 합격 가능성이 높다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 정시 등급 4.4에 대한 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 사실을 잘못 해석하고 있으며, 원본 텍스트의 정보를 왜곡하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 따라서 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 의미와 맥락을 충분히 반영하지 못하고 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6232710765773301</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집인원 및 전형요소를 확인해보겠습니다.
+방사선학과는 공과대학의 학과로, 2023년도에는 로봇자동화공학과와 함께 28명을 모집하였습니다. 그러나 2024년도에 방사선학과가 신설되었음을 확인할 수 있습니다.
+전형요소 반영비율은 다음과 같습니다:
+- 수능: 100%
+- 실기: -
+따라서, 현재 성적인 4.4정시 등급으로는 충분히 합격 가능할 것으로 보입니다. 하지만 정확한 모집인원과 전형요소를 확인하시기 바랍니다.
+추가적으로, 방사선학과의 입학전형 안내 및 모집인원은 공과대학 홈페이지에서 확인하실 수 있으니, 해당 페이지를 참조해보시는 것이 좋겠습니다. 필요하다면 "https://ipsi. deu.ac.kr/main.do" 링크를 통해 공고를 확인하시기 바랍니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급(2.8 및 3.82)과 관련된 내용을 명확히 반영하지 않고 있습니다. 따라서 일부 사실이 누락되었거나 왜곡된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 평균 등급에 대한 정보가 누락되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보(경쟁률, 서류 평가 등)를 포함하고 있습니다. 그러나 원본 텍스트의 주요 포인트인 평균 등급에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 주요 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 원본 텍스트의 주요 사실이 누락되어 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본 텍스트의 주요 사실이 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6428780927802713</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수는 방사선학과의 경쟁률을 고려하면 약간 위험할 수 있습니다. 방사선학과의 모집인원이 5명이고 지원 인원이 36명으로, 경쟁률은 7.20입니다. 이와 비교해볼 때, 평균적인 경쟁률보다는 높지만, 아직 충분히 낮지 않은 수치입니다.
+방사선학과의 경우, 학업역량과 전공적합성 등이 중요하게 평가되므로, 서류평가에서 좋은 성적을 받은 경우에는 면접에서도 잘 준비한다면 합격 가능성은 높아질 것입니다. 특히, 면접에서는 지원동기와 학업계획, 전공적합성 등을 자세히 설명할 수 있어야 합니다.
+따라서, 2.66이라는 점수로는 위험한 편이지만, 서류평가에서 좋은 성적을 받았다면 면접에서도 잘 준비한다면 합격 가능성은 높아질 것입니다. 더 자세한 조언을 위해서는 해당 대학의 입학사정관과 상담하거나, 면접 준비를 철저히 하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do 에서 추가 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 잘못 해석하고 있습니다. 원문에서는 3.66의 성적이 평균보다 높다고 언급했으나, 생성된 응답에서는 합격 가능성이 낮다고 주장하고 있습니다. 이는 사실과 상반되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 3.66의 성적이 평균보다 높고, 경쟁률이 낮아졌다는 점을 긍정적으로 평가했으나, 생성된 응답에서는 반대로 합격 가능성이 낮다고 주장하고 있습니다. 이러한 상반된 주장은 일관성을 결여하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있지만, 농어촌 전형에 대한 추가적인 정보와 조언을 제공하고 있습니다. 그러나 원문에서의 긍정적인 요소를 간과하고 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원문과의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 3.66의 성적이 평균보다 높다는 사실을 무시하고 합격 가능성이 낮다고 주장하는 것은 정확성이 결여된 것입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실적 정확성도 떨어집니다. 따라서 전반적인 품질이 낮다고 평가할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문에서 전달하고자 하는 긍정적인 메시지를 왜곡하고 있습니다. 따라서 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5160655532539488</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 합격 가능성은 낮을 것으로 예상됩니다. 농어촌 전형은 주로 농어촌 지역 출신이나 특별한 사회적 배경을 가진 지원자들을 대상으로 하며, 일반적으로 성적이 낮은 편입니다.
+하지만 정확한 합격 가능성 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. 해당 대학의 농어촌 전형에서 요구하는 최저 성적 기준
+2. 지원자의 경쟁률
+3. 다른 지원자들의 성적 분포
+대부분의 경우, 일반적인 정시 합격 기준보다 낮은 성적이 필요합니다. 그러나 3.66이라는 성적을 가지고 농어촌 전형에 지원하는 것은 매우 힘든 경쟁률을 맞이하게 될 것입니다.
+따라서, 최선의 방법은 입학사정관 제도나 일반전형 등 다른 합격 가능성을 고려해 보는 것이 좋습니다. 또한, 대학 홈페이지에서 제공되는 전형별 세부 안내를 확인하시거나, 입학처에 직접 문의하시는 것을 추천드립니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 특정 학과와 예비 번호에 대한 정보는 포함되어 있지 않다. 따라서 일부 사실이 누락되었고, 원본 텍스트의 핵심 내용을 완전히 반영하지 못하고 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리에 대한 정보를 제공하지만, 원본 텍스트의 내용과는 다소 일치하지 않는다. 원본 텍스트는 특정 학과에 대한 합격 가능성을 언급하고 있으나, 생성된 응답은 동점자 처리 기준에 초점을 맞추고 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동점자 처리와 관련된 정보를 제공하여 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 주제인 합격 가능성에 대한 직접적인 언급이 부족하다. 따라서 관련성은 높지만 완전하지 않다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 동점자 처리 기준에 대한 설명이 일관되게 이어진다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원본 텍스트의 특정 세부사항(예비 번호와 합격 가능성)에 대한 정확한 반영이 부족하다. 따라서 정확성 점수가 낮아졌다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보인다. 일부 정보는 유용하지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 동점자 처리 기준에 대한 의미를 적절하게 전달하고 있으나, 원본 텍스트의 맥락과는 다소 차이가 있다. 따라서 의미적으로 적절하지만 완전하지 않다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달된다. 그러나 원본 텍스트와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.4841310029525832</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 동점자 처리 순위는 상당히 높은 위치입니다. 하지만 아직 최종 합격자 발표가 이루어지지 않았으므로, 최종 결과를 기다리는 것이 가장 좋습니다.
+현재 정보로는 동점자 처리 기준이 다음과 같습니다:
+- 1순위: 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+- 2순위: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+- 3순위: 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+따라서 동점자 처리 순위가 높은 경우에도 최종 합격이 가능합니다. 하지만 확실한 것은 아닙니다.
+최종 합격 여부는 합격자 발표와 등록금 납부를 통해 확인할 수 있습니다. 합격자 발표일(2024년 2월 2일)을 기다리시거나, 학교 입학관리팀에 문의하시면 더 정확한 정보를 얻으실 수 있습니다.
+https://ipsi. deu. ac. kr/main. do 에서 추가적인 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있지만, 해당 학부는 존재하지 않으며, 경찰행정학과에 대한 정보와 혼동되고 있습니다. 또한, 평균 성적에 대한 수치가 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 경찰행정학과에 대한 평균 성적을 제공하고 있지만, 생성된 응답은 법경찰행정학부에 대한 정보를 제공하며, 이 학부는 존재하지 않기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교에 대한 정보를 제공하고 있지만, 법경찰행정학부에 대한 내용이 포함되어 있어 원본 텍스트의 주제와 완전히 일치하지 않습니다. 그러나 경찰행정학과에 대한 정보는 어느 정도 관련이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적인 흐름이 있지만, 법경찰행정학부와 경찰행정학과의 혼동으로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 여러 가지 잘못된 정보를 포함하고 있으며, 특히 법경찰행정학부에 대한 언급이 사실과 다릅니다. 평균 성적에 대한 수치도 원본 텍스트와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 법경찰행정학부에 대한 언급이 부적절하여 전체적인 의미 전달에 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 혼동을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7497631720256441</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부에 대한 정보를 바탕으로 추정해보겠습니다.
+- **모집인원**: 7명
+- **지원인원**: 40명
+- **경쟁률**: 5.71 (40 / 7)
+- **충원 합격 (후보순위)**: 13명
+이 정보를 바탕으로, 안정적인 충원 합격을 위해서는 평균 성적이 높은 수준이 필요할 것으로 보입니다. 경쟁률이 높고 모집인원이 적기 때문에, 평균 성적은 상대적으로 높아야 합니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 315.78
+- **영어 등급의 평균**: 3.11
+이 중에서, **표준 변환 점수**는 대체로 높은 수치를 받을 필요가 있습니다. 표준 변환 점수가 300점 이상인 경우가 많으므로, 이 정도 수준의 성적을 받으면 안정권에 들어갈 가능성이 높아 보입니다.
+- **수능 4개 영역 등급의 평균**: 4.27
+이 평균 등급을 기반으로, **등급 평균**도 상대적으로 높은 수준이어야 합니다. 4.3 이상의 등급 평균을 받으면 안정적인 충원 합격 가능성이 높아 보입니다.
+따라서, **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**이 310점 이상이고, **영어 등급 평균**이 4.0 이상인 경우를 목표로 하면 안정권에 들어갈 가능성이 높아 보입니다.
+만약 이 수치를 넘어서서 320점 이상의 표준 변환 점수와 4.5 이상의 영어 등급을 받으면, 문 닫고 들어갈 수 있을 정도로 안전한 성적을 받을 수 있습니다.
+이 정보는 추정이며, 실제 입학 결과는 여러 요인에 따라 달라질 수 있으므로, 최종 결정 전에는 공식적인 입학정보 사이트를 확인하시기 바랍니다. (https://ipsi. deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과와 아동학과의 변경 사항에 대한 정보를 제공하고 있으며, 정시 등급에 대한 합격 가능성에 대한 언급도 포함되어 있습니다. 그러나 "2023년도에는 아동학과로 분리되었습니다"라는 표현은 다소 혼동을 줄 수 있으며, 정확한 연도에 대한 언급이 필요합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, "2023년도에는 아동학과로 분리되었습니다"라는 문구는 원본 텍스트의 내용과 약간의 차이가 있습니다. 원본 텍스트는 24학년도 모집단위에서의 변경 사항을 언급하고 있으므로, 연도에 대한 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 보육가정상담학과와 아동학과의 변경 사항 및 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 일부 문장에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 연도에 대한 언급에서 약간의 부정확성이 있습니다. 
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 혼동을 줄 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 더 명확한 표현이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6309344200148387</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 주요 변경사항을 보면, 보육가정상담학과는 2023년도에는 아동학과로 분리되었습니다. 하지만 현재의 정보만으로는 정확한 합격 여부를 판단하기 어렵습니다. 
+보육가정상담학과에 대한 지원 자격은 경쟁률, 충원 합격자 수 등 여러 요인에 따라 달라질 수 있습니다. 2024년도의 경우, 동의대학교 보육가정상담학과는 아동학과로 분리되었으므로, 해당 정보를 바탕으로 판단해야 합니다.
+현재 제공된 데이터만으로는 정확한 답변을 드릴 수 없지만, 일반적으로 경쟁률이 높은 학과일 경우 5.33의 등급으로 충원 합격하는 것은 어렵다고 볼 수 있습니다. 하지만 최종 합격 여부는 모집 인원, 지원 인원, 평균 등급 등의 요인에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+더 자세한 정보를 원하시면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 잘 반영하고 있습니다. 그러나 "합격 가능성을 높여줍니다"라는 표현은 다소 주관적이며, 원문에서 명시된 "정확한 예측은 어렵습니다"라는 점과는 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "합격 가능성을 높여줍니다"라는 주장은 원문에서의 조심스러운 접근과는 일치하지 않습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 깊고, 예비 번호와 충원 합격에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점이 명확하게 연결되어 있습니다. 그러나 일부 문장에서의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, "합격 가능성을 높여줍니다"라는 표현은 다소 과장된 해석으로 보입니다. 따라서 정확성 점수는 중간 이상으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, 일부 표현이 원문의 조심스러운 어조와는 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6814288525101261</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 이는 합격 가능성을 높여줍니다. 하지만 최종 합격 여부는 여러 요인에 따라 결정되며, 경쟁률과 지원자의 평균 점수가 중요한 역할을 합니다.
+현재 제공된 정보만으로 판단하면 다음과 같은 점들을 고려해야 합니다:
+1. **경쟁률**: 충원 합격 3차의 경우 경쟁률이 낮아지므로, 예비 12번을 받으셨다면 상대적으로 좋은 위치에 있을 수 있습니다.
+2. **평균 점수**: 평균 점수가 높은 지원자들이 더 많은 기회를 얻기 때문에, 평균 점수가 낮은 지원자들보다는 유리한 위치에 있을 것입니다.
+하지만, 최종 합격 여부는 입학관리팀의 판단에 따라 결정되므로, 공식적인 합격 발표를 기다리는 것이 가장 안전합니다. 또한, 학교 입학안내 홈페이지에서 추가 정보를 확인하거나, 직접 입학관리팀과 연락하여 상황을 확인하는 것이 좋습니다.
+추가적으로, 합격 확률을 높이기 위해서는:
+- **개인적인 강점**을 부각시키는 자기소개서 작성
+- **추천서**를 받는 것
+- **면접 준비**를 철저히 하는 것
+등의 방법들을 활용해보시는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 좋은 성적이라고 언급하고 있지만, 유아교육학과에 지원하기 어려울 것이라는 점에 대한 명확한 근거가 부족합니다. 원본 텍스트에서는 유아교육학과의 평균 성적이 4.18로, 4.75로 지원하기 어려울 것이라고 명시하고 있습니다. 따라서 일부 사실이 누락되었거나 불명확하게 표현되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보와 관련된 내용을 포함하고 있지만, 원본 텍스트의 구체적인 데이터와 일치하지 않는 부분이 있습니다. 예를 들어, "4.75라는 성적은 좋은 성적입니다"라는 표현은 원본 텍스트의 맥락과 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 유아교육학과에 대한 정보와 관련된 절차를 제안하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 제안된 절차가 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 좋은 성적이라고 언급하지만, 유아교육학과에 지원하기 어려울 것이라는 원본 텍스트의 주장을 충분히 반영하지 못하고 있습니다. 따라서 정확성에서 다소 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 그러나 사실성과 일관성에서 부족함이 있어 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 유아교육학과에 대한 정보와 관련된 절차를 제안하고 있습니다. 그러나 원본 텍스트의 구체적인 사실과 일치하지 않는 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 제안된 절차가 명확하게 나열되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.759483391306205</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적이 정시 모집에서 어느 정도의 점수를 받을 수 있는지, 유아교육학과에 지원하기에는 어려울 것인지 판단하기 위해서는 해당 학교와 전형별로 설정된 최저학력기준 등을 확인해야 합니다.
+현재 제공된 정보만으로는 정확한 답변이 어렵습니다. 하지만 일반적으로 4.75라는 성적은 좋은 성적입니다. 유아교육학과의 경우, 많은 대학에서 이 분야에 대한 관심이 높고, 경쟁률도 상대적으로 높을 수 있습니다.
+따라서 다음과 같은 절차를 추천드립니다:
+1. **해당 학교의 최저학력기준 확인**: 유아교육학과가 모집하는 대학별로 설정된 최저학력기준을 확인하세요.
+2. **경쟁률 확인**: 해당 학과의 경쟁률을 확인하여, 4.75라는 성적으로 지원하기에는 어려울 것인지 판단해보세요.
+3. **추천서 및 자기소개서 작성**: 좋은 성적이지만, 추천서와 자기소개서 등을 잘 준비하면 도움이 될 수 있습니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않으며, 주어진 질문에 대한 직접적인 답변이 부족하다. 또한, 원본 텍스트의 핵심 정보가 누락되어 있다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족하다. 원본 텍스트는 특정한 등급에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 일반적인 전형 정보에 초점을 맞추고 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하지만, 질문자가 원하는 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어진다. 그러나 전형에 대한 정보는 어느 정도 관련이 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 주제 간의 연결이 명확하지 않아 일관된 흐름이 부족하다. 특히, 질문에 대한 직접적인 답변이 없기 때문에 응답의 일관성이 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 반영하지 않으며, 질문에 대한 정확한 답변을 제공하지 않는다. 따라서 정확성 점수가 낮다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았다. 사실성, 일관성, 정확성 모두 부족하여 전체적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 질문에 대한 직접적인 답변이 부족하여 의미 전달이 완전하지 않다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 복잡하게 표현되어 있어 완전한 이해를 방해할 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5063848142742808</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 일반학생전형에 대한 정보를 제공하겠습니다.
+보육가정상담학과의 일반학생전형은 학생부종합 평가를 통해 선발되며, 주요 평가 영역은 공동체역량, 학업역량, 전공적합성입니다. 또한, 2024학년도에는 학생부 교과성적 반영방법이 변경되었는데, 이는 전반적으로 과목의 석차등급을 더 많이 반영하게 되었습니다.
+현재您的问题似乎是在询问关于东国大学保育·家庭咨询学专业的普通学生录取情况。根据您提供的信息，2024年东国大学保育·家庭咨询学专业采用综合评价的方式进行招生，并且主要评估领域包括：社会贡献能力、学业能力和专业适应性。
+此外，2024年的学生学业成绩评价方式也有所变化，更加注重各科目的等级排名。您目前的换算等第为4.16，这个成绩在一定程度上反映了您的学术水平和学习能力。
+为了更准确地判断您是否能够被录取，建议参考以下几点：
+1. **共同社会贡献能力**：这包括您的社团活动、志愿服务经历等。
+2. **学业能力**：根据您提供的换算等第4.16来看，这个成绩在一定程度上反映了您的学术水平。但具体还需要看各科目的等级排名是否符合学校的要求。
+3. **专业适应性**：这主要考察您对专业的兴趣和适合度。
+综合以上因素，如果您的共同社会贡献能力较强，并且学业能力和专业适应性也较好，那么被录取的可能性较大。但是最终能否被录取还需参考具体的招生标准和流程，请务必关注东国大学的官方通知或咨询相关部门以获取最准确的信息。
+如需更多信息，建议访问东国大学官网（https://ipsi. deu.ac.kr/main.do）查看最新的招生信息和要求。</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 소프트웨어융합학과가 정시로 지원할 수 없다고 명시하고 있지만, 생성된 응답은 소프트웨어공학부에 대한 지원 자격과 조건을 설명하고 있습니다. 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있습니다. 이는 원문과의 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 없습니다. 원문은 소프트웨어융합학과의 정시 지원 가능성에 대한 질문인데, 생성된 응답은 소프트웨어공학부에 대한 지원 조건을 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하지만, 원문과의 연결이 없기 때문에 일관된 흐름이 부족합니다. 원문과의 관련성이 떨어져서 응답의 일관성이 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공한 사실과 완전히 다릅니다. 소프트웨어융합학과는 정시로 지원할 수 없다는 사실을 무시하고, 소프트웨어공학부에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와 관련이 없는 내용을 포함하고 있습니다. 이는 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원문과 관련이 없기 때문에 전체적인 이해가 어렵습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4595738891543919</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부를 정시로 지원하려는 경우, 지원 자격은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자입니다. 평균 등급을 보면, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이며, 영어 등급의 평균은 3.77입니다.
+따라서 소프트웨어공학부를 정시로 지원하려면 다음과 같은 조건을 충족해야 합니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+- 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87 이상을 받아야 합니다.
+- 영어 등급의 평균은 3.77 이상을 받아야 합니다.
+이러한 조건을 충족하면 소프트웨어공학부를 정시로 지원할 수 있습니다. 그러나 경쟁률이 높기 때문에, 더 높은 점수와 등급을 받는 것이 유리할 것입니다. 자세한 정보는 https://ipsi. deu.ac.kr/main.do 웹사이트에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접 점수와 세특 내용의 중요성을 강조하고 있지만, 원본 텍스트에서 언급된 서류 평가와 면접 고사에 대한 구체적인 정보가 누락되어 있습니다. 또한, 세특 준비에 대한 강조가 원본의 내용과 일치하지 않으며, 서류 준비에 대한 정보가 추가되었지만 원본의 핵심 내용을 완전히 반영하지는 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 요소와 일치하지만, 세특 내용의 비중에 대한 주장은 원본의 정보와 일치하지 않습니다. 원본 텍스트는 서류 평가와 면접 고사를 통합하여 평가한다고 명시하고 있으나, 생성된 응답은 세특 준비의 중요성을 강조하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 세특 준비에 대한 정보가 추가되어 원본의 핵심 주제에서 약간 벗어났습니다. 그러나 면접 준비와 관련된 정보는 여전히 유용하므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 세특 준비에 대한 강조가 원본의 내용과 다소 상충하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 세특 준비에 대한 강조가 원본의 평가 기준과 일치하지 않으며, 서류 준비에 대한 정보가 추가되었으나 원본의 핵심 내용을 완전히 반영하지 못했습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성은 높지만 정확성과 일관성에서 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 세특 준비에 대한 강조가 원본의 의도와 다소 다릅니다. 그럼에도 불구하고 전반적으로 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있어 완전한 이해를 위해서는 주의가 필요합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4772581121667098</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>면접 점수와 세특 내용은 모두 중요한 요소입니다. 하지만, 일반적으로 세특 내용이 더 많은 비중을 차지하기 때문에 세특 준비는 더욱 중요합니다.
+세특 준비를 위해 다음과 같은 서류가 필요할 수 있습니다:
+1. 학생부 온라인 제공 동의서 (고교 졸업(예정)자, 검정고시출신자, 외국고교 졸업(예정)자)
+2. 면접 질문 공통문항에 대한 답변을 기록한 서류
+3. 지원동기 및 학업계획 관련 서류
+4. 학업역량과 전공적합성 관련 서류
+면접 점수를 높이기 위해서는 면접 준비가 필요합니다:
+1. 면접 질문 공통문항을 미리 익혀두세요.
+2. 지원동기와 학업계획, 학업역량 및 전공적합성에 대한 답변을 미리 준비하세요.
+3. 블라인드 면접의 경우 개인 신상 정보 노출 금지 등에 유의하세요.
+따로 서류가 필요하다면 해당 모집단위의 공고를 확인하시거나, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 평균 점수를 잘못된 수치(330.11)로 제시하고 있으며, 이는 사실과 다릅니다. 또한, 경쟁률 수치(4.87)도 출처에서 제공된 정보와 일치하지 않습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 출처 텍스트와 상충되는 정보를 제공합니다. 예를 들어, 최초합격자 평균 점수와 관련된 잘못된 수치가 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하려고 하지만, 잘못된 정보로 인해 주제와의 관련성이 떨어집니다. 그러나 면접 준비와 서류 평가에 대한 조언은 관련성이 있지만, 전체적으로는 낮은 점수를 받습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 조언을 포함하고 있지만, 정보의 흐름이 매끄럽지 않으며, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 출처 텍스트의 사실과 크게 다르며, 잘못된 수치와 정보가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받으며, 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 맥락을 일부 반영하고 있지만, 잘못된 정보로 인해 의미적으로 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7749746697755655</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 수능 점수는 동의대학교 소프트웨어공학부의 최초합격자에 대한 평균 점수인 330.11보다 낮습니다. 이 학과의 경쟁률은 4.87이며, 모집 인원이 30명이고 지원 인원이 146명입니다. 따라서 수능 점수가 4.08이라면 충분히 최초합격을 얻기 어렵다고 볼 수 있습니다.
+하지만 이는 단순한 예측일 뿐 실제 합격 여부는 면접 성적, 서류 평가 등 다양한 요인에 의해 결정됩니다. 따라서 다음과 같은 조치를 취해보시는 것이 좋습니다:
+1. **면접 준비**: 면접 질문 공통문항을 미리 익혀보세요. 지원동기와 학업계획, 학업역량, 전공적합성 등에 대한 답변을 잘 준비하세요.
+2. **서류 평가**: 공동체역량, 학업역량, 전공적합성 등 서류평가 영역에서 최선을 다해 작성하세요. 특히 학교생활기록부의 내용이 중요합니다.
+3. **추천서 및 자기소개서**: 추천서와 자기소개서를 잘 준비하고 작성하세요.
+만약에 여전히 불안하다면, 동의대학교 입학사정관이나 관련 컨설팅 서비스를 이용해 보시는 것도 좋은 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고 있으며, 제공된 정보와는 다른 세부사항(지원 인원, 경쟁률 등)을 포함하고 있습니다. 이는 원본 텍스트와의 일치성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보(예: 지원 인원, 경쟁률 등)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 합격 등급 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 수치를 제시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 원본 텍스트의 핵심 내용과는 다소 동떨어져 있습니다. 원본 텍스트는 합격 가능성을 확인하기 위한 정보의 부족을 강조하고 있으나, 생성된 응답은 구체적인 수치를 제시하여 혼란을 초래합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 다소 복잡한 표현이 사용되어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보가 나열되어 있지만, 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 주제와 관련된 정보가 포함되어 있으나, 정보의 연결성이 떨어져 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(예: 경쟁률, 충원 합격자 수 등)를 포함하고 있어 정확성이 떨어집니다. 원본 텍스트는 이러한 세부사항을 제공하지 않기 때문에, 생성된 응답의 정확성은 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 제공된 정보가 원본의 맥락과는 다소 어긋나 있습니다. 원본 텍스트의 주제를 벗어난 정보가 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 혼란을 초래할 수 있습니다. 그러나 전반적으로 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6594209420627576</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(소프트웨어융합학과)의 경우, 지원 인원이 146명이고 경쟁률이 4.87이며, 충원 합격자는 63명입니다. 평균적으로 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이고, 영어 등급의 평균은 3.77이며, 수능 4개 영역 등급의 평균은 4.49입니다.
+이러한 정보를 바탕으로, 정시 모집에서 평균 5등급으로 여기는 것은 경쟁률과 충원 합격자 수에 비해 상대적으로 낮은 점수일 것입니다. 그러나 이는 단순히 평균을 기준으로 판단하는 것이 아니라, 지원자의 전체 성적 분포와 모집 인원 등을 고려해야 합니다.
+따라서, 정시 모집에서 5등급으로 여기는 것은 가능하지만, 실제 경쟁률과 충원 합격자 수를 고려할 때 상대적으로 낮은 점수일 것입니다. 더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전문가와 상담하는 것이 좋습니다.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 직접 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.28이라는 성적이 동의대학교 신소재공학부에 합격할 수 있는지에 대한 여러 요인을 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급 정보와 비교할 때, 합격 가능성에 대한 명확한 판단을 제공하지 않고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 요인들을 언급하면서 원본 텍스트의 결론과는 다소 상충하는 내용을 포함하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있으며, 합격 가능성에 대한 분석을 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족하여 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요인에 대한 설명이 잘 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있어 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 평균 등급 정보를 반영하지 않고, 일반적인 요인들에 대한 설명을 제공하고 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 특히 사실성과 정확성에서 다소 부족한 점이 있습니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 내용이 원본 텍스트의 구체적인 데이터와 일치하지 않아 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 일부 문장이 복잡할 수 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6245834616948523</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학부에 합격할 수 있는지는 여러 요인에 따라 다릅니다. 주요 요인으로는 모집단위, 경쟁률, 평균 점수 등이 있습니다.
+현재 제공된 정보를 바탕으로 분석해보겠습니다:
+1. **경쟁률과 모집인원**: 동의대학교 신소재공학부의 경쟁률과 모집인원을 확인해야 합니다. 만약 경쟁률이 높고 모집인원이 적다면, 4.28이라는 점수로 합격하기는 어렵습니다.
+2. **평균 점수**: 지원자의 평균 점수가 알려져 있다면 이를 참고할 수 있습니다. 예를 들어, 만약 해당 모집단위의 평균 점수가 4.50 이상이라면, 4.28은 평균보다 낮아 합격 가능성은 낮을 것입니다.
+3. **경쟁률**: 경쟁률이 높다면, 평균 점수와 비슷하거나 조금 더 높은 점수가 필요할 수 있습니다.
+따라서, 정확한 답변을 위해서는 동의대학교 신소재공학부의 모집단위별 경쟁률과 평균 점수를 확인해야 합니다. 이를 통해 4.28이라는 점수로 합격 가능성 여부를 판단할 수 있습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참고하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 정보(대학의 입학 안내 홈페이지 링크 등)는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요 없다는 점을 강조하고 있습니다. 그러나 추가적인 정보가 포함되어 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가 정보가 포함되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 사실성에서 높은 점수를 받습니다. 그러나 약간의 부정확성과 일관성 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가 정보가 포함되어 있어 약간의 의미적 부적절성이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 약간의 복잡한 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6274615362343819</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 자기소개서가 요구되지 않습니다. 서류 제출이 필요 없는 경우도 포함되어 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 입학 안내 홈페이지 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 확인해보시거나, 직접 학교에 문의하시는 것이 좋습니다.
+만약 다른 전형에서 자기소개서가 필요하다면, 해당 전형의 요구사항을 따르시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수에 대한 합격 가능성을 여러 요인에 따라 설명하고 있으며, 원본 텍스트의 정보와 잘 일치합니다. 그러나 일부 세부 사항이 원본 텍스트에서 명시된 내용과 다소 차이가 있을 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 그러나 특정 세부 사항에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다. 그러나 약간의 흐름이 끊길 수 있는 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가 모집에 대한 정보도 적절하게 언급하고 있습니다. 그러나 일부 세부 사항에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받고 있습니다. 그러나 일부 세부 사항에서 개선이 필요할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.640461662587468</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 들어갈 수 있는지 여부는 여러 요인에 따라 달라질 수 있습니다.
+1. **경쟁률**: 현재 제공된 데이터에서 특정 모집단위의 경쟁률을 확인할 수 있지만, 4.5라는 점수가 어느 정도의 경쟁력을 가졌는지를 판단하기 위해서는 해당 단과대학 및 모집단위의 최종 경쟁률을 알아야 합니다.
+2. **모집인원**: 각 모집단위별로 모집 인원이 다릅니다. 예를 들어, 한의예과에서는 11명을 모집하고 지원자가 88명이었으므로 경쟁률은 8.00입니다. 이와 같은 정보가 필요합니다.
+3. **점수 분포**: 지원자의 점수가 어떻게 분포되어 있는지 확인해야 합니다. 만약 대부분의 지원자가 높은 점수를 받았다면, 4.5라는 점수는 상대적으로 낮을 수 있습니다.
+4. **가산점**: 일부 모집단위에서는 특정 과목에 대한 가산점을 부여합니다. 이 경우 해당 가산점이 적용되었는지 확인해야 합니다.
+따라서, 정확한 답변을 위해서는 다음과 같은 정보를 확인해야 합니다:
+- 동의대학교에서 지원하고자 하는 단과대학 및 모집단위
+- 해당 단과대학 및 모집단위의 최종 경쟁률
+- 해당 단과대학 및 모집단위의 모집인원
+이런 정보들을 바탕으로 판단할 수 있습니다. 만약 위에 나열된 정보를 확인하지 못한다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 홈페이지에서 필요한 정보를 찾아보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 정시 모집 등급 기준에 대한 구체적인 정보를 제공하지 않고, 공식 웹사이트를 참조하라고 안내하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보는 누락되어 있어 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 반영하지 않으며, 정보의 일관성이 부족합니다. 원본 텍스트는 평균 등급에 대한 구체적인 수치를 제공하지만, 생성된 응답은 이를 생략하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 구체적인 정보가 부족하여 다소 아쉬운 점이 있습니다. 그러나 여전히 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치를 포함하지 않아 정확성 점수가 낮아졌습니다. 원본 텍스트의 중요한 사실이 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균 이하로 평가됩니다. 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원본 텍스트의 맥락과 관련이 있습니다. 그러나 구체적인 정보가 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트의 정보가 부족하여 완전한 이해를 돕지 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6237373068497459</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 정시 모집 등급 기준에 대한 정보가 제공되지 않았습니다. 관련 정보를 확인하기 위해서는 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조해 주세요. 해당 페이지에서 최신 합격 가능 등급을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 신소재공학과의 평균 점수에 대한 정확한 정보를 제공하지 않으며, 447점이 작년 신소재공학과의 평균 점수보다 높다는 사실을 부정확하게 언급하고 있습니다. 또한, ICT융합공과대학 소프트웨어공학부의 평균 점수에 대한 정보는 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 신소재공학과의 평균 점수에 대한 정보를 제공하는 반면, 생성된 응답은 다른 학부의 점수에 대한 정보를 제공하고 있어 서로 상충하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련된 주제를 다루고 있지만, 신소재공학과의 평균 점수에 대한 직접적인 정보가 부족하고 다른 학부의 점수에 대한 정보로 주제를 전환하고 있어 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요인과 추천 사항을 나열하고 있지만, 전체적으로 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 신소재공학과의 평균 점수에 대한 정확한 정보를 제공하지 않으며, 447점이 작년 신소재공학과의 평균 점수보다 높다는 사실을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 주제가 전환되면서 의미가 흐려지는 경향이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 복잡하게 표현되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7191100718199708</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 ICT융합공과대학 소프트웨어공학부의 표준 변환 점수 평균이 317.87점으로, 작년에 비해 상대적으로 낮은 수치입니다. 하지만 작년 신소재공학과의 표준 변환 점수가 447점보다 약간 높았다는 말씀을 듣겠습니다.
+현재 제공된 정보만으로는 작년 신소재공학과의 표준 변환 점수 평균이 정확히 얼마였는지 확인하기 어렵습니다. 하지만 일반적으로 동일한 대학에서 같은 학부에 대한 모집은 연도별로 일정 범위 내에서 변동이 있을 수 있습니다.
+**가능성 있는 요인:**
+1. **모집 인원 및 지원 인원의 변화:** 작년과 올해의 모집 인원이나 지원 인원이 달라져 경쟁률이 변했을 가능성이 있습니다.
+2. **학생들의 성적 분포:** 작년에 비해 학생들의 성적이 더 높아졌거나 낮아진 경우도 고려해야 합니다.
+3. **입학사정관의 평가 기준:** 입학사정관들이 올해는 더 엄격하게 평가했을 수도 있습니다.
+**추천 사항:**
+1. **최신 정보 확인:** 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하여 작년 신소재공학과의 표준 변환 점수 평균을 확인해 보세요.
+2. **경쟁률 분석:** 작년과 올해의 경쟁률을 비교하여 작년에 비해 상대적으로 낮아졌는지 확인하세요.
+이런 정보를 바탕으로 더 정확한 판단을 내릴 수 있을 것입니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교 입학처 웹사이트를 방문하여 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 여러 요인을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 성적 데이터와 비교하여 다소 일반적인 정보로 대체되었습니다. 원본의 구체적인 성적 평균과 표준 편차에 대한 언급이 부족하여 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 신소재공학부의 합격 가능성에 대한 추가적인 요소를 언급하면서 원본의 구체적인 성적 기준을 간과했습니다. 따라서 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학부의 합격 가능성에 대한 정보를 제공합니다. 그러나 원본의 구체적인 성적 데이터와 비교하는 부분이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본의 구체적인 성적 기준과의 연결이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 여러 요인을 언급하지만, 원본 텍스트의 구체적인 성적 기준을 반영하지 않아 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 구체적인 데이터와 비교할 때 부족한 점이 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 신소재공학부의 합격 가능성에 대한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해 가능성은 아닙니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5429590756806675</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 정시 성적이 4.1~4.2로 예상된다면, 신소재공학부 일반학생전형에 합격할 수 있을지는 여러 요인에 따라 다릅니다.
+신소재공학부의 경우, 학생부종합 평가를 포함하여 실기/실적과 같은 다양한 요소들이 고려됩니다. 따라서 정시 성적 외에도 다음과 같은 요소들이 중요하게 작용합니다:
+1. **학생부 교과성적**: 반영과목 수와 석차등급이 중요한 역할을 합니다.
+2. **면접 성적**: 면접에서의 발언력, 소통 능력 등도 고려됩니다.
+3. **추천서 및 서류**: 추천서나 자기소개서 등의 서류가 합격에 큰 영향을 줄 수 있습니다.
+현재 상황에서는 정시 성적이 4.1~4.2로 예상되므로, 다음과 같은 조치를 취해보는 것이 좋습니다:
+- **학생부 교과성적 강화**: 반영과목 수와 석차등급을 최대한 높이는 것이 중요합니다.
+- **면접 준비**: 면접에서의 발언력과 소통 능력을 향상시키기 위해 미리 준비해보세요.
+- **추천서 및 서류 작성**: 추천서와 자기소개서를 잘 작성하여 합격 가능성을 높이도록 하세요.
+따라서, 정시 성적만으로는 확실한 합격을 보장할 수 없지만, 위의 조치들을 통해 합격 가능성은 높일 수 있습니다. 자세한 내용은 대학 홈페이지나 입학처에 문의하여 확인하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 성적 기준에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 하고 있습니다. 이는 원본 텍스트에서 제공된 구체적인 성적 정보를 무시하고 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 성적 정보를 반영하지 않고, 일반적인 정보만을 제공하고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 대한 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 성적 기준에 대한 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 주제를 다루고 있어 어느 정도의 관련성은 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 정보와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트에서 제공된 구체적인 성적 기준을 무시하고 일반적인 조언을 제공하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소가 있지만, 사실성과 일관성에서 큰 결함이 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 구체적인 질문에 대한 적절한 답변이 부족하여 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.773789943937002</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과는 현재 제공된 정보로는 해당 학과에 대한 모집단위와 모집인원, 전형요소 반영비율 등이 명시되어 있지 않습니다. 따라서 정확한 수능 성적 기준을 알려드리기는 어렵습니다.
+하지만 일반적으로 인공지능학과의 경우 국어, 수학, 영어, 탐구 영역 중에서 좋은 성적이 요구되며, 특히 수학 영역에서는 높은 점수를 얻는 것이 중요합니다. 또한 탐구 영역에서도 사회탐구나 과학탐구 등 관련 분야의 과목을 선택하는 것이 유리할 수 있습니다.
+또한 동의대학교의 경우 다른 학과와 마찬가지로 수능 성적 기준 외에도 실기고사나 학생부 종합 평가 등을 통해 전형이 이루어질 수 있으므로, 해당 정보를 확인하시기 바랍니다. 
+더 자세한 정보를 얻으시려면 동의대학교 입학처 홈페이지 또는 직접 문의해보시는 것이 좋습니다. 필요하다면 "https://ipsi. deu.ac.kr/main.do" 링크를 참조하여 더 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보와 관련된 내용을 다루고 있지만, 원본 텍스트에서 제공된 구체적인 학과별 성적 정보와 충원 합격 가능성에 대한 내용을 제대로 반영하지 못하고 있습니다. 대신, 학생부종합전형과 면접 평가에 대한 일반적인 정보를 제공하고 있어 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 5.27 성적에 대한 충원 합격 가능성을 구체적으로 다루고 있지만, 생성된 응답은 전혀 다른 주제인 학생부종합전형과 면접 평가에 초점을 맞추고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 질문에 대한 답변을 제공하고 있지만, 원본 텍스트의 핵심 내용인 충원 합격 가능성에 대한 정보는 포함되어 있지 않습니다. 따라서 관련성 점수가 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결성이 부족하여 논리적인 흐름이 약간 떨어집니다. 주제 간의 전환이 매끄럽지 않아 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 정보만을 제공하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 부족한 점이 많아 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 주제의 일관성이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6375288398579965</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교(나군)의 정시 모집에 지원이 가능할지는 여러 요인들을 고려해야 합니다. 주요 평가 영역과 기준을 살펴보겠습니다.
+1. **학생부종합전형**:
+   - **평균성적**: 5.27은 상대적으로 낮은 성적입니다.
+   - **평가영역 및 배점**:
+     - 공동체역량: 학생 개인의 노력, 교사 평가 등
+     - 학업역량: 수업시간 참여, 성취정도 등
+     - 전공적합성: 지원전공 관련 활동과 경험
+2. **면접평가**:
+   - **평균성적**: 5.27은 낮은 성적이므로 면접에서 좋은 인상을 주어야 합니다.
+   - **평가영역 및 배점**:
+     - 학업역량: 문제해결능력, 학업계획 등
+     - 전공적합성: 진로정보 탐색능력, 지원전공 관련 활동 경험
+3. **서류평가와 면접평가의 비중**:
+   - 서류평가: 60%
+   - 면접평가: 40%
+5.27이라는 성적을 가지고 지원하려면 다음과 같은 점들을 강조해야 합니다:
+- **공동체역량**: 협업능력, 배려 등
+- **학업역량**: 수업시간 참여도, 학업에 대한 흥미와 주도적 노력
+- **전공적합성**: 지원전공 관련 활동과 경험
+**추천 사항**:
+1. **서류 작성 시**: 성적을 낮게 보여주더라도 다른 긍정적인 요소들을 강조해야 합니다.
+2. **면접 준비 시**: 문제해결능력, 학업계획, 진로정보 탐색능력을 잘 준비해야 합니다.
+**결론**:
+5.27이라는 성적을 가지고 지원하려면 서류와 면접에서 긍정적인 요소들을 강조하고, 다른 평가 영역에서 좋은 점수를 받는 것이 중요합니다. 자세한 내용은 입학사정관과 상담하여 최종 결정을 내리는 것을 추천드립니다.
+더 궁금하신 사항이 있으시면 https://ipsi.deu.ac.kr/main.do 에 접속하시거나, 학교 입학사정관에게 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시 성적 4.2에 대한 합격 가능성을 다루고 있지만, 제공된 출처 텍스트의 정보와는 상충하는 내용을 포함하고 있습니다. 예를 들어, 출처 텍스트는 4.2의 성적이 평균보다 높아 합격 가능성이 높다고 언급하고 있으나, 생성된 응답은 합격하기 어렵다고 판단하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 출처 텍스트와 일관성이 부족합니다. 출처 텍스트는 4.2의 성적이 평균보다 높다고 하였으나, 생성된 응답은 충원 합격 기준을 넘기기 어렵다고 주장하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 정시 성적 4.2에 대한 합격 가능성에 대한 여러 요인을 설명하고 있습니다. 그러나 출처 텍스트의 핵심 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 나열하고 있지만, 전체적인 논리적 흐름이 다소 약합니다. 각 요인 간의 연결이 명확하지 않아 일관된 주제를 유지하기 어렵습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 출처 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 예를 들어, 4.2의 성적이 평균보다 높다는 사실을 무시하고 합격 가능성이 낮다고 주장하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 신뢰할 수 있는 정보로 보이지 않습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 출처 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 복잡하게 표현되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6423591885027741</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2인 경우 충원 합격 (후보순위)은 63이며, 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다.
+정시 성적 4.2는 대략적으로 중등 정도의 성적이므로, 충원 합격 기준을 넘기기는 어려울 것으로 보입니다. 그러나 정시 모집에서 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. **개별 지원자의 성적 분포**: 전체 지원자의 성적 분포가 어떻게 되는지에 따라 달라질 수 있습니다.
+2. **학생부 종합 평가 영역의 점수**: 학생부 종합 평가 영역에서 높은 점수가 있으면 이점이 될 수 있습니다.
+3. **면접 성적**: 일부 모집단위에서는 면접 점수가 포함되어 합격 기준을 결정할 수 있습니다.
+따라서, 정시 성적 4.2로 동의대학교 소프트웨어공학부에 합격하기는 어렵다고 판단됩니다. 그러나 최종 합격 여부는 지원자의 전체 평가 결과를 바탕으로 결정되므로, 지원을 하는 것이 좋습니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 참조하시거나 관계된 부서에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 3.92라는 점수가 높은 성적이라는 점도 정확하게 언급하고 있습니다. 그러나, 면접이나 서류심사와 같은 다른 요소들이 고려된다는 점에서 다소 모호한 부분이 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 유지되고 있으며, 3.92라는 점수에 대한 긍정적인 해석을 제공합니다. 그러나, 면접과 서류심사에 대한 언급이 추가되어 원본 텍스트의 초점과 약간의 차이를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 화학환경공학부의 일반학생전형에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나, 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 3.92라는 점수에 대한 해석이 정확하며, 화학환경공학부의 평균 등급과 비교하여 합격 가능성을 잘 설명하고 있습니다. 그러나, 면접과 서류심사에 대한 언급이 다소 추가적인 정보로 보일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 질문에 대한 적절한 답변을 제공합니다. 다만, 추가적인 정보가 포함되어 있어 약간의 맥락 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나, 일부 문장에서 약간의 복잡함이 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.685560945615887</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92이라는 점수를 가지고 화학환경공학부의 일반학생전형에 지원이 가능한지 확인해보겠습니다.
+1. **성적 산출 방법**: 동의대학교는 학생부교과 성적을 반영하는 전형에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목을 반영합니다. 이 경우, 3.92이라는 점수는 매우 높은 성적입니다.
+2. **화학환경공학부 일반학생전형**: 화학환경공학부의 일반학생전형에서는 학생부교과성적이 중요한 요소 중 하나로 작용합니다. 하지만, 이 전형에서 성적이 결정적인 것은 아닙니다. 면접이나 서류심사 등 다른 요소들도 함께 고려됩니다.
+3. **성적 기준**: 3.92이라는 점수는 매우 높은 성적입니다. 대부분의 학생들이 이보다 낮은 점수를 받기 때문에, 이 점수로 지원하면 좋은 결과를 얻을 가능성이 큽니다.
+따라서, 3.92라는 점수로 화학환경공학부의 일반학생전형에 지원한다면 큰 기회가 될 것입니다. 하지만, 최종 결정은 면접 성적과 서류심사 등 다른 요소들에 의해 이루어질 수 있으므로, 지원을 위해 필요한 모든 준비를 철저히 해야 합니다.
+만약 더 자세한 정보나 추가적인 질문이 있다면, "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원본 텍스트의 주요 사실인 최초합격자의 평균 점수와 비교하여 성적 4.25의 합격 가능성을 판단하는 데 필요한 정보를 왜곡하고 있습니다. 평균 점수 257.00은 원본 텍스트의 276.61보다 낮으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관되지 않습니다. 원본 텍스트는 성적 4.25가 합격 가능성이 높다고 판단했지만, 생성된 응답은 300점 이상의 수능 점수가 필요하다고 언급하여 상충되는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 성적 4.25의 합격 가능성에 대한 직접적인 답변이 부족합니다. 경쟁률과 평균 점수에 대한 정보는 관련이 있지만, 주제에서 벗어난 부분도 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보가 나열되어 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 경쟁률과 평균 점수에 대한 정보가 혼합되어 있어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히 평균 점수와 관련된 부분에서 잘못된 수치를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 합격 가능성에 대한 판단이 원본과 다르게 제시되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 일관성이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6631866568144427</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부의 경쟁률과 평균 점수를 확인해보겠습니다.
+화학환경공학부의 관련 정보는 다음과 같습니다:
+- 모집 인원: 6명
+- 지원 인원: 9명
+- 경쟁률: 1.50
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 257.00
+이 정보를 바탕으로, 정시 성적이 4.25인 경우 수능 점수가 어느 정도일지 추정해보겠습니다.
+1. **경쟁률과 지원 인원**: 경쟁률이 1.50이며, 지원 인원은 9명입니다. 이는 상대적으로 낮은 경쟁률을 보여줍니다.
+2. **평균 점수**: 평균 점수가 257.00이라는 것은 대체로 중간 수준의 학생들이 지원하고 있다는 것을 의미합니다.
+정시 성적이 4.25인 경우, 수능 점수는 대략적으로 300점 이상이어야 경쟁력을 갖추게 됩니다. 평균 점수가 257.00이고, 경쟁률이 낮은 상황에서 300점을 넘는 점수를 얻으면 충분히 합격 가능성이 높아 보입니다.
+하지만 정확한 합격 가능성 판단을 위해서는:
+- 자신의 실력과 수능 성적 예상치
+- 동의대학교 화학환경공학부의 최종 합격 점수 범위 확인
+이런 정보들을 종합적으로 고려해야 합니다. 만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 영화학과의 평균 성적에 대한 정보를 포함하고 있지만, "영화학과의 평균 성적이 4.04"라는 부분은 잘못된 정보입니다. 원문에서는 수능 4개 영역 등급의 평균이 5.04라고 명시되어 있습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 평균 성적에 대한 잘못된 정보로 인해 일관성이 떨어집니다. 또한, 경쟁 비율과 관련된 정보는 원문에 포함되어 있지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 영화학과의 입학 가능성에 대한 정보를 포함하고 있습니다. 그러나 일부 내용이 원문과 관련이 적은 부분이 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 중국어로 되어 있어 한국어 사용자에게는 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 대체로 일관되지만, 중국어 문장이 포함되어 있어 논리적 흐름이 방해받고 있습니다. 이로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답의 일부 정보는 정확하지만, 평균 성적에 대한 잘못된 정보가 포함되어 있어 정확성이 떨어집니다. 또한, 경쟁 비율과 관련된 정보는 원문에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있지만, 전반적으로 유용한 정보를 제공하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 중국어 문장이 포함되어 있어 의미 전달에 혼란을 줄 수 있습니다. 이는 원문과의 의미적 일치를 저해합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 응답은 전반적으로 이해할 수 있지만, 중국어 문장이 포함되어 있어 한국어 사용자에게 혼란을 줄 수 있습니다. 이로 인해 이해 가능성이 떨어집니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.7265260174849886</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 4개 영역 등급의 평균을 기준으로 보면, 2024학년도에 지원한 영화학과의 경우 수능 4개 영역 등급의 평균이 5.04였습니다. 따라서您的问题似乎是在询问关于电影学专业的录取情况。根据提供的信息，电影学专业的平均成绩为4.04，而你的成绩是4.2。
+在韩国大学入学考试中，各专业有不同的录取标准和竞争程度。从你提供的数据来看，电影学专业的竞争相对较小（竞争比率为2.20），并且已经有多名学生被录取（充원合格数为6）。此外，平均分也低于你的成绩。
+基于这些信息，你的4.2的成绩应该能够满足电影学专业的录取要求，并且有较高的可能性会被录取。但是最终是否能被录取还取决于具体的招生政策和其他因素，建议你关注学校发布的最新信息和指南，以确保准确了解录取情况。
+如果还有其他疑问或需要进一步的帮助，请访问“https://ipsi.deu.ac.kr/main.do”获取更多信息。</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 원본의 내용을 잘 설명하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 문장도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9611471190036466</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 통해 면접을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
